--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.51</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.013</v>
+        <v>17.159</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4816982118.155</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1992148.103</v>
+        <v>33.345</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.963</v>
+        <v>0.887</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.143</v>
+        <v>8.959</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1150555.202989921</v>
+        <v>20.24150053066638</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-584854.1491781349</v>
+        <v>20.27483330775105</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-685962.8833762357</v>
+        <v>20.28096933159899</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3184157.285990334</v>
+        <v>20.20520339656079</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-401843.867010263</v>
+        <v>20.28409307403105</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-367518.6573976775</v>
+        <v>20.29035891470243</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-3049473.563386185</v>
+        <v>20.22243918998269</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>873482.1048124176</v>
+        <v>20.32108088799698</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>521899.2775473756</v>
+        <v>20.32533547400833</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>799196.8108117328</v>
+        <v>20.34088016937149</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1444504.837265776</v>
+        <v>20.35309238643126</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1542612.251316638</v>
+        <v>20.36358353318785</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-1025018.324859958</v>
+        <v>20.26507146105266</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>471892.0373502851</v>
+        <v>20.34059627529928</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>706236.8390605615</v>
+        <v>20.36124107093497</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-452221.5948413264</v>
+        <v>20.26187338078446</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>911713.5081708026</v>
+        <v>20.3444678307103</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1380036.727382552</v>
+        <v>20.3633602949931</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1415898.38377699</v>
+        <v>20.22393594990746</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>606727.2775938839</v>
+        <v>20.33742221561782</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1366712.002540606</v>
+        <v>20.36488707242401</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1264098.235842306</v>
+        <v>20.23883948431899</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2449983.334437294</v>
+        <v>20.39840276704022</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3375757.698722897</v>
+        <v>20.43010913959689</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1757491.187058444</v>
+        <v>20.45017429288641</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2299163.053306986</v>
+        <v>20.4901486857776</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2639676.791618996</v>
+        <v>20.51715313346355</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-69538.84125012231</v>
+        <v>20.29843779694242</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2449609.732993297</v>
+        <v>20.48678392851552</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2759923.726673018</v>
+        <v>20.5170536691627</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>359997.6871025367</v>
+        <v>20.28931577059057</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1616698.283654262</v>
+        <v>20.39102577160397</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1798327.210498601</v>
+        <v>20.4179410354403</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-868826.7691271743</v>
+        <v>20.24710322905525</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1058336.150012327</v>
+        <v>20.39971845623152</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1526020.909595818</v>
+        <v>20.42584127925971</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-533734.1107618005</v>
+        <v>20.27785482010233</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3231365.183265074</v>
+        <v>20.47562921783784</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3356316.290243498</v>
+        <v>20.52037176123147</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2816365.326523934</v>
+        <v>20.60719194657862</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3033895.002209317</v>
+        <v>20.64563197481974</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3153572.036737327</v>
+        <v>20.68212185001</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>608057.8262586769</v>
+        <v>20.37602735277693</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2994236.632705893</v>
+        <v>20.61273045410488</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3018679.973051657</v>
+        <v>20.64932953428011</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-1767722.091551053</v>
+        <v>20.24555864500774</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1569065.974733218</v>
+        <v>20.33888996584274</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1628932.508439787</v>
+        <v>20.34872520960019</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-2253861.868181872</v>
+        <v>20.2220119796631</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1876067.949932252</v>
+        <v>20.36216014104056</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1917040.472764637</v>
+        <v>20.37317887286556</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-2383634.803763282</v>
+        <v>20.24714762159521</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4237185.966166139</v>
+        <v>20.42592672792141</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4050024.679893312</v>
+        <v>20.43032638269317</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2535990.75976017</v>
+        <v>20.44689621346039</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3034061.028655858</v>
+        <v>20.4748214490145</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3065952.338485369</v>
+        <v>20.48495214677672</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-889199.1104935163</v>
+        <v>20.29124001893437</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2566530.126843373</v>
+        <v>20.45619341963691</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2690311.244588155</v>
+        <v>20.47961493795529</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-772062.3287018823</v>
+        <v>20.22742927596558</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>952273.0806872456</v>
+        <v>20.3689991361813</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1254825.830968652</v>
+        <v>20.3880474070638</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-1118141.41993125</v>
+        <v>20.19759335717405</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>785963.2761652991</v>
+        <v>20.37022842080567</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1272708.228060164</v>
+        <v>20.39924476443639</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-1073975.191013743</v>
+        <v>20.21972050681837</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2190399.607730669</v>
+        <v>20.46267518009545</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2958317.625374096</v>
+        <v>20.49094685211042</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1415575.636494269</v>
+        <v>20.50711703568749</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1854272.73062503</v>
+        <v>20.56452003264178</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1965564.350379865</v>
+        <v>20.58052363936712</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-554513.5683145366</v>
+        <v>20.27837171301048</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1837741.437968551</v>
+        <v>20.5622640058778</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2004983.834684618</v>
+        <v>20.58926355288231</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-685160.6695475805</v>
+        <v>20.2386823043861</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1072310.025897912</v>
+        <v>20.41184755816639</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1194605.737503287</v>
+        <v>20.44180639998206</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-996333.5903152475</v>
+        <v>20.20354054740544</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1092978.04765678</v>
+        <v>20.42808873376824</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1373912.457825037</v>
+        <v>20.45970567962391</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-928477.3743772089</v>
+        <v>20.24055371085174</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2609129.716769346</v>
+        <v>20.53765525418837</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2929210.094301517</v>
+        <v>20.58184855594149</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2002891.511524078</v>
+        <v>20.66016966784017</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>2350906.866961441</v>
+        <v>20.73016597654916</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2340639.811732074</v>
+        <v>20.75218085788558</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-294012.7748912849</v>
+        <v>20.33950112351063</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>2073138.169761147</v>
+        <v>20.69340427871776</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2107519.614110086</v>
+        <v>20.73320084288689</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>84337.64400692872</v>
+        <v>20.26372746167784</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1775993.563080396</v>
+        <v>20.33875225699379</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1893816.104274904</v>
+        <v>20.34114544964031</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-1627581.977137288</v>
+        <v>20.22751244586165</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1836595.532999424</v>
+        <v>20.3528193469232</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1872398.122446639</v>
+        <v>20.35495943107185</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-1685491.878169139</v>
+        <v>20.25579610163749</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>4154810.238777983</v>
+        <v>20.41644470513734</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3666146.233287977</v>
+        <v>20.41350500585003</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2489195.852227538</v>
+        <v>20.44833611697292</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>3294996.319220509</v>
+        <v>20.47040329296755</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>3151194.84364509</v>
+        <v>20.47377717755517</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>219300.9815224546</v>
+        <v>20.31455383243167</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2631496.880543825</v>
+        <v>20.44821725798718</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>2604648.033356359</v>
+        <v>20.46477082083025</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>8301.193243625496</v>
+        <v>20.27124153816343</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1343043.091484159</v>
+        <v>20.39598301443654</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1490141.364962148</v>
+        <v>20.40437229021932</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-927567.3254864379</v>
+        <v>20.22802482475436</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1024727.09281416</v>
+        <v>20.39091386717623</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1346390.100041643</v>
+        <v>20.40762123002881</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-912527.5299992982</v>
+        <v>20.25472450440773</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2531770.353062919</v>
+        <v>20.481873833531</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>3033895.145410176</v>
+        <v>20.49904529001751</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1568351.751060122</v>
+        <v>20.53904966332795</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2044243.061966938</v>
+        <v>20.58288296659553</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2016663.557619909</v>
+        <v>20.59094168638321</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>128814.9699063461</v>
+        <v>20.33137956728615</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1919510.062050196</v>
+        <v>20.58003023007146</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1942278.245529327</v>
+        <v>20.59886382742047</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>211515.1339480699</v>
+        <v>20.28348054642821</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1390866.596154277</v>
+        <v>20.4400200923454</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1379724.310467998</v>
+        <v>20.45719873129295</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-746953.5885165907</v>
+        <v>20.23419691206601</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1342025.368977535</v>
+        <v>20.45087630188992</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1419506.761687099</v>
+        <v>20.46712632255113</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-720905.4445086637</v>
+        <v>20.2757587104443</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2783715.459158711</v>
+        <v>20.5574133355486</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2799179.256179182</v>
+        <v>20.58831308406754</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2143012.230401938</v>
+        <v>20.6946460819452</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2291958.294625213</v>
+        <v>20.7507735685374</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2361782.666564471</v>
+        <v>20.76295848747321</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>388614.1478254434</v>
+        <v>20.39572605959895</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2203465.811869473</v>
+        <v>20.71382630021239</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2137533.233058895</v>
+        <v>20.74222796306303</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-1136952.678172441</v>
+        <v>20.25488195216568</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-436566.3678060769</v>
+        <v>20.28216908814804</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>-421583.431877591</v>
+        <v>20.2869829684397</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-2980096.927301977</v>
+        <v>20.21956024513332</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-270338.8761245572</v>
+        <v>20.29201909000181</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-125372.0025486058</v>
+        <v>20.29841906025112</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-2564709.800687693</v>
+        <v>20.23239713212444</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>854788.2303343152</v>
+        <v>20.32435396953976</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>703388.7086191177</v>
+        <v>20.32706882453244</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1008940.852937495</v>
+        <v>20.34559494139477</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1356093.008786127</v>
+        <v>20.35394153327383</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1789530.76041174</v>
+        <v>20.36799843864556</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>2429850.160012094</v>
+        <v>20.30292714098927</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>3365531.623122033</v>
+        <v>20.36763452534382</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>3364822.832275167</v>
+        <v>20.38452827556399</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-568984.9370156698</v>
+        <v>20.26372758030843</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1084923.619326581</v>
+        <v>20.33446625269175</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1616557.512521785</v>
+        <v>20.35081209122316</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-1234422.109846265</v>
+        <v>20.23061783781137</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1117205.437049089</v>
+        <v>20.3318567132447</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1863213.359224166</v>
+        <v>20.35892343046831</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-699206.2553669276</v>
+        <v>20.23604004334728</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>2690613.066991514</v>
+        <v>20.38252162507547</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>3637303.14129897</v>
+        <v>20.41143196959345</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1728743.781425351</v>
+        <v>20.42540111376576</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>2113327.358550529</v>
+        <v>20.45993570586123</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>2452895.242698047</v>
+        <v>20.49076102641337</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>165064.1196874967</v>
+        <v>20.31320660996214</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>2336696.380637366</v>
+        <v>20.4849022044678</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>2575247.042315424</v>
+        <v>20.50779746459057</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>241521.7579423679</v>
+        <v>20.30185153370195</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1492607.401301835</v>
+        <v>20.39062571516758</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1628928.610496035</v>
+        <v>20.41465703572193</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-837272.2898518479</v>
+        <v>20.25768660049073</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1237962.66432074</v>
+        <v>20.39715596302604</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1670983.469853776</v>
+        <v>20.42290335845789</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-385664.4896332638</v>
+        <v>20.28125680779931</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>3109086.988785418</v>
+        <v>20.46484138616613</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>3287921.014325541</v>
+        <v>20.50666354548066</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>2406797.818901132</v>
+        <v>20.58285813421771</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2531363.961983356</v>
+        <v>20.61696084047551</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2912508.251728742</v>
+        <v>20.65644298858935</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>687554.2018544285</v>
+        <v>20.39874319158399</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2684975.538032907</v>
+        <v>20.61664481116074</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2765085.93072944</v>
+        <v>20.64416563492704</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>383514.5035859838</v>
+        <v>20.26999760357053</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>2968297.308235079</v>
+        <v>20.32744660757692</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2632032.250804972</v>
+        <v>20.32904201679432</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-1988833.441468735</v>
+        <v>20.23526125132517</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>2819016.09102314</v>
+        <v>20.34010070024079</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>2838283.22707116</v>
+        <v>20.34462547828506</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-1494971.626362156</v>
+        <v>20.26010369640186</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>6012854.117224078</v>
+        <v>20.38804854524327</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>5352559.231081581</v>
+        <v>20.38717869092852</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>2717512.559135878</v>
+        <v>20.40032016816655</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>3827420.844791196</v>
+        <v>20.41882905550601</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>3768759.784757419</v>
+        <v>20.4250587232661</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-273885.7099680686</v>
+        <v>20.31120091823502</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>996588.9737391165</v>
+        <v>20.40409693635329</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>956490.9425870504</v>
+        <v>20.41805190386661</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>578627.8619165573</v>
+        <v>20.30085247448218</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>2119944.426187086</v>
+        <v>20.40727499455068</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1989810.432122033</v>
+        <v>20.41401389027875</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1218615.854533721</v>
+        <v>20.26518122649519</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1450627.910035136</v>
+        <v>20.40513717824712</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>1864036.73594097</v>
+        <v>20.4241729809245</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-793990.90082756</v>
+        <v>20.28819303409477</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>3654355.1170372</v>
+        <v>20.47829815433345</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>3973499.024785953</v>
+        <v>20.49679356414992</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>2411206.74011204</v>
+        <v>20.53448534736499</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>2841659.912927707</v>
+        <v>20.5798994877456</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2927548.945416369</v>
+        <v>20.59821548325067</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>889123.5593848546</v>
+        <v>20.37966807120923</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>2956148.285755717</v>
+        <v>20.58543945492193</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>721644.1600342818</v>
+        <v>20.31075898987876</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>2090427.166566782</v>
+        <v>20.43555415609551</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1967906.445796899</v>
+        <v>20.45312607468842</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>-975302.5351947737</v>
+        <v>20.26737350965568</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1448433.909455146</v>
+        <v>20.44469861173337</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1664061.291588666</v>
+        <v>20.46575004998489</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-784556.4406064069</v>
+        <v>20.30448459779742</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>3500716.880168772</v>
+        <v>20.53209103489582</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>3680054.685691054</v>
+        <v>20.56671539629485</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>2856878.198386137</v>
+        <v>20.6588400052247</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>2968537.852406875</v>
+        <v>20.70539581306015</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>3112223.758887757</v>
+        <v>20.73206182147014</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>966860.7801386977</v>
+        <v>20.42587883815093</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>3090663.527530536</v>
+        <v>20.67904140104925</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>3045727.237626669</v>
+        <v>20.70220897062682</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-75617.26070653627</v>
+        <v>20.24106816657291</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>976438.7875139649</v>
+        <v>20.35451086187217</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1188867.375221189</v>
+        <v>20.35831643858247</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-1034256.695226425</v>
+        <v>20.20407845070132</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1201753.048524644</v>
+        <v>20.3793774229331</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>1160829.307791021</v>
+        <v>20.39247075629411</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-1003509.361301708</v>
+        <v>20.23790531261464</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>2773691.961139187</v>
+        <v>20.46254166482376</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>2492224.723167442</v>
+        <v>20.45867511606568</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1261088.74733231</v>
+        <v>20.44699363605342</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1613424.043309607</v>
+        <v>20.48136660630389</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1673692.272826592</v>
+        <v>20.49030590074053</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-475695.8633462643</v>
+        <v>20.27029641351952</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-412799.1183070737</v>
+        <v>20.43790264962412</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-411705.935010195</v>
+        <v>20.45096747734783</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>84182.03842260208</v>
+        <v>20.27821070176889</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>1083345.533921754</v>
+        <v>20.47215383307685</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>1052245.813003181</v>
+        <v>20.47799444442329</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-592288.9287051009</v>
+        <v>20.21350777894088</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>738095.3830246464</v>
+        <v>20.45256820183558</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>880860.6600727234</v>
+        <v>20.48189842408516</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-571884.3270192952</v>
+        <v>20.25879853095291</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>1734084.795889146</v>
+        <v>20.58737354541039</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1812153.674957378</v>
+        <v>20.60277444062764</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1028051.385291374</v>
+        <v>20.63066489743852</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>1287621.397858594</v>
+        <v>20.70314803713598</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>1345709.182384248</v>
+        <v>20.72140154161608</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>108648.8763698563</v>
+        <v>20.36442755350045</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>1331903.08256764</v>
+        <v>20.71169936526321</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>1331835.023232921</v>
+        <v>20.71888373734184</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>86286.90438414113</v>
+        <v>20.2777420498127</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>929778.2250648151</v>
+        <v>20.50374608102055</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>967493.7505052676</v>
+        <v>20.52570953555108</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-492566.6274487437</v>
+        <v>20.19675284118943</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>714985.3810377135</v>
+        <v>20.49199986964718</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>834822.611842981</v>
+        <v>20.52693155698854</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-453775.8434005439</v>
+        <v>20.2614183728924</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1619318.112833634</v>
+        <v>20.64943094232293</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1691143.573753414</v>
+        <v>20.68786326121111</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1194132.002755892</v>
+        <v>20.78765011827873</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1370833.041876607</v>
+        <v>20.86940409285797</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1390348.44785439</v>
+        <v>20.88778240608992</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>106530.5878322176</v>
+        <v>20.40492793012379</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1285445.374396451</v>
+        <v>20.82944063763021</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1247348.153948664</v>
+        <v>20.84889862569297</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-936569.3523676815</v>
+        <v>20.20122548040582</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-1018744.292022585</v>
+        <v>20.23792037781094</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-798526.0232115514</v>
+        <v>20.24239656575037</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-1575307.067300957</v>
+        <v>20.15759912769997</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-661991.5642302723</v>
+        <v>20.25845493499791</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-587416.4026555148</v>
+        <v>20.26084298013291</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-1619304.496408739</v>
+        <v>20.17681555066661</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-155226.3797828698</v>
+        <v>20.30809826729881</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-183242.6938873456</v>
+        <v>20.3066958107988</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>215308.9124139652</v>
+        <v>20.33828551828364</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>509960.6379861385</v>
+        <v>20.35802689989234</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>537647.8806069479</v>
+        <v>20.36569979723265</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-519939.2417509295</v>
+        <v>20.23011963151893</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-74494.34525957255</v>
+        <v>20.32008453860796</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-164331.5072099068</v>
+        <v>20.33964959198815</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-421884.9006100527</v>
+        <v>20.23179575300746</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>220874.5354813552</v>
+        <v>20.34552461549992</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>450370.0801177114</v>
+        <v>20.37332711298416</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-726379.2377713623</v>
+        <v>20.18699751414628</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>133568.544300391</v>
+        <v>20.34939575816761</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>456215.5455426688</v>
+        <v>20.38710132465046</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-677646.2404141267</v>
+        <v>20.20797331150881</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>839850.2349291866</v>
+        <v>20.43607934844707</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>1194990.585130374</v>
+        <v>20.47603644430219</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>539333.7326209646</v>
+        <v>20.49743102752752</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>781576.1132384342</v>
+        <v>20.55108994407315</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>884056.1749273493</v>
+        <v>20.57611202357679</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-209337.3478359876</v>
+        <v>20.2834308080786</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>773429.2529831256</v>
+        <v>20.53626101819647</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>833328.8290362465</v>
+        <v>20.57389795451533</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-163026.9037003347</v>
+        <v>20.26266646132497</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>440159.8291631901</v>
+        <v>20.41442221756514</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>629761.1211832142</v>
+        <v>20.44750524440448</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-454608.5999468912</v>
+        <v>20.20948882891516</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>504739.0309234529</v>
+        <v>20.44010115082101</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>753622.3801789979</v>
+        <v>20.46880993186725</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-384892.1790480521</v>
+        <v>20.25757072786183</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>1308618.736379059</v>
+        <v>20.55122624314225</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>1411991.04912178</v>
+        <v>20.60229153438718</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>1084407.094441071</v>
+        <v>20.72561115365717</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>1229229.484494029</v>
+        <v>20.78639881960388</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>1240705.815381341</v>
+        <v>20.81210955719958</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>219653.3760846952</v>
+        <v>20.39932549198813</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>1208260.377701835</v>
+        <v>20.73465991673695</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>1247145.105816287</v>
+        <v>20.77814171322604</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-1398254.55258121</v>
+        <v>20.21051794784729</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-1122370.720786431</v>
+        <v>20.23549973484058</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-1245939.313670897</v>
+        <v>20.24444765872528</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-2472459.630050977</v>
+        <v>20.17797010020072</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-932649.3063919293</v>
+        <v>20.25058154467918</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-893334.7091019934</v>
+        <v>20.26291588134499</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-2678561.820885031</v>
+        <v>20.18648343434741</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-636107.4577432401</v>
+        <v>20.28741318311935</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>-851161.8487065987</v>
+        <v>20.29375444391958</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-324687.244005617</v>
+        <v>20.29505902349522</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>83094.16794647068</v>
+        <v>20.30854572937587</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>6198.447615589969</v>
+        <v>20.32424378522316</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-1273439.002902769</v>
+        <v>20.21974767572735</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-554218.5017272057</v>
+        <v>20.28443261448721</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-673467.5330811884</v>
+        <v>20.30103076686618</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-1309367.910750022</v>
+        <v>20.17715600195737</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-995393.581798233</v>
+        <v>20.24034759100185</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-691942.0498345997</v>
+        <v>20.26107419363117</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-1570499.91375218</v>
+        <v>20.15297062034427</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-858455.8816090954</v>
+        <v>20.24634890528614</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-501902.2106047959</v>
+        <v>20.2798533388221</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-1727693.157789835</v>
+        <v>20.14941995119131</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-397699.0888714839</v>
+        <v>20.30178864859761</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>277650.8082227306</v>
+        <v>20.33625923169435</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-260163.3065481331</v>
+        <v>20.33671906488652</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>332338.8960830953</v>
+        <v>20.38034118596482</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>683268.1176835642</v>
+        <v>20.41653671761161</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-857821.7905550449</v>
+        <v>20.19444857648604</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-6771.411246827257</v>
+        <v>20.36666110515459</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-88569.32528366783</v>
+        <v>20.38686810465831</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-973638.8440681285</v>
+        <v>20.19920794041705</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-483684.6736372773</v>
+        <v>20.28152966871318</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>268324.7063964611</v>
+        <v>20.3217259716749</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-1256143.030116135</v>
+        <v>20.16783120809432</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-298904.2586388642</v>
+        <v>20.30181062462074</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>451373.9057268634</v>
+        <v>20.34615156726593</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-1378802.597109946</v>
+        <v>20.18022488961768</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>348438.8297406929</v>
+        <v>20.37321831255834</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1536838.254854511</v>
+        <v>20.43328568821709</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>482826.5000379485</v>
+        <v>20.49174492435718</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>983253.4058157314</v>
+        <v>20.53848065900255</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>1613318.811991276</v>
+        <v>20.58995822826527</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-621882.704305706</v>
+        <v>20.26023620588615</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>616010.6388131987</v>
+        <v>20.48506586730316</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>824926.8890531887</v>
+        <v>20.52127233168935</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-496210.6228971191</v>
+        <v>20.24678471948233</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>268882.1927101233</v>
+        <v>20.35374591660035</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>1044245.406651653</v>
+        <v>20.36303805026362</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-1209702.596017417</v>
+        <v>20.22755561399947</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>1590941.106936534</v>
+        <v>20.40128913560781</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1568072.064024559</v>
+        <v>20.40976076532383</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-1076290.823179143</v>
+        <v>20.26460888575561</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>3335537.183229514</v>
+        <v>20.47636839991129</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>3273175.793010765</v>
+        <v>20.47756439139759</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>2235223.092920836</v>
+        <v>20.5023577447986</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>2565113.813714974</v>
+        <v>20.53283699467688</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>2511871.964207381</v>
+        <v>20.53824412522225</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>1049754.944196921</v>
+        <v>20.3435623495499</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>1978423.517846569</v>
+        <v>20.50737040230358</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>2531483.380294624</v>
+        <v>20.53840355927934</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-220547.8982837437</v>
+        <v>20.20789692024265</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>556660.3596946171</v>
+        <v>20.37349208433391</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>623808.1033020177</v>
+        <v>20.38767487680571</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-818732.1010018899</v>
+        <v>20.16301449237533</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>481305.8690875438</v>
+        <v>20.37742107472388</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>581239.5117059448</v>
+        <v>20.40053431425664</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-733349.7059390916</v>
+        <v>20.20259599255323</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>1507951.163306188</v>
+        <v>20.49407832860924</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>1693008.754059813</v>
+        <v>20.51606655085158</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>938412.9420208179</v>
+        <v>20.53602527315357</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>1122660.257634474</v>
+        <v>20.59293334993517</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>1113497.237685689</v>
+        <v>20.60391367158541</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>140921.6847328247</v>
+        <v>20.3005579500749</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>1265659.439999406</v>
+        <v>20.6040816428969</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>1169916.332929186</v>
+        <v>20.62548625214546</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-120037.3741146972</v>
+        <v>20.22046014729748</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>530657.7242025597</v>
+        <v>20.42123499822159</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>665155.6178698929</v>
+        <v>20.44954304489474</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-582803.9635539309</v>
+        <v>20.17828627409148</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>722536.0567958785</v>
+        <v>20.45332721121982</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>810504.8850308845</v>
+        <v>20.47870218334684</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-525066.3116718777</v>
+        <v>20.23273917195396</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1732187.865214026</v>
+        <v>20.58573343888833</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1808610.007813661</v>
+        <v>20.62784704979197</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>1337281.003438045</v>
+        <v>20.72535284077373</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>1410049.40530815</v>
+        <v>20.79274566743966</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1421522.918067063</v>
+        <v>20.80400686490536</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>281908.0575667419</v>
+        <v>20.37722713238354</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>1420141.977961567</v>
+        <v>20.75797292308586</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1412810.43255248</v>
+        <v>20.79726453359952</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1628911.496674913</v>
+        <v>20.21439037441457</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-1085328.883722327</v>
+        <v>20.24024835966247</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-954536.8824975154</v>
+        <v>20.25246095018235</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-2039195.00571471</v>
+        <v>20.1785666392962</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-1119907.007960883</v>
+        <v>20.24767874245259</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-857916.4478644395</v>
+        <v>20.25910391021551</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-2162566.731348969</v>
+        <v>20.18868593216509</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-409218.2492531873</v>
+        <v>20.2910356082992</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-277836.5335602511</v>
+        <v>20.29989085131681</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-52865.41263654046</v>
+        <v>20.3077278645885</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>194977.6948127548</v>
+        <v>20.32270906647424</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>284902.7286723292</v>
+        <v>20.33723307961449</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-1226554.502963924</v>
+        <v>20.20083105081736</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-277261.5946161581</v>
+        <v>20.29106369834848</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-142509.6475573911</v>
+        <v>20.311884960034</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-843517.5388060925</v>
+        <v>20.21823962893351</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>13692.9666486118</v>
+        <v>20.29738870888432</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>250346.3560397577</v>
+        <v>20.33148886667801</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-929093.6588358569</v>
+        <v>20.18896862157155</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-66399.48675074638</v>
+        <v>20.29657191580102</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>294313.3213340064</v>
+        <v>20.3396000048939</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-921888.8466095621</v>
+        <v>20.19284881931351</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>703153.6357014979</v>
+        <v>20.36214578246252</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>1139147.479429244</v>
+        <v>20.4092134115996</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>401467.7717495066</v>
+        <v>20.39380570542751</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>617708.3464575808</v>
+        <v>20.44142363952259</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>733244.4327054578</v>
+        <v>20.47160926523382</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-525927.2046558589</v>
+        <v>20.20835230983311</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>606515.3608484891</v>
+        <v>20.41700857454795</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>797359.8840106592</v>
+        <v>20.46143526145956</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-301357.5369234885</v>
+        <v>20.25860921910928</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>460794.5313782791</v>
+        <v>20.36626721440644</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>705529.8437129657</v>
+        <v>20.40691135403712</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>-506936.7789840145</v>
+        <v>20.22107050692508</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>456646.681110515</v>
+        <v>20.37990128488461</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>783893.8229649615</v>
+        <v>20.41917668003486</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-262227.1584225617</v>
+        <v>20.24497436995216</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>1382564.919820526</v>
+        <v>20.46590739831084</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>1698333.580949453</v>
+        <v>20.52446416302846</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>1122174.535093525</v>
+        <v>20.59095245371424</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>1304435.995145501</v>
+        <v>20.64544665415197</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>1533454.635520759</v>
+        <v>20.69182706511353</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>45418.66652978776</v>
+        <v>20.31872191474314</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>1171022.035148151</v>
+        <v>20.59366932615091</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>1334216.667652852</v>
+        <v>20.64846347911345</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-2038840.877942474</v>
+        <v>20.18544166273658</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-1877659.668761595</v>
+        <v>20.24835223153391</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-1815926.475991614</v>
+        <v>20.24762083120947</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-2416653.721009553</v>
+        <v>20.13842292154903</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-1408417.913924628</v>
+        <v>20.24661074354772</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-1219336.463187682</v>
+        <v>20.24916257581474</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-3309942.808370604</v>
+        <v>20.15862478445915</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-1277797.809869178</v>
+        <v>20.3073524021308</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-1341765.620647519</v>
+        <v>20.30179009104492</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-747668.3449252289</v>
+        <v>20.30459433843815</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-484357.1607478474</v>
+        <v>20.32170263455912</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-349609.1101155122</v>
+        <v>20.32502654619233</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-1742639.445525667</v>
+        <v>20.1801996544479</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-1069877.178184436</v>
+        <v>20.29901084156657</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-985469.7223585749</v>
+        <v>20.30480520729215</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-343103.5683066667</v>
+        <v>20.24594014942856</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>618290.1664637352</v>
+        <v>20.36591547057509</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>757312.3633689418</v>
+        <v>20.37029963676222</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>-894595.6185984517</v>
+        <v>20.20036326836127</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>473976.8729562307</v>
+        <v>20.35449170257497</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>833994.6199906083</v>
+        <v>20.37226997889067</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>-936919.0957315424</v>
+        <v>20.21852681576711</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>1508739.006392521</v>
+        <v>20.44160728801063</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>1988605.00800659</v>
+        <v>20.45591681667942</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>976664.3949155761</v>
+        <v>20.48976940275288</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>1271733.751588547</v>
+        <v>20.5338552242791</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>1320748.887202245</v>
+        <v>20.54210794005566</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>-150051.6133843009</v>
+        <v>20.28649545141658</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>1273823.11889462</v>
+        <v>20.53471348663097</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>1282334.946058188</v>
+        <v>20.54499785899864</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-94290.06764609416</v>
+        <v>20.27035808814552</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>921333.923411238</v>
+        <v>20.42097343910146</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>1039495.367947814</v>
+        <v>20.43547303078834</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-670611.0681806951</v>
+        <v>20.21068449785319</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>1006259.167904508</v>
+        <v>20.41673260897555</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>1187165.214212172</v>
+        <v>20.43623948918703</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>-711019.8686511166</v>
+        <v>20.24546236529515</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>2031513.037228189</v>
+        <v>20.52217820260148</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>2180670.604481665</v>
+        <v>20.55180626630153</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1711498.431846563</v>
+        <v>20.64936919305674</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1923564.468699554</v>
+        <v>20.70662441549571</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1910987.047711561</v>
+        <v>20.72028358430714</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>85053.30425161927</v>
+        <v>20.35531184906719</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>1773383.766474189</v>
+        <v>20.67383476972562</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>1653877.311824566</v>
+        <v>20.69032363650658</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-1580589.046260254</v>
+        <v>20.2290898017045</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-1085717.349605432</v>
+        <v>20.25033394569726</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-1067559.672254532</v>
+        <v>20.25671646597984</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-2441034.822957714</v>
+        <v>20.19075321819345</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-1020284.416466343</v>
+        <v>20.25412734344344</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>-847096.4091813138</v>
+        <v>20.26099677793539</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-2496874.268997128</v>
+        <v>20.20223534752017</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-133480.4023275888</v>
+        <v>20.29746185894785</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>-341450.2611051062</v>
+        <v>20.29954652566613</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>33553.36290502146</v>
+        <v>20.3139902089489</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>424545.8081523991</v>
+        <v>20.32217637017413</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>636830.3130059454</v>
+        <v>20.32741489055451</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-804736.2156814792</v>
+        <v>20.24295888916684</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>50921.41950510776</v>
+        <v>20.30647845216933</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>198311.6837612233</v>
+        <v>20.3178099401197</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-1209927.066269631</v>
+        <v>20.19461726734463</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-778109.3730141799</v>
+        <v>20.24835258223543</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>-201750.3173552605</v>
+        <v>20.2702276582381</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-1473352.486296374</v>
+        <v>20.15883963132329</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-745415.4580692251</v>
+        <v>20.24031697313401</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-66854.83379881684</v>
+        <v>20.27119120909479</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-1552001.13053163</v>
+        <v>20.16332048186964</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-301518.8230731827</v>
+        <v>20.30419472360786</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>792205.1624375602</v>
+        <v>20.33628012734773</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-284662.5269767612</v>
+        <v>20.32942108955763</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>186732.6706763886</v>
+        <v>20.35196768421532</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>445587.4537738311</v>
+        <v>20.36662591601558</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>-772577.8737333739</v>
+        <v>20.19415258166622</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>72971.64793975733</v>
+        <v>20.34918418157475</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>386703.5580811343</v>
+        <v>20.36901342671918</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-325503.2561734209</v>
+        <v>20.24896772828896</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>294975.1088611115</v>
+        <v>20.33317589471254</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>533605.7504965443</v>
+        <v>20.35735366615242</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>-957219.5685402356</v>
+        <v>20.19377173255706</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>168435.6332038714</v>
+        <v>20.3269253156753</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>497830.4586241936</v>
+        <v>20.35099806256812</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>-767305.2598821428</v>
+        <v>20.22326960223984</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>1202121.039667454</v>
+        <v>20.41654230573576</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>1548139.576571999</v>
+        <v>20.45556363446576</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>985088.9954177005</v>
+        <v>20.51979346724277</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>1239994.254159484</v>
+        <v>20.55372838007202</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>1343983.099701716</v>
+        <v>20.56730267156194</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>215038.8698946201</v>
+        <v>20.30414525277134</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>1089816.924796645</v>
+        <v>20.52411462161992</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>1173877.969387</v>
+        <v>20.54427576177269</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-2158299.522938238</v>
+        <v>20.20563583863438</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-2008437.097924466</v>
+        <v>20.20911977519686</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-2094361.832484367</v>
+        <v>20.20669565771711</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-2448824.020935094</v>
+        <v>20.16914623961983</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-1939040.161501525</v>
+        <v>20.21042099863283</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-1723579.879515802</v>
+        <v>20.21070019261447</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-2781896.665418455</v>
+        <v>20.16728549630127</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-1814818.147577311</v>
+        <v>20.24287364046109</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-1887691.16818042</v>
+        <v>20.23608496434762</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-1126426.360571046</v>
+        <v>20.24129538792166</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-1090172.808592865</v>
+        <v>20.23757907684531</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-881592.9664855542</v>
+        <v>20.24437829362325</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-1380435.466675612</v>
+        <v>20.19531509516144</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-991018.5720957752</v>
+        <v>20.23686135345585</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-874406.9750437943</v>
+        <v>20.23741306473138</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-1366881.092911585</v>
+        <v>20.17397198853439</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-1162393.550078024</v>
+        <v>20.20822023743028</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-1075762.871120431</v>
+        <v>20.21703794677826</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-1404185.009441073</v>
+        <v>20.14574170928502</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1032591.021259599</v>
+        <v>20.20390821969325</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-723945.1477036023</v>
+        <v>20.22477160133106</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-1533642.660579348</v>
+        <v>20.13226493346158</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-913922.0555404527</v>
+        <v>20.25115059955347</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-596698.9906867936</v>
+        <v>20.27021681069952</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-662601.8774911013</v>
+        <v>20.25431465908711</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-556802.6297697827</v>
+        <v>20.26768914532797</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-463004.9819286087</v>
+        <v>20.2811578308935</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-1005638.142683544</v>
+        <v>20.14731348342256</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-533637.3539017244</v>
+        <v>20.27806436081145</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-471962.959566852</v>
+        <v>20.2841125173612</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-390150.3244365912</v>
+        <v>20.24417297782934</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-145255.8918277308</v>
+        <v>20.30578298894044</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>-41687.5170869557</v>
+        <v>20.3185660840298</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>-866593.4021701453</v>
+        <v>20.18833864275479</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-204890.3679813998</v>
+        <v>20.29548453620701</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>58482.55962014297</v>
+        <v>20.31256491483316</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-708156.1776911278</v>
+        <v>20.2014241474691</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>404104.2758669964</v>
+        <v>20.36961585059214</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>540036.1529716098</v>
+        <v>20.39739423919549</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>534621.8382916698</v>
+        <v>20.44988273821513</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>547246.8682777608</v>
+        <v>20.47365033163105</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>665499.7859303418</v>
+        <v>20.48999050899931</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-17916.87109958969</v>
+        <v>20.2681365877472</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>379949.6646693174</v>
+        <v>20.46000394081089</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>487472.089360267</v>
+        <v>20.46793337485675</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-450218.3448717704</v>
+        <v>20.27352353532894</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>718770.7137084523</v>
+        <v>20.31151766792763</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>847014.3570477646</v>
+        <v>20.32069883707332</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-2001063.646560554</v>
+        <v>20.22480017360474</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>389628.0519232367</v>
+        <v>20.31227359704362</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>706038.5140138946</v>
+        <v>20.32125188111939</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-1639500.475686015</v>
+        <v>20.24656927699463</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>1922204.550230265</v>
+        <v>20.36004026898496</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>2094077.470537505</v>
+        <v>20.36641577405442</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>1586354.912122437</v>
+        <v>20.39242443609681</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>2281739.562244627</v>
+        <v>20.4033947847354</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>2469875.230180081</v>
+        <v>20.41113791583575</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>457070.4917708201</v>
+        <v>20.32019386036972</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>2118146.728617743</v>
+        <v>20.40306795832151</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>2293912.258628315</v>
+        <v>20.42384118474153</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-733788.2838199441</v>
+        <v>20.23682635848152</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-25634.79651653574</v>
+        <v>20.31809567725438</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>147591.1288973075</v>
+        <v>20.33620108707683</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-1446513.521480741</v>
+        <v>20.17764652398543</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-263689.5481820203</v>
+        <v>20.28987435883191</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>62816.84751076616</v>
+        <v>20.31666753014249</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-1372871.169249988</v>
+        <v>20.1942510528487</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>759429.3440661237</v>
+        <v>20.3638073306411</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>1098588.423981735</v>
+        <v>20.39536525785735</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>631781.1597242241</v>
+        <v>20.40738499812458</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>880611.4415438287</v>
+        <v>20.44202070969821</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>909437.7492831402</v>
+        <v>20.46031496742403</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-111682.0203314416</v>
+        <v>20.26622388343549</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>1124772.068420313</v>
+        <v>20.45885494440508</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>1185486.989605053</v>
+        <v>20.48053245638465</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>79408.00128428068</v>
+        <v>20.28749009396424</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>803069.2374543917</v>
+        <v>20.39199291964254</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>1088880.814434757</v>
+        <v>20.42007027074872</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-767796.6844986423</v>
+        <v>20.22122320912196</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>531986.4220295532</v>
+        <v>20.37941092001136</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>835632.601384579</v>
+        <v>20.40538396663021</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>-558281.7097628403</v>
+        <v>20.2581370258022</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>1928489.521450981</v>
+        <v>20.47302098636793</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>2108144.764753974</v>
+        <v>20.52016640634467</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>1875944.602472639</v>
+        <v>20.61097031186163</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>1874507.026550214</v>
+        <v>20.64500595506137</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>1916046.19862325</v>
+        <v>20.67220917213472</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>454078.38431628</v>
+        <v>20.37399286510294</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>1736728.399126829</v>
+        <v>20.62162906154929</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>1887503.904759918</v>
+        <v>20.65311431929726</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>-981725.861237151</v>
+        <v>20.26440771925604</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>1363397.737827484</v>
+        <v>20.33509171323445</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1646698.932028445</v>
+        <v>20.34818219094036</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-1632775.168686601</v>
+        <v>20.23558629978186</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>1708084.679391479</v>
+        <v>20.35129672526193</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>1925800.345439482</v>
+        <v>20.36319227638336</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>-1646866.684101315</v>
+        <v>20.25880425885498</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>3841696.762762036</v>
+        <v>20.40599731745407</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>3867816.135900652</v>
+        <v>20.4155091854524</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>3051511.238022016</v>
+        <v>20.44401699245971</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>3527552.43563554</v>
+        <v>20.46358209926542</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>3546583.391166457</v>
+        <v>20.47561683478484</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>-268346.6192114426</v>
+        <v>20.30511067852748</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>2911745.76125004</v>
+        <v>20.44307599806624</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>3006612.706616996</v>
+        <v>20.47357144758307</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-619641.2998649025</v>
+        <v>20.23128767623044</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>668338.0053723031</v>
+        <v>20.34341074509814</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>929412.1073200159</v>
+        <v>20.36813467404131</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>-1051912.365063296</v>
+        <v>20.19928417065689</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>498372.0536684348</v>
+        <v>20.34295896241924</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>858288.9428392398</v>
+        <v>20.37392963976787</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>-1098356.166408872</v>
+        <v>20.21496556986738</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>1637853.174472194</v>
+        <v>20.41729765269878</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>2239435.906657765</v>
+        <v>20.45287811772991</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>1127419.919057142</v>
+        <v>20.46393043052797</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>1449990.923189582</v>
+        <v>20.50838812231601</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>1416964.804980173</v>
+        <v>20.52539566237945</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>-353854.0157901552</v>
+        <v>20.25749132917188</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>1479029.794376867</v>
+        <v>20.49771215226655</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>1651148.372210076</v>
+        <v>20.53976396046045</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>-400366.1574999671</v>
+        <v>20.24570641410081</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>864514.3605635661</v>
+        <v>20.38560104167963</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>1111583.629878694</v>
+        <v>20.41944141636555</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>-901140.1236191628</v>
+        <v>20.20977564755116</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>845260.87439033</v>
+        <v>20.40117870935728</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>1126283.258685553</v>
+        <v>20.43306869647399</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>-929644.5347328925</v>
+        <v>20.2397797957944</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>1963349.442461427</v>
+        <v>20.49098281831949</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>2418462.997584905</v>
+        <v>20.54030576341187</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1807932.577676579</v>
+        <v>20.61193368921113</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>2015023.753357765</v>
+        <v>20.66798113078702</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>2181834.756644552</v>
+        <v>20.69840677166104</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>-63756.51486071468</v>
+        <v>20.32331225976801</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>1794645.820616305</v>
+        <v>20.62665422411738</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>1981209.658422695</v>
+        <v>20.6818336697998</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>-356691.5857734266</v>
+        <v>20.25840177660716</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>1520063.378072504</v>
+        <v>20.31952419098408</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>2057337.829331238</v>
+        <v>20.3276038684827</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>-2406822.115721975</v>
+        <v>20.23421416212516</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>2798545.673354013</v>
+        <v>20.34234749962163</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>2865887.921054451</v>
+        <v>20.35103456942586</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-2051831.752083095</v>
+        <v>20.2555857371219</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>5426176.052293045</v>
+        <v>20.38698862595067</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>5298183.881571269</v>
+        <v>20.39206714138674</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>3413360.442371424</v>
+        <v>20.40810045990616</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>3861026.440135044</v>
+        <v>20.42422882201011</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>3780327.684834417</v>
+        <v>20.43379171575732</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>512752.822069728</v>
+        <v>20.30713254990613</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>2936264.127167395</v>
+        <v>20.41420289815026</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>4083173.739209075</v>
+        <v>20.43881805311908</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>-161961.4014414561</v>
+        <v>20.24806031566994</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>1094773.42159861</v>
+        <v>20.35416956125133</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>1255236.305091122</v>
+        <v>20.36871738716496</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-1577299.31869419</v>
+        <v>20.21364705079722</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>799850.1255155579</v>
+        <v>20.35136738010543</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>1237469.728944296</v>
+        <v>20.37448181697235</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>-1520170.538490575</v>
+        <v>20.23302182681138</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>2700788.301213077</v>
+        <v>20.42206220270472</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>3383427.269171106</v>
+        <v>20.44750841705067</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>1843621.262674054</v>
+        <v>20.46838633441035</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>2176173.506799515</v>
+        <v>20.5098139903431</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>2220168.975911932</v>
+        <v>20.53129977597879</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>72662.33765885449</v>
+        <v>20.29941842543598</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>2477936.296608307</v>
+        <v>20.51507972316558</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>2566799.132037234</v>
+        <v>20.5394817814463</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>95508.57630179095</v>
+        <v>20.26023810784572</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>1386732.158801086</v>
+        <v>20.38592185686215</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>1502659.956728452</v>
+        <v>20.41130272220247</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>-1216852.252379899</v>
+        <v>20.22548419258029</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>1132192.769595838</v>
+        <v>20.40144095611533</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>1425163.000534585</v>
+        <v>20.42673664600162</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>-1186107.147279038</v>
+        <v>20.25663446651068</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>3157882.169303141</v>
+        <v>20.48425020078462</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>3341811.151437235</v>
+        <v>20.52557656567652</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>2764158.010526211</v>
+        <v>20.60555583989152</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>2852534.630291884</v>
+        <v>20.64788367093199</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>2914958.081673604</v>
+        <v>20.67748421075983</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>144842.5875238425</v>
+        <v>20.35534200752105</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>2662167.727528482</v>
+        <v>20.62015470553765</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>2745190.03764448</v>
+        <v>20.65484179816298</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-165042.5589020849</v>
+        <v>20.27695239617117</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>2373743.875724092</v>
+        <v>20.30980293267667</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>3143397.68973279</v>
+        <v>20.31466327936239</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-2118617.423630267</v>
+        <v>20.27451953970076</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>6871648.508946668</v>
+        <v>20.34283862221981</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>6902882.711929066</v>
+        <v>20.34852673262534</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>-2749847.045288393</v>
+        <v>20.27568923954133</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>8346507.349239377</v>
+        <v>20.35804815153839</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>7991889.725387999</v>
+        <v>20.36132158098409</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>5657480.121814838</v>
+        <v>20.37729874447246</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>7177800.7018201</v>
+        <v>20.38756047824492</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>7285023.598028009</v>
+        <v>20.3954016469766</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>2230077.505776452</v>
+        <v>20.32196445884602</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>4493387.327968025</v>
+        <v>20.37931047064002</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>6379373.490588943</v>
+        <v>20.39826030861195</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>-267140.0284274569</v>
+        <v>20.27138497449415</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>1370441.702566291</v>
+        <v>20.33530664518953</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>2189898.348857773</v>
+        <v>20.34653232029943</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>354481.2662155771</v>
+        <v>20.27647404175343</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>3361800.146442201</v>
+        <v>20.36410859039169</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>4189512.062771574</v>
+        <v>20.38254938882512</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-2122907.474109442</v>
+        <v>20.26468727751103</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>4181964.860457061</v>
+        <v>20.38681131042902</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>5675404.641763231</v>
+        <v>20.40710841193424</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>2819042.401985276</v>
+        <v>20.42366507678036</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>3720659.178368679</v>
+        <v>20.45221323690522</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>3632753.518462226</v>
+        <v>20.47124812876546</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>598185.5787034163</v>
+        <v>20.31865137457136</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>3917242.14773294</v>
+        <v>20.45228937711946</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>4278886.337086473</v>
+        <v>20.47430841160759</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>575740.2611858411</v>
+        <v>20.28687685907133</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>2438115.257897401</v>
+        <v>20.36305552121798</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>2603034.561160579</v>
+        <v>20.38069664338793</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>799465.3173456751</v>
+        <v>20.29162726680473</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>3888065.893680038</v>
+        <v>20.40533927077744</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>4217670.100810009</v>
+        <v>20.42362876726558</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>-1552600.788961016</v>
+        <v>20.28855465834596</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>5268298.124154135</v>
+        <v>20.43675521554475</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>5750784.406396837</v>
+        <v>20.46730294044989</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>4933455.035318518</v>
+        <v>20.52979155518737</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>4935912.521109264</v>
+        <v>20.55803313824998</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>5262757.441510152</v>
+        <v>20.58373084442571</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>1155551.943082673</v>
+        <v>20.36715938622962</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>4758910.912747404</v>
+        <v>20.53366543287844</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>4990425.553717635</v>
+        <v>20.56062087989714</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-896026.518975638</v>
+        <v>20.25685141420461</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>1719924.813783038</v>
+        <v>20.32118126943909</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>2297400.896216739</v>
+        <v>20.33162907773879</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-2261235.020369687</v>
+        <v>20.22855539648253</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>1463972.656541361</v>
+        <v>20.33480716369581</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>2093098.233921962</v>
+        <v>20.34445324105847</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-2466942.34030507</v>
+        <v>20.25114531682275</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>4253760.348169433</v>
+        <v>20.38747969886741</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>4565967.465490436</v>
+        <v>20.39509083231086</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>3523298.531294992</v>
+        <v>20.42489602560146</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>4126575.598761829</v>
+        <v>20.44118324996877</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>4333618.208885383</v>
+        <v>20.44804683761268</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-1039353.685099906</v>
+        <v>20.28322115690213</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>3528349.158055149</v>
+        <v>20.4114825568494</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>3733507.742770852</v>
+        <v>20.4346609759473</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-768788.391665397</v>
+        <v>20.23592780352168</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>818548.7429723979</v>
+        <v>20.34146825144677</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>935978.8375739109</v>
+        <v>20.35502938219433</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-1533946.957828492</v>
+        <v>20.20135907668748</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>533356.5612870583</v>
+        <v>20.33647886475989</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>873790.9122543387</v>
+        <v>20.3563453501854</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>-1636805.146109475</v>
+        <v>20.21755491536651</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>2042611.884606722</v>
+        <v>20.40772667353242</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>2567179.602021658</v>
+        <v>20.43176231999852</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>1413468.172818105</v>
+        <v>20.45520810344902</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>1736798.826816575</v>
+        <v>20.49150973066172</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1743294.357330699</v>
+        <v>20.50389696397573</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>-707932.2332366145</v>
+        <v>20.25057415040728</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>1571326.540293529</v>
+        <v>20.47650717680628</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>1867644.828811581</v>
+        <v>20.50250419992312</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-628119.5558311747</v>
+        <v>20.24692157607583</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>952667.2017617846</v>
+        <v>20.37477595737613</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>1171921.2737765</v>
+        <v>20.39890558280937</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>-1268612.187637732</v>
+        <v>20.21161881717842</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>1047728.315233302</v>
+        <v>20.38699979689109</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>1301680.715781001</v>
+        <v>20.40940602208373</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>-1326719.503817392</v>
+        <v>20.23733342180674</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>2442440.845903149</v>
+        <v>20.46940915741298</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>2826340.359996003</v>
+        <v>20.50869154601748</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>2199475.295746556</v>
+        <v>20.59703431858391</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>2401870.253180573</v>
+        <v>20.64144196264082</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>2632189.115953136</v>
+        <v>20.66522523394936</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>-552281.7566233376</v>
+        <v>20.31289460603577</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>2109299.626445488</v>
+        <v>20.59338299052114</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>2369872.3277746</v>
+        <v>20.63298309548476</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>-1480988.256264044</v>
+        <v>20.24379889464355</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-899245.8193717826</v>
+        <v>20.2684726935344</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-875938.1046571537</v>
+        <v>20.27473643839617</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-2850260.716665666</v>
+        <v>20.20655603846153</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-689851.2713194864</v>
+        <v>20.27872913589446</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-573207.0854941455</v>
+        <v>20.28212498232668</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-2820885.24250028</v>
+        <v>20.22314671236989</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>474409.5750147884</v>
+        <v>20.3093838974931</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>380220.1243192963</v>
+        <v>20.31500396508559</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>701724.0005483006</v>
+        <v>20.32940492850695</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>1063494.88826706</v>
+        <v>20.34013210870388</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>1308751.819300465</v>
+        <v>20.35142915111713</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-754916.5553747521</v>
+        <v>20.25660074469857</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>149444.1335626175</v>
+        <v>20.32028115479044</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>333246.5848280296</v>
+        <v>20.33346933141508</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-905316.0028768344</v>
+        <v>20.24791261083604</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>479141.0482959601</v>
+        <v>20.32186136374465</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>828417.012738759</v>
+        <v>20.34593736816197</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>-1424463.990214459</v>
+        <v>20.21480072565798</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>378924.7157891677</v>
+        <v>20.32559854884544</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>918098.4408484302</v>
+        <v>20.3532780020583</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>-1295084.599354463</v>
+        <v>20.22765325923751</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>1860440.819937466</v>
+        <v>20.37416098657988</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>2516157.196149157</v>
+        <v>20.4121046018906</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>1199369.928653733</v>
+        <v>20.42083177498871</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>1429551.145652733</v>
+        <v>20.45606357701653</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>1826634.183028722</v>
+        <v>20.48439117830639</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-566106.3731934902</v>
+        <v>20.26970034266589</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>1444731.485846972</v>
+        <v>20.44600324174057</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>1731828.691664723</v>
+        <v>20.47724561423645</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>-252989.0942243814</v>
+        <v>20.27653331446148</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>1025347.211163072</v>
+        <v>20.36995536125676</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>1409528.567168502</v>
+        <v>20.40181941433246</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-897531.0621381263</v>
+        <v>20.23577857083036</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>952681.0940029231</v>
+        <v>20.38545667018041</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>1457396.842376882</v>
+        <v>20.41189807091364</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>-514426.2635343882</v>
+        <v>20.2623455062455</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>2599898.922943521</v>
+        <v>20.4466124919598</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>3072238.03315995</v>
+        <v>20.4971817487108</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>2031781.840763744</v>
+        <v>20.55965233379189</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>2042242.505039348</v>
+        <v>20.59588876639444</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>2500429.87223449</v>
+        <v>20.63446957899411</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>262911.5323484131</v>
+        <v>20.33563312090902</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>2012805.637614324</v>
+        <v>20.56042494420436</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>2455382.202701023</v>
+        <v>20.59857743663881</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>-2806130.804869075</v>
+        <v>20.24759701178431</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-1858079.759733506</v>
+        <v>20.27336025711713</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>-1735999.397490993</v>
+        <v>20.28107934657434</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-5946895.137001634</v>
+        <v>20.23254299548286</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-495772.6081226341</v>
+        <v>20.29206632846986</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>-300238.6190779014</v>
+        <v>20.30097412821252</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-5683000.357201252</v>
+        <v>20.23943923146542</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>1489741.740514486</v>
+        <v>20.31314683089159</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>1271120.978197391</v>
+        <v>20.31965881934934</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>2696856.46260144</v>
+        <v>20.33011269195666</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>4249363.284618494</v>
+        <v>20.33948491893497</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>4508244.80454954</v>
+        <v>20.34978758595467</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-1193471.210260176</v>
+        <v>20.27697360634563</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>1178886.019531876</v>
+        <v>20.32850670919683</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>2258161.852107281</v>
+        <v>20.35027183374932</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-2643489.795110152</v>
+        <v>20.23654585741862</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-1324439.708471534</v>
+        <v>20.29211535558239</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>766754.2109914904</v>
+        <v>20.30986002349664</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-2884810.457979155</v>
+        <v>20.22615877202134</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-569494.0858155509</v>
+        <v>20.30346025292966</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>1929607.24174079</v>
+        <v>20.32921141417683</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-3725872.988121267</v>
+        <v>20.2229365926959</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>1255533.251000814</v>
+        <v>20.33466803865497</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>4385309.582532407</v>
+        <v>20.36199723522131</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>1355028.228223427</v>
+        <v>20.36824297406688</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>2544233.305753774</v>
+        <v>20.39573873048672</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>3076912.927756639</v>
+        <v>20.4198333939821</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>-1329797.398225999</v>
+        <v>20.26460036526382</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>2381997.630261926</v>
+        <v>20.39074309038004</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>3180523.809213836</v>
+        <v>20.42030075423706</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-728826.6961028571</v>
+        <v>20.24790926111445</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>555103.8974313716</v>
+        <v>20.31486409354639</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>1624752.179295621</v>
+        <v>20.33913204896108</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>-1927217.554380292</v>
+        <v>20.23395306404475</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>361710.9781249248</v>
+        <v>20.33644547606944</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>2051512.012328817</v>
+        <v>20.36208055983126</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>-2682965.325516292</v>
+        <v>20.24066324738793</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>2760811.946161334</v>
+        <v>20.37745437459584</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>4447888.245831295</v>
+        <v>20.4151539719584</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>3781474.632288556</v>
+        <v>20.46582237356973</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>3834818.291742491</v>
+        <v>20.49186724978459</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>4464456.793632299</v>
+        <v>20.52325972954873</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>-188588.4769361304</v>
+        <v>20.30511407822348</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>3161362.071091542</v>
+        <v>20.46258723216786</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>4016794.178005761</v>
+        <v>20.49790107926065</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>-419752.2267764198</v>
+        <v>20.26539383321384</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>1148181.548073069</v>
+        <v>20.32706591968245</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>1500851.724755939</v>
+        <v>20.33235304278683</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>-1834026.835236267</v>
+        <v>20.24038564412185</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>2381006.146382393</v>
+        <v>20.36099779199326</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>2417150.137117337</v>
+        <v>20.36358021741168</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>-1456043.006281981</v>
+        <v>20.26355739828024</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>4730876.465789091</v>
+        <v>20.40357993748328</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>4257636.29393406</v>
+        <v>20.40417600915099</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>2825194.602262653</v>
+        <v>20.4307823800967</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>3493607.743602641</v>
+        <v>20.44739917050554</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>3584244.009193582</v>
+        <v>20.45270881091732</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>1143388.056422731</v>
+        <v>20.34660931050898</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>2575239.446880479</v>
+        <v>20.43581717668373</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>3898988.110446265</v>
+        <v>20.46270902254893</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>82620.33435560812</v>
+        <v>20.25423455580661</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>1060114.779220177</v>
+        <v>20.36141082439176</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>1164872.437574916</v>
+        <v>20.36920378872325</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>-1073701.704854521</v>
+        <v>20.2144347934997</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>764589.7061403283</v>
+        <v>20.36597932604976</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>982309.3029534544</v>
+        <v>20.37876497168903</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-1056137.371755671</v>
+        <v>20.23406180041741</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>2110259.097812624</v>
+        <v>20.43498244437691</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>2378978.626019035</v>
+        <v>20.45189999522724</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>1424373.098647791</v>
+        <v>20.48067446892722</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>1633627.052543928</v>
+        <v>20.51044785629241</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>1651241.172475617</v>
+        <v>20.52323481763723</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>175756.5258031918</v>
+        <v>20.32785899410344</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>1780888.268800882</v>
+        <v>20.52369393533415</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>1821410.1780113</v>
+        <v>20.54066701433935</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>38220.97376318572</v>
+        <v>20.25751376472376</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>1051685.248382066</v>
+        <v>20.38786388815062</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>1146973.719032069</v>
+        <v>20.40361428585117</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-828325.8567500528</v>
+        <v>20.22130152303991</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>1091452.414560647</v>
+        <v>20.41594865857225</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>1214082.431806994</v>
+        <v>20.42812880316677</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>-854444.497311646</v>
+        <v>20.25601955848013</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>2436587.962983839</v>
+        <v>20.50087619640126</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>2578617.538946629</v>
+        <v>20.53069686307525</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>2155596.757103242</v>
+        <v>20.62518173849173</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>2129833.599337466</v>
+        <v>20.66217249995211</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>2195581.145726234</v>
+        <v>20.67743297515104</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>429237.6495174672</v>
+        <v>20.38492128798253</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>2017959.181609741</v>
+        <v>20.63403509204354</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>2093102.3356051</v>
+        <v>20.66064093054281</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>-885778.4174148249</v>
+        <v>20.25733403424281</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>1493400.30076783</v>
+        <v>20.32289442933522</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>1870831.122920069</v>
+        <v>20.33159093317232</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>-2002115.958871783</v>
+        <v>20.2301377035018</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>1895226.524063027</v>
+        <v>20.33993505527608</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>2068465.696542033</v>
+        <v>20.34751148073082</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>-2238498.537099102</v>
+        <v>20.24889440798081</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>4079089.147214273</v>
+        <v>20.38749836290703</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>4254892.994977365</v>
+        <v>20.39363009633201</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>3073288.480775902</v>
+        <v>20.42642429951927</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>4044740.54039993</v>
+        <v>20.44612560056223</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>3952121.276827236</v>
+        <v>20.45209644618409</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>-979126.686391613</v>
+        <v>20.283744901469</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>3190811.595193357</v>
+        <v>20.4129915926284</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>3458405.921737049</v>
+        <v>20.43455062418156</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>-778812.3359498362</v>
+        <v>20.2402908787653</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>761344.6339034893</v>
+        <v>20.34866034194249</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>839361.7389186447</v>
+        <v>20.36278084201681</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-1365224.358426882</v>
+        <v>20.20503299636509</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>699201.4920784755</v>
+        <v>20.34454361395079</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>983918.4414194144</v>
+        <v>20.3647560842841</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>-1354486.574690707</v>
+        <v>20.2188041931273</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>2174674.066078444</v>
+        <v>20.41310828752744</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>2726484.54116</v>
+        <v>20.43844590984217</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>1515518.249384659</v>
+        <v>20.46668556929513</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>1852436.310484663</v>
+        <v>20.50568920221166</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>1769094.318346247</v>
+        <v>20.51879379972271</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>-616143.0154477064</v>
+        <v>20.2583231070543</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>1866879.769407592</v>
+        <v>20.4910302560873</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>1895304.599161599</v>
+        <v>20.51716003819881</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>-630739.7693120422</v>
+        <v>20.24662912343386</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>841924.8044992817</v>
+        <v>20.37648413920119</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>1022079.103737549</v>
+        <v>20.4020147125545</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>-1131408.191471887</v>
+        <v>20.20569142431522</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>1058245.145395401</v>
+        <v>20.38471883860799</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>1260383.017663753</v>
+        <v>20.40824819725967</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>-1138508.572528117</v>
+        <v>20.22816399153729</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>2290858.934288593</v>
+        <v>20.46374638338111</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>2698250.971088939</v>
+        <v>20.5052528738054</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>2007662.629483635</v>
+        <v>20.59219965910436</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>2217773.240608239</v>
+        <v>20.63619225536995</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>2462693.173076572</v>
+        <v>20.66282145127189</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>-531809.3151832604</v>
+        <v>20.30287858112123</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>1865612.007061357</v>
+        <v>20.58692502620574</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>2121965.317331921</v>
+        <v>20.62772841861063</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.507</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.159</v>
+        <v>17.013</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.35</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.345</v>
+        <v>10.702</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.887</v>
+        <v>0.963</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.959</v>
+        <v>5.143</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20.24150053066638</v>
+        <v>17.64384619256352</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20.27483330775105</v>
+        <v>21.98712567849199</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20.28096933159899</v>
+        <v>21.21084377459284</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>20.20520339656079</v>
+        <v>-1.67941579755006</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.28409307403105</v>
+        <v>22.92400404104261</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20.29035891470243</v>
+        <v>23.2275347422871</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>20.22243918998269</v>
+        <v>2.108504194466981</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>20.32108088799698</v>
+        <v>33.45761612122158</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>20.32533547400833</v>
+        <v>30.64804845447393</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>20.34088016937149</v>
+        <v>35.99783520995386</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20.35309238643126</v>
+        <v>43.68511436271783</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20.36358353318785</v>
+        <v>44.85382612182769</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>20.26507146105266</v>
+        <v>14.0341288504814</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>20.34059627529928</v>
+        <v>32.20587193416943</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>20.36124107093497</v>
+        <v>35.05070061408452</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20.26187338078446</v>
+        <v>20.3461839762163</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>20.3444678307103</v>
+        <v>38.83810459220845</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>20.3633602949931</v>
+        <v>45.18752383742408</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>20.22393594990746</v>
+        <v>4.367740659805811</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>20.33742221561782</v>
+        <v>35.95140131511167</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.36488707242401</v>
+        <v>47.81869842023542</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>20.23883948431899</v>
+        <v>8.639120792582826</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>20.39840276704022</v>
+        <v>61.04992267229484</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>20.43010913959689</v>
+        <v>74.1138729043406</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>20.45017429288641</v>
+        <v>63.44768322942937</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>20.4901486857776</v>
+        <v>74.84229123591214</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>20.51715313346355</v>
+        <v>82.00533737260452</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>20.29843779694242</v>
+        <v>24.9864078503745</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>20.48678392851552</v>
+        <v>78.98868830895816</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>20.5170536691627</v>
+        <v>85.64080223675488</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>20.28931577059057</v>
+        <v>32.27095430118435</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>20.39102577160397</v>
+        <v>52.49600604357889</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>20.4179410354403</v>
+        <v>55.41910041738802</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>20.24710322905525</v>
+        <v>10.37258004212264</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>20.39971845623152</v>
+        <v>46.09450790848557</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>20.42584127925971</v>
+        <v>54.76352134793987</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>20.27785482010233</v>
+        <v>17.53667484050916</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>20.47562921783784</v>
+        <v>80.60558222054132</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20.52037176123147</v>
+        <v>82.69862922346064</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>20.60719194657862</v>
+        <v>96.8039201077828</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>20.64563197481974</v>
+        <v>102.2358121359349</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>20.68212185001</v>
+        <v>105.224244531457</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>20.37602735277693</v>
+        <v>41.94992150212688</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>20.61273045410488</v>
+        <v>102.6697880698799</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>20.64932953428011</v>
+        <v>103.2917851977793</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>20.24555864500774</v>
+        <v>8.881581179919504</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>20.33888996584274</v>
+        <v>42.09579898341983</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>20.34872520960019</v>
+        <v>42.6917073989896</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>20.2220119796631</v>
+        <v>0.6380210565019944</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>20.36216014104056</v>
+        <v>47.98548428862068</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>20.37317887286556</v>
+        <v>48.45521261422692</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>20.24714762159521</v>
+        <v>1.781979379584325</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>20.42592672792141</v>
+        <v>70.37632070204216</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>20.43032638269317</v>
+        <v>68.43725519958073</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>20.44689621346039</v>
+        <v>65.64403113090724</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>20.4748214490145</v>
+        <v>73.33641272782492</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>20.48495214677672</v>
+        <v>73.82895392161652</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>20.29124001893437</v>
+        <v>12.48251637880901</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>20.45619341963691</v>
+        <v>66.87077040854049</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>20.47961493795529</v>
+        <v>68.81890882264133</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>20.22742927596558</v>
+        <v>12.90639956630343</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>20.3689991361813</v>
+        <v>43.21561375996569</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>20.3880474070638</v>
+        <v>48.53368358746492</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>20.19759335717405</v>
+        <v>3.840674787620141</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>20.37022842080567</v>
+        <v>42.38872293277103</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>20.39924476443639</v>
+        <v>52.24273352290135</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>20.21972050681837</v>
+        <v>6.828728511808833</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>20.46267518009545</v>
+        <v>66.55068129702187</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>20.49094685211042</v>
+        <v>80.59979220495288</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>20.50711703568749</v>
+        <v>65.08347126390785</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>20.56452003264178</v>
+        <v>77.04791424263369</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>20.58052363936712</v>
+        <v>80.08313434411423</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>20.27837171301048</v>
+        <v>11.06577189661519</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>20.5622640058778</v>
+        <v>77.55180273933127</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>20.58926355288231</v>
+        <v>82.19983696522644</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>20.2386823043861</v>
+        <v>12.18109697993259</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>20.41184755816639</v>
+        <v>48.8510648131347</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>20.44180639998206</v>
+        <v>51.40278861844747</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>20.20354054740544</v>
+        <v>2.533622294804303</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>20.42808873376824</v>
+        <v>52.74293753911306</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>20.45970567962391</v>
+        <v>59.494215858131</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>20.24055371085174</v>
+        <v>6.31317203049873</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>20.53765525418837</v>
+        <v>83.14003242950255</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>20.58184855594149</v>
+        <v>90.09127654665407</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>20.66016966784017</v>
+        <v>91.31854265009943</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>20.73016597654916</v>
+        <v>102.5852143539366</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>20.75218085788558</v>
+        <v>102.2528280415875</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>20.33950112351063</v>
+        <v>16.77707894548898</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>20.69340427871776</v>
+        <v>94.87120935447544</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>20.73320084288689</v>
+        <v>96.005479648772</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>20.26372746167784</v>
+        <v>27.31688909278212</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>20.33875225699379</v>
+        <v>44.15554561772474</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>20.34114544964031</v>
+        <v>45.32834516856796</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>20.22751244586165</v>
+        <v>7.817989099588353</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>20.3528193469232</v>
+        <v>47.53295388454161</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>20.35495943107185</v>
+        <v>47.94341165552616</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>20.25579610163749</v>
+        <v>9.015018272219265</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>20.41644470513734</v>
+        <v>69.52287534269729</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>20.41350500585003</v>
+        <v>64.46012153174692</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>20.44833611697292</v>
+        <v>64.92131325752051</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>20.47040329296755</v>
+        <v>77.36639394227504</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>20.47377717755517</v>
+        <v>75.14547072439551</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20.31455383243167</v>
+        <v>29.92872829412878</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>20.44821725798718</v>
+        <v>67.89325453882768</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>20.46477082083025</v>
+        <v>67.47069194177597</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>20.27124153816343</v>
+        <v>26.62310746824586</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>20.39598301443654</v>
+        <v>50.0843075727887</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>20.40437229021932</v>
+        <v>52.66990261078768</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>20.22802482475436</v>
+        <v>7.698792139537339</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>20.39091386717623</v>
+        <v>47.22242725500105</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>20.40762123002881</v>
+        <v>53.73440168295073</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>20.25472450440773</v>
+        <v>9.782424145072959</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>20.481873833531</v>
+        <v>72.79608165448877</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>20.49904529001751</v>
+        <v>81.98248793123881</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>20.53904966332795</v>
+        <v>69.25008448220697</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>20.58288296659553</v>
+        <v>82.22891322210855</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>20.59094168638321</v>
+        <v>81.47674638180729</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.33137956728615</v>
+        <v>30.0569756556367</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>20.58003023007146</v>
+        <v>79.82433273650153</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>20.59886382742047</v>
+        <v>80.45711065735397</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>20.28348054642821</v>
+        <v>30.89041199508907</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>20.4400200923454</v>
+        <v>55.49780960075947</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>20.45719873129295</v>
+        <v>55.26532364309179</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>20.23419691206601</v>
+        <v>8.526600507517728</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>20.45087630188992</v>
+        <v>58.72792093732051</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>20.46712632255113</v>
+        <v>60.58991586494128</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>20.2757587104443</v>
+        <v>10.82104960646597</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>20.5574133355486</v>
+        <v>86.93154293720448</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>20.58831308406754</v>
+        <v>87.26737304617967</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>20.6946460819452</v>
+        <v>95.85481989717235</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>20.7507735685374</v>
+        <v>100.6768094472411</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>20.76295848747321</v>
+        <v>102.9373081961463</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>20.39572605959895</v>
+        <v>39.2974661830472</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>20.71382630021239</v>
+        <v>99.17081851192913</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>20.74222796306303</v>
+        <v>96.9956520235115</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>20.25488195216568</v>
+        <v>17.51852247546198</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>20.28216908814804</v>
+        <v>23.03740756700901</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>20.2869829684397</v>
+        <v>23.15546970000522</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>20.21956024513332</v>
+        <v>-0.5685607640664898</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>20.29201909000181</v>
+        <v>24.02394922829836</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>20.29841906025112</v>
+        <v>25.33960148198571</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>20.23239713212444</v>
+        <v>5.442904424251193</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>20.32435396953976</v>
+        <v>33.48801224502439</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>20.32706882453244</v>
+        <v>32.24630487394337</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>20.34559494139477</v>
+        <v>38.81276387410154</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>20.35394153327383</v>
+        <v>43.05708627526936</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>20.36799843864556</v>
+        <v>48.35634634824679</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>20.30292714098927</v>
+        <v>56.75086965673292</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>20.36763452534382</v>
+        <v>68.40853900125558</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>20.38452827556399</v>
+        <v>68.39970816549288</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>20.26372758030843</v>
+        <v>18.56008468433946</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>20.33446625269175</v>
+        <v>41.57358724547927</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>20.35081209122316</v>
+        <v>48.97106875418801</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>20.23061783781137</v>
+        <v>6.694171640711598</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>20.3318567132447</v>
+        <v>44.3817649488893</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>20.35892343046831</v>
+        <v>56.33741805081476</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>20.23604004334728</v>
+        <v>16.35081811913284</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>20.38252162507547</v>
+        <v>65.44486484065484</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>20.41143196959345</v>
+        <v>79.15557987266355</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>20.42540111376576</v>
+        <v>63.80009785363968</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>20.45993570586123</v>
+        <v>72.1031307467852</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>20.49076102641337</v>
+        <v>79.43428963975869</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>20.31320660996214</v>
+        <v>30.10864327403407</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>20.4849022044678</v>
+        <v>77.88659382678648</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>20.50779746459057</v>
+        <v>83.1349325639323</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>20.30185153370195</v>
+        <v>30.46652545145117</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>20.39062571516758</v>
+        <v>51.13116215374989</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>20.41465703572193</v>
+        <v>53.38282915813795</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>20.25768660049073</v>
+        <v>10.54897870643101</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>20.39715596302604</v>
+        <v>50.02802440485834</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>20.42290335845789</v>
+        <v>58.26576545467837</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>20.28125680779931</v>
+        <v>19.84693140979892</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>20.46484138616613</v>
+        <v>79.92806033556113</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>20.50666354548066</v>
+        <v>83.00254222966421</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>20.58285813421771</v>
+        <v>88.15851173590526</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>20.61696084047551</v>
+        <v>91.35089884157489</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>20.65644298858935</v>
+        <v>101.1188830295375</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>20.39874319158399</v>
+        <v>44.43330271985508</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>20.61664481116074</v>
+        <v>96.59844821721593</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>20.64416563492704</v>
+        <v>98.69063088051878</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>20.26999760357053</v>
+        <v>29.42196370120128</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>20.32744660757692</v>
+        <v>49.26713467157104</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>20.32904201679432</v>
+        <v>46.68539451759764</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>20.23526125132517</v>
+        <v>8.890584759981003</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>20.34010070024079</v>
+        <v>51.40539986375209</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>20.34462547828506</v>
+        <v>51.57577514715608</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>20.26010369640186</v>
+        <v>14.53083555272585</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>20.38804854524327</v>
+        <v>74.52735080020281</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>20.38717869092852</v>
+        <v>69.25080422636657</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>20.40032016816655</v>
+        <v>58.84991213443318</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>20.41882905550601</v>
+        <v>72.07177592044971</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>20.4250587232661</v>
+        <v>71.37297174416396</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>20.31120091823502</v>
+        <v>23.15250309931789</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>20.40409693635329</v>
+        <v>38.57543030290072</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>20.41805190386661</v>
+        <v>38.08866026065111</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>20.30085247448218</v>
+        <v>34.32220547409284</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>20.40727499455068</v>
+        <v>55.2190234294789</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>20.41401389027875</v>
+        <v>53.45469645939171</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>20.26518122649519</v>
+        <v>7.448342560513609</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>20.40513717824712</v>
+        <v>49.12906029119668</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>20.4241729809245</v>
+        <v>55.584512883679</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>20.28819303409477</v>
+        <v>15.27298220123304</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>20.47829815433345</v>
+        <v>78.04526585282039</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>20.49679356414992</v>
+        <v>82.54882556297466</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>20.53448534736499</v>
+        <v>77.1992419477638</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>20.5798994877456</v>
+        <v>86.25425380088063</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>20.59821548325067</v>
+        <v>88.06101527077602</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>20.37966807120923</v>
+        <v>45.53698448309146</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>20.58543945492193</v>
+        <v>89.84721299822922</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>20.31075898987876</v>
+        <v>38.09120985574445</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>20.43555415609551</v>
+        <v>60.12009024872847</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>20.45312607468842</v>
+        <v>58.14826981362641</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>20.26737350965568</v>
+        <v>8.398943253448511</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>20.44469861173337</v>
+        <v>53.32536726409658</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>20.46575004998489</v>
+        <v>57.32224044699598</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>20.30448459779742</v>
+        <v>13.33516803963646</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>20.53209103489582</v>
+        <v>85.11747311585698</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>20.56671539629485</v>
+        <v>88.12154779302804</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>20.6588400052247</v>
+        <v>97.81555930143503</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>20.70539581306015</v>
+        <v>100.6037912179791</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>20.73206182147014</v>
+        <v>104.1917445742851</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>20.42587883815093</v>
+        <v>51.08019599155111</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>20.67904140104925</v>
+        <v>105.1235137384988</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>20.70220897062682</v>
+        <v>103.9800430481885</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>20.24106816657291</v>
+        <v>25.26096689563747</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>20.35451086187217</v>
+        <v>42.18278254706014</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>20.35831643858247</v>
+        <v>45.59959423342784</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>20.20407845070132</v>
+        <v>7.31718910881936</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>20.3793774229331</v>
+        <v>48.74008068324632</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>20.39247075629411</v>
+        <v>47.98195354182104</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>20.23790531261464</v>
+        <v>9.677167205769365</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>20.46254166482376</v>
+        <v>72.91242133353009</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>20.45867511606568</v>
+        <v>68.20029433727063</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>20.44699363605342</v>
+        <v>57.94930262822028</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>20.48136660630389</v>
+        <v>66.74234224889538</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>20.49030590074053</v>
+        <v>68.24642354889917</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>20.27029641351952</v>
+        <v>14.37915713132031</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>20.43790264962412</v>
+        <v>15.97873820640352</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>20.45096747734783</v>
+        <v>16.0065398885446</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>20.27821070176889</v>
+        <v>28.86793811235778</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>20.47215383307685</v>
+        <v>57.24726989518882</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>20.47799444442329</v>
+        <v>56.3639416888664</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>20.21350777894088</v>
+        <v>7.101073440458727</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>20.45256820183558</v>
+        <v>50.62232338293821</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>20.48189842408516</v>
+        <v>55.29264552274004</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>20.25879853095291</v>
+        <v>9.570332705518652</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>20.58737354541039</v>
+        <v>77.74140850429316</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>20.60277444062764</v>
+        <v>80.049348979131</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>20.63066489743852</v>
+        <v>71.78244154329435</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>20.70314803713598</v>
+        <v>83.2216222609014</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>20.72140154161608</v>
+        <v>85.78153531904857</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>20.36442755350045</v>
+        <v>31.35580836520854</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>20.71169936526321</v>
+        <v>86.29121313735661</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>20.71888373734184</v>
+        <v>86.28815664502459</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>20.2777420498127</v>
+        <v>29.38601036012942</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>20.50374608102055</v>
+        <v>57.82510270051581</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>20.52570953555108</v>
+        <v>59.09671662749926</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>20.19675284118943</v>
+        <v>7.349108745573297</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>20.49199986964718</v>
+        <v>54.24119942257684</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>20.52693155698854</v>
+        <v>58.8947615498475</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>20.2614183728924</v>
+        <v>10.55253398012804</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>20.64943094232293</v>
+        <v>83.30289483844246</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>20.68786326121111</v>
+        <v>85.82344060773343</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>20.78765011827873</v>
+        <v>88.94494311836351</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>20.86940409285797</v>
+        <v>98.18871060505879</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>20.88778240608992</v>
+        <v>99.20962070363441</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>20.40492793012379</v>
+        <v>32.15534756058594</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>20.82944063763021</v>
+        <v>95.00277893648962</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>20.84889862569297</v>
+        <v>92.97183278584957</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>20.20122548040582</v>
+        <v>11.41296649257999</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>20.23792037781094</v>
+        <v>10.09122210228914</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>20.24239656575037</v>
+        <v>13.63332706352073</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>20.15759912769997</v>
+        <v>-2.705965289939837</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>20.25845493499791</v>
+        <v>14.21353569285723</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>20.26084298013291</v>
+        <v>15.59506761179921</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>20.17681555066661</v>
+        <v>-0.6320428508365197</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>20.30809826729881</v>
+        <v>23.87852565333372</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>20.3066958107988</v>
+        <v>23.4094961812765</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>20.33828551828364</v>
+        <v>31.85034624227638</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>20.35802689989234</v>
+        <v>39.20380848928146</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>20.36569979723265</v>
+        <v>39.89478388723789</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>20.23011963151893</v>
+        <v>13.25396582372914</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>20.32008453860796</v>
+        <v>24.58245708311243</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>20.33964959198815</v>
+        <v>22.29773115643015</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>20.23179575300746</v>
+        <v>14.49407274215171</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>20.34552461549992</v>
+        <v>32.7504275585079</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>20.37332711298416</v>
+        <v>39.26881041902601</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>20.18699751414628</v>
+        <v>2.714538057949966</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>20.34939575816761</v>
+        <v>30.84626062190986</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>20.38710132465046</v>
+        <v>41.4011060605178</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>20.20797331150881</v>
+        <v>6.443706532151143</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>20.43607934844707</v>
+        <v>51.30526439834024</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>20.47603644430219</v>
+        <v>61.80423400389748</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>20.49743102752752</v>
+        <v>50.24478588927835</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>20.55108994407315</v>
+        <v>60.92034252211157</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>20.57611202357679</v>
+        <v>65.4366113083896</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>20.2834308080786</v>
+        <v>17.07529181336863</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>20.53626101819647</v>
+        <v>61.21058334885247</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>20.57389795451533</v>
+        <v>63.90062720031521</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>20.26266646132497</v>
+        <v>20.98016404492807</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>20.41442221756514</v>
+        <v>41.31716428881836</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>20.44750524440448</v>
+        <v>47.70974773266761</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>20.20948882891516</v>
+        <v>8.823108420144642</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>20.44010115082101</v>
+        <v>46.07683809918869</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>20.46880993186725</v>
+        <v>55.7415651662366</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>20.25757072786183</v>
+        <v>12.96984431177819</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>20.55122624314225</v>
+        <v>72.39963033007277</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>20.60229153438718</v>
+        <v>76.02723873256554</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>20.72561115365717</v>
+        <v>83.2049002470346</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>20.78639881960388</v>
+        <v>90.7809988776857</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>20.81210955719958</v>
+        <v>91.38136056684522</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>20.39932549198813</v>
+        <v>38.18587389953197</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>20.73465991673695</v>
+        <v>90.88808053903287</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>20.77814171322604</v>
+        <v>92.96100837876723</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>20.21051794784729</v>
+        <v>12.4087684165399</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>20.23549973484058</v>
+        <v>15.18459076557814</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>20.24444765872528</v>
+        <v>13.94129767537968</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>20.17797010020072</v>
+        <v>-2.174536195168479</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>20.25058154467918</v>
+        <v>15.66942557351368</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>20.26291588134499</v>
+        <v>16.12501946077003</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>20.18648343434741</v>
+        <v>-1.573604182306635</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>20.28741318311935</v>
+        <v>19.8158071959562</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>20.29375444391958</v>
+        <v>17.5636702963385</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>20.29505902349522</v>
+        <v>21.40844336121518</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>20.30854572937587</v>
+        <v>27.77445810728286</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>20.32424378522316</v>
+        <v>26.57401278243928</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>20.21974767572735</v>
+        <v>6.218445666931512</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>20.28443261448721</v>
+        <v>17.66032811063434</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>20.30103076686618</v>
+        <v>15.76322785271931</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>20.17715600195737</v>
+        <v>3.213176357253914</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>20.24034759100185</v>
+        <v>8.7916718217779</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>20.26107419363117</v>
+        <v>14.18320494619979</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>20.15297062034427</v>
+        <v>-5.660930036283204</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>20.24634890528614</v>
+        <v>8.91003890778229</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>20.2798533388221</v>
+        <v>16.20640294226471</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>20.14941995119131</v>
+        <v>-5.472811007653952</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>20.30178864859761</v>
+        <v>19.12257827826586</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>20.33625923169435</v>
+        <v>31.61172692292716</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>20.33671906488652</v>
+        <v>19.3048722911451</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>20.38034118596482</v>
+        <v>35.63869016675822</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>20.41653671761161</v>
+        <v>45.31293942253715</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>20.19444857648604</v>
+        <v>2.378415622581031</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>20.36666110515459</v>
+        <v>26.28668923472475</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>20.38686810465831</v>
+        <v>23.98876779876368</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>20.19920794041705</v>
+        <v>5.942308020302939</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>20.28152966871318</v>
+        <v>16.27581907952029</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>20.3217259716749</v>
+        <v>32.13627647368891</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>20.16783120809432</v>
+        <v>-4.036353540077936</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>20.30181062462074</v>
+        <v>19.21623833114844</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>20.34615156726593</v>
+        <v>37.44148417964868</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>20.18022488961768</v>
+        <v>-3.790354607645938</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>20.37321831255834</v>
+        <v>34.12599759896212</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>20.43328568821709</v>
+        <v>60.21370627956352</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>20.49174492435718</v>
+        <v>42.27683935097356</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>20.53848065900255</v>
+        <v>58.65284192569608</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>20.58995822826527</v>
+        <v>79.2711432093526</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>20.26023620588615</v>
+        <v>5.738583098773645</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>20.48506586730316</v>
+        <v>47.01915275341619</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>20.52127233168935</v>
+        <v>53.98597414231713</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>20.24678471948233</v>
+        <v>19.70493319740595</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>20.35374591660035</v>
+        <v>30.14704777135347</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>20.36303805026362</v>
+        <v>40.72933445767529</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.22755561399947</v>
+        <v>7.461576067747146</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>20.40128913560781</v>
+        <v>51.48571091667931</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>20.40976076532383</v>
+        <v>51.12622576404755</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>20.26460888575561</v>
+        <v>11.18807480946749</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>20.47636839991129</v>
+        <v>73.86013288613054</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>20.47756439139759</v>
+        <v>72.97426048497287</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>20.5023577447986</v>
+        <v>73.81075011846769</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>20.53283699467688</v>
+        <v>80.79659963714195</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>20.53824412522225</v>
+        <v>79.66913673712293</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>20.3435623495499</v>
+        <v>49.13042972242535</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>20.50737040230358</v>
+        <v>69.17076964654196</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>20.53840355927934</v>
+        <v>81.10560620323258</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>20.20789692024265</v>
+        <v>21.16163628466067</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>20.37349208433391</v>
+        <v>39.89299415553366</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>20.38767487680571</v>
+        <v>41.51130997091592</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>20.16301449237533</v>
+        <v>3.750437924697604</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>20.37742107472388</v>
+        <v>39.83708482214411</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>20.40053431425664</v>
+        <v>42.61105770394965</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>20.20259599255323</v>
+        <v>8.080969206435984</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>20.49407832860924</v>
+        <v>64.30384650928747</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>20.51606655085158</v>
+        <v>68.94600337527163</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>20.53602527315357</v>
+        <v>61.56806547246293</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>20.59293334993517</v>
+        <v>68.4578845904276</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>20.60391367158541</v>
+        <v>68.11523889265331</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>20.3005579500749</v>
+        <v>31.8467178486835</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>20.6040816428969</v>
+        <v>74.70681321763182</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>20.62548625214546</v>
+        <v>71.05835500527607</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>20.22046014729748</v>
+        <v>23.04276372915207</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>20.42123499822159</v>
+        <v>41.65844337466951</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>20.44954304489474</v>
+        <v>45.5062819521893</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>20.17828627409148</v>
+        <v>7.273194454123317</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>20.45332721121982</v>
+        <v>50.28460179312993</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>20.47870218334684</v>
+        <v>53.18320525687481</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>20.23273917195396</v>
+        <v>10.84191901149913</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>20.58573343888833</v>
+        <v>78.05640470504206</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>20.62784704979197</v>
+        <v>80.3320345667709</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>20.72535284077373</v>
+        <v>85.83716004551411</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>20.79274566743966</v>
+        <v>89.0672825591743</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>20.80400686490536</v>
+        <v>89.57658125092578</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>20.37722713238354</v>
+        <v>39.22847852072786</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>20.75797292308586</v>
+        <v>90.71610710828023</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>20.79726453359952</v>
+        <v>90.38446711738473</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>20.21439037441457</v>
+        <v>6.512718852131208</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>20.24024835966247</v>
+        <v>13.17509340341091</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>20.25246095018235</v>
+        <v>14.77813455981958</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>20.1785666392962</v>
+        <v>-2.308684796865119</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>20.24767874245259</v>
+        <v>10.66829761339331</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>20.25910391021551</v>
+        <v>14.36664557217516</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>20.18868593216509</v>
+        <v>-1.110286482200561</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>20.2910356082992</v>
+        <v>21.25697333413744</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>20.29989085131681</v>
+        <v>22.93299438758368</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>20.3077278645885</v>
+        <v>25.47182359761389</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>20.32270906647424</v>
+        <v>30.18501557236457</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>20.33723307961449</v>
+        <v>31.89510528306133</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>20.20083105081736</v>
+        <v>2.707630689621055</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>20.29106369834848</v>
+        <v>21.10406815525816</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>20.311884960034</v>
+        <v>23.71543894043945</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>20.21823962893351</v>
+        <v>8.220687548634778</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>20.29738870888432</v>
+        <v>26.77344629470227</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>20.33148886667801</v>
+        <v>31.89537750281792</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>20.18896862157155</v>
+        <v>3.316968483292069</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>20.29657191580102</v>
+        <v>24.82182329641912</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>20.3396000048939</v>
+        <v>33.81351098610122</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>20.19284881931351</v>
+        <v>5.709735402900922</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>20.36214578246252</v>
+        <v>42.31695836430097</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>20.4092134115996</v>
+        <v>52.13856242750173</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>20.39380570542751</v>
+        <v>39.95852793867874</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>20.44142363952259</v>
+        <v>47.22013919272784</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>20.47160926523382</v>
+        <v>51.09997601465101</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>20.20835230983311</v>
+        <v>8.479068699204412</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>20.41700857454795</v>
+        <v>47.23223585883004</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>20.46143526145956</v>
+        <v>53.76310102841079</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>20.25860921910928</v>
+        <v>18.73463378852771</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>20.36626721440644</v>
+        <v>38.31551133145554</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>20.40691135403712</v>
+        <v>44.60314391891749</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>20.22107050692508</v>
+        <v>11.47647249266331</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>20.37990128488461</v>
+        <v>39.989182292045</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>20.41917668003486</v>
+        <v>49.67251868665006</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>20.24497436995216</v>
+        <v>19.46483362080982</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>20.46590739831084</v>
+        <v>63.44760364183259</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>20.52446416302846</v>
+        <v>71.89145535171863</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>20.59095245371424</v>
+        <v>71.20936762400518</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>20.64544665415197</v>
+        <v>78.4747781715394</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>20.69182706511353</v>
+        <v>87.60405017939992</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>20.31872191474314</v>
+        <v>28.32157824406009</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>20.59366932615091</v>
+        <v>74.04575630524084</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>20.64846347911345</v>
+        <v>80.67503678121624</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>20.18544166273658</v>
+        <v>4.198387653196981</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>20.24835223153391</v>
+        <v>5.959659692461397</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>20.24762083120947</v>
+        <v>6.634235512266262</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>20.13842292154903</v>
+        <v>-3.937482270154515</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>20.24661074354772</v>
+        <v>8.75167518867265</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>20.24916257581474</v>
+        <v>11.13136085752553</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>20.15862478445915</v>
+        <v>-11.16818479879425</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>20.3073524021308</v>
+        <v>11.94436058171138</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>20.30179009104492</v>
+        <v>11.21682444103412</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>20.30459433843815</v>
+        <v>13.80081445652142</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>20.32170263455912</v>
+        <v>18.265142849621</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>20.32502654619233</v>
+        <v>20.5497383567661</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>20.1801996544479</v>
+        <v>-3.631329036186376</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>20.29901084156657</v>
+        <v>7.992351382416601</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>20.30480520729215</v>
+        <v>9.450705007604935</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>20.24594014942856</v>
+        <v>19.85658815132928</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>20.36591547057509</v>
+        <v>38.40773842008739</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.37029963676222</v>
+        <v>41.09032472391574</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>20.20036326836127</v>
+        <v>6.595305475814818</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>20.35449170257497</v>
+        <v>37.01087832663342</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>20.37226997889067</v>
+        <v>45.01202264312606</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>20.21852681576711</v>
+        <v>7.660027992066926</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>20.44160728801063</v>
+        <v>56.7786701217919</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>20.45591681667942</v>
+        <v>66.41630768978708</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>20.48976940275288</v>
+        <v>55.71769810331188</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>20.5338552242791</v>
+        <v>64.55192321779714</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>20.54210794005566</v>
+        <v>66.01941122438204</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>20.28649545141658</v>
+        <v>21.89880540988268</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>20.53471348663097</v>
+        <v>65.34095865700959</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>20.54499785899864</v>
+        <v>65.60065292060577</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>20.27035808814552</v>
+        <v>24.31729597749548</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>20.42097343910146</v>
+        <v>47.58063305312201</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>20.43547303078834</v>
+        <v>50.2871755706298</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>20.21068449785319</v>
+        <v>8.785308334870408</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>20.41673260897555</v>
+        <v>53.02347869640539</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>20.43623948918703</v>
+        <v>57.79603194696204</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>20.24546236529515</v>
+        <v>9.525773998523448</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>20.52217820260148</v>
+        <v>74.90984574627112</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>20.55180626630153</v>
+        <v>78.4658756696</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>20.64936919305674</v>
+        <v>87.30287400948561</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>20.70662441549571</v>
+        <v>94.83963909218269</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>20.72028358430714</v>
+        <v>94.3926412195416</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>20.35531184906719</v>
+        <v>29.55705247816222</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>20.67383476972562</v>
+        <v>90.70283721080176</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>20.69032363650658</v>
+        <v>86.37470589192009</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>20.2290898017045</v>
+        <v>10.74429394472548</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>20.25033394569726</v>
+        <v>15.67022151068753</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>20.25671646597984</v>
+        <v>15.85096210264523</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>20.19075321819345</v>
+        <v>-1.507817973359021</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>20.25412734344344</v>
+        <v>14.78033475464185</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>20.26099677793539</v>
+        <v>16.76584375075253</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>20.20223534752017</v>
+        <v>0.6087733981293439</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>20.29746185894785</v>
+        <v>25.09447557965224</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>20.29954652566613</v>
+        <v>22.93982497461617</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>20.3139902089489</v>
+        <v>26.99546167968038</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>20.32217637017413</v>
+        <v>33.0340937325896</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>20.32741489055451</v>
+        <v>36.31269420409904</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>20.24295888916684</v>
+        <v>13.81184198959227</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>20.30647845216933</v>
+        <v>27.27867391675769</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>20.3178099401197</v>
+        <v>29.59838665560834</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>20.19461726734463</v>
+        <v>5.209906154100093</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>20.24835258223543</v>
+        <v>12.80010866703759</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>20.2702276582381</v>
+        <v>22.93096254575646</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>20.15883963132329</v>
+        <v>-3.350470382077461</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>20.24031697313401</v>
+        <v>11.38640394435152</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>20.27119120909479</v>
+        <v>25.12366727204704</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>20.16332048186964</v>
+        <v>-1.916787658998029</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>20.30419472360786</v>
+        <v>20.96086883850407</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>20.33628012734773</v>
+        <v>40.97062147103064</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>20.32942108955763</v>
+        <v>18.71342954432451</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>20.35196768421532</v>
+        <v>31.56963725169946</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>20.36662591601558</v>
+        <v>38.62929945045666</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>20.19415258166622</v>
+        <v>5.005284992963993</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>20.34918418157475</v>
+        <v>28.50496685353212</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>20.36901342671918</v>
+        <v>37.22426701142496</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>20.24896772828896</v>
+        <v>19.68541885203073</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>20.33317589471254</v>
+        <v>32.63182060198838</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>20.35735366615242</v>
+        <v>37.61089534585966</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>20.19377173255706</v>
+        <v>3.473591332492006</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>20.3269253156753</v>
+        <v>30.52478649819968</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>20.35099806256812</v>
+        <v>38.44064181092203</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>20.22326960223984</v>
+        <v>9.813376327214897</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>20.41654230573576</v>
+        <v>52.58376757848973</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>20.45556363446576</v>
+        <v>60.09831544808289</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>20.51979346724277</v>
+        <v>58.36813793620848</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>20.55372838007202</v>
+        <v>66.62045732658751</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>20.56730267156194</v>
+        <v>69.98699896125993</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>20.30414525277134</v>
+        <v>33.57108425496293</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>20.52411462161992</v>
+        <v>62.43068514047781</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>20.54427576177269</v>
+        <v>65.20392365886794</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>20.20563583863438</v>
+        <v>2.893029712598974</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>20.20911977519686</v>
+        <v>4.530618239540068</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>20.20669565771711</v>
+        <v>3.591694693608705</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.16914623961983</v>
+        <v>-4.342361762019735</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>20.21042099863283</v>
+        <v>2.073525887342509</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>20.21070019261447</v>
+        <v>4.785202486237331</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>20.16728549630127</v>
+        <v>-5.162466480966081</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>20.24287364046109</v>
+        <v>5.836574506069102</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.23608496434762</v>
+        <v>5.007755205799846</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>20.24129538792166</v>
+        <v>7.379134463534267</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>20.23757907684531</v>
+        <v>7.99379791564882</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>20.24437829362325</v>
+        <v>11.53017983674724</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>20.19531509516144</v>
+        <v>2.626666545429693</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>20.23686135345585</v>
+        <v>9.354834505992276</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>20.23741306473138</v>
+        <v>11.3695966337673</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>20.17397198853439</v>
+        <v>0.101673995103269</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>20.20822023743028</v>
+        <v>4.047486202939922</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>20.21703794677826</v>
+        <v>5.719120503334995</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>20.14574170928502</v>
+        <v>-4.729964713980294</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>20.20390821969325</v>
+        <v>3.528453519766689</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>20.22477160133106</v>
+        <v>10.38789363724465</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>20.13226493346158</v>
+        <v>-4.324579016850702</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>20.25115059955347</v>
+        <v>8.121900968591415</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>20.27021681069952</v>
+        <v>14.49301481492521</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>20.25431465908711</v>
+        <v>6.638907149519845</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>20.26768914532797</v>
+        <v>9.806482332019677</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>20.2811578308935</v>
+        <v>12.61473577311259</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>20.14731348342256</v>
+        <v>-4.204980463546818</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>20.27806436081145</v>
+        <v>10.19567581202766</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>20.2841125173612</v>
+        <v>12.07735011200685</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>20.24417297782934</v>
+        <v>17.54048000859182</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>20.30578298894044</v>
+        <v>23.14990021123349</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>20.3185660840298</v>
+        <v>25.52218171815301</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>20.18833864275479</v>
+        <v>3.615021635097392</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>20.29548453620701</v>
+        <v>21.07166850332845</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>20.31256491483316</v>
+        <v>28.01981284337807</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>20.2014241474691</v>
+        <v>9.594046570491578</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>20.36961585059214</v>
+        <v>36.11118229627406</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>20.39739423919549</v>
+        <v>39.35190170071981</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>20.44988273821513</v>
+        <v>45.47702321049037</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>20.47365033163105</v>
+        <v>45.92571309303433</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>20.48999050899931</v>
+        <v>50.12838728790709</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>20.2681365877472</v>
+        <v>25.8278108890369</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>20.46000394081089</v>
+        <v>40.23723018981843</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>20.46793337485675</v>
+        <v>44.13133930008674</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>20.27352353532894</v>
+        <v>21.94749374138915</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>20.31151766792763</v>
+        <v>33.7093499309245</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>20.32069883707332</v>
+        <v>34.99968133232409</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>20.22480017360474</v>
+        <v>3.288196310303469</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>20.31227359704362</v>
+        <v>30.99252496234135</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>20.32125188111939</v>
+        <v>34.65922085469006</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>20.24656927699463</v>
+        <v>9.307868109453977</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>20.36004026898496</v>
+        <v>46.60748928197484</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>20.36641577405442</v>
+        <v>48.40741228812768</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>20.39242443609681</v>
+        <v>51.24237445687176</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>20.4033947847354</v>
+        <v>62.098261476526</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>20.41113791583575</v>
+        <v>65.03531157551163</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>20.32019386036972</v>
+        <v>33.7486483980867</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>20.40306795832151</v>
+        <v>60.1742564014254</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>20.42384118474153</v>
+        <v>62.97046219470973</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>20.23682635848152</v>
+        <v>13.4397077715297</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>20.31809567725438</v>
+        <v>26.02172691397682</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>20.33620108707683</v>
+        <v>29.09949458525488</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>20.17764652398543</v>
+        <v>-3.123724765653293</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>20.28987435883191</v>
+        <v>21.08108645839257</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>20.31666753014249</v>
+        <v>27.76257571595922</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>20.1942510528487</v>
+        <v>1.088861062387029</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>20.3638073306411</v>
+        <v>40.52118818714632</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>20.39536525785735</v>
+        <v>46.79320833770512</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>20.40738499812458</v>
+        <v>43.89357154416937</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>20.44202070969821</v>
+        <v>50.75320596768588</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>20.46031496742403</v>
+        <v>51.54787585844717</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>20.26622388343549</v>
+        <v>23.33947058845596</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>20.45885494440508</v>
+        <v>58.0747616845711</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>20.48053245638465</v>
+        <v>59.78040565503079</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>20.28749009396424</v>
+        <v>28.15187756586669</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>20.39199291964254</v>
+        <v>43.41445075820191</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>20.42007027074872</v>
+        <v>49.44243719003819</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>20.22122320912196</v>
+        <v>7.826223075915419</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>20.37941092001136</v>
+        <v>39.39966848763095</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>20.40538396663021</v>
+        <v>46.77563453934368</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>20.2581370258022</v>
+        <v>14.22169540105361</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>20.47302098636793</v>
+        <v>68.8112231846047</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>20.52016640634467</v>
+        <v>72.75500971898683</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>20.61097031186163</v>
+        <v>87.86532663845361</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>20.64500595506137</v>
+        <v>87.81828331057588</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>20.67220917213472</v>
+        <v>89.17761387607138</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>20.37399286510294</v>
+        <v>41.61912717912013</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>20.62162906154929</v>
+        <v>84.3922171009948</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>20.65311431929726</v>
+        <v>89.4201937009978</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>20.26440771925604</v>
+        <v>17.18704197476453</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>20.33509171323445</v>
+        <v>39.37965292530843</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>20.34818219094036</v>
+        <v>42.06061745410076</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>20.23558629978186</v>
+        <v>8.681154654984834</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>20.35129672526193</v>
+        <v>45.09441431569061</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>20.36319227638336</v>
+        <v>47.46737739720716</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>20.25880425885498</v>
+        <v>10.25622985285904</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>20.40599731745407</v>
+        <v>64.31702196960444</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>20.4155091854524</v>
+        <v>64.57429038148258</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>20.44401699245971</v>
+        <v>71.28288523808908</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>20.46358209926542</v>
+        <v>78.27264095738845</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>20.47561683478484</v>
+        <v>78.55207418907688</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>20.30511067852748</v>
+        <v>22.46204896506045</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>20.44307599806624</v>
+        <v>70.04511289699732</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>20.47357144758307</v>
+        <v>71.46458736074459</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>20.23128767623044</v>
+        <v>16.12244551440375</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>20.34341074509814</v>
+        <v>37.64575608776296</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>20.36813467404131</v>
+        <v>42.0085427847484</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>20.19928417065689</v>
+        <v>6.231189908408123</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>20.34295896241924</v>
+        <v>36.06922414182991</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>20.37392963976787</v>
+        <v>42.99647718682306</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>20.21496556986738</v>
+        <v>7.373194078699406</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>20.41729765269878</v>
+        <v>54.96482212904719</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>20.45287811772991</v>
+        <v>65.42831306299338</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>20.46393043052797</v>
+        <v>55.70911873541439</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>20.50838812231601</v>
+        <v>64.0728546176409</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>20.52539566237945</v>
+        <v>63.21654166210521</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>20.25749132917188</v>
+        <v>17.12733269525076</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>20.49771215226655</v>
+        <v>65.55629092369227</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>20.53976396046045</v>
+        <v>70.10405514638157</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>20.24570641410081</v>
+        <v>18.53518655537983</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>20.38560104167963</v>
+        <v>43.62625744711295</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>20.41944141636555</v>
+        <v>48.52729945307702</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>20.20977564755116</v>
+        <v>5.88874698449272</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>20.40117870935728</v>
+        <v>45.78869254510936</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>20.43306869647399</v>
+        <v>52.20919840113816</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>20.2397797957944</v>
+        <v>7.283017159271395</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>20.49098281831949</v>
+        <v>67.01380960938616</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>20.54030576341187</v>
+        <v>76.41040480336491</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>20.61193368921113</v>
+        <v>82.12191865565268</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>20.66798113078702</v>
+        <v>88.49583095877006</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>20.69840677166104</v>
+        <v>93.62998842659833</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>20.32331225976801</v>
+        <v>24.47713225975279</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>20.62665422411738</v>
+        <v>82.76517077324928</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>20.6818336697998</v>
+        <v>88.61667017985802</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>20.25840177660716</v>
+        <v>23.91171010091339</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>20.31952419098408</v>
+        <v>37.41161325866258</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>20.3276038684827</v>
+        <v>41.27634424424688</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>20.23421416212516</v>
+        <v>6.537415087520678</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>20.34234749962163</v>
+        <v>49.66281530542923</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>20.35103456942586</v>
+        <v>50.22073196018469</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>20.2555857371219</v>
+        <v>11.11552837168971</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>20.38698862595067</v>
+        <v>67.10289579556022</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>20.39206714138674</v>
+        <v>66.14462657773645</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>20.40810045990616</v>
+        <v>64.57342148415151</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>20.42422882201011</v>
+        <v>69.56976149295754</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>20.43379171575732</v>
+        <v>68.669093535633</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>20.30713254990613</v>
+        <v>32.3091390632176</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>20.41420289815026</v>
+        <v>59.87287839311062</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>20.43881805311908</v>
+        <v>72.91722339565679</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>20.24806031566994</v>
+        <v>24.42004976062902</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>20.35416956125133</v>
+        <v>40.38340777208839</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>20.36871738716496</v>
+        <v>42.4216471920363</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>20.21364705079722</v>
+        <v>3.401653752187833</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>20.35136738010543</v>
+        <v>38.17894306117867</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>20.37448181697235</v>
+        <v>44.58124292196278</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>20.23302182681138</v>
+        <v>6.379257828330427</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>20.42206220270472</v>
+        <v>62.18421444647427</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>20.44750841705067</v>
+        <v>71.20932922239224</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>20.46838633441035</v>
+        <v>62.81230090182027</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>20.5098139903431</v>
+        <v>69.36643440867121</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>20.53129977597879</v>
+        <v>70.23352276351832</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>20.29941842543598</v>
+        <v>27.93647999672345</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>20.51507972316558</v>
+        <v>76.24404625505477</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>20.5394817814463</v>
+        <v>78.02876906985719</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>20.26023810784572</v>
+        <v>27.91736026052016</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>20.38592185686215</v>
+        <v>47.38671509405893</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>20.41130272220247</v>
+        <v>49.13470007784461</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>20.22548419258029</v>
+        <v>5.344908396199259</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>20.40144095611533</v>
+        <v>46.13926518489598</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>20.42673664600162</v>
+        <v>51.22709109609578</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>20.25663446651068</v>
+        <v>7.862585419815126</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>20.48425020078462</v>
+        <v>76.03676380663774</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>20.52557656567652</v>
+        <v>78.92332874146669</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>20.60555583989152</v>
+        <v>91.1447938872648</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>20.64788367093199</v>
+        <v>93.21237375102554</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>20.67748421075983</v>
+        <v>94.67277664316492</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>20.35534200752105</v>
+        <v>29.93018632873946</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>20.62015470553765</v>
+        <v>89.9451335381689</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>20.65484179816298</v>
+        <v>91.924448597489</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>20.27695239617117</v>
+        <v>25.79465251217368</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>20.30980293267667</v>
+        <v>36.29941050569322</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>20.31466327936239</v>
+        <v>39.48401356827458</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>20.27451953970076</v>
+        <v>16.38102896889453</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>20.34283862221981</v>
+        <v>59.22513241672612</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>20.34852673262534</v>
+        <v>59.37398245450272</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>20.27568923954133</v>
+        <v>14.63488022947343</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>20.35804815153839</v>
+        <v>62.42314425321931</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>20.36132158098409</v>
+        <v>60.89592548987126</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>20.37729874447246</v>
+        <v>62.79848323986745</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>20.38756047824492</v>
+        <v>72.55893351410575</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>20.3954016469766</v>
+        <v>73.24730395417029</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>20.32196445884602</v>
+        <v>41.06730381010863</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>20.37931047064002</v>
+        <v>55.8745362903122</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>20.39826030861195</v>
+        <v>68.21320742166097</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>20.27138497449415</v>
+        <v>24.52557193491316</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>20.33530664518953</v>
+        <v>36.49078377046777</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>20.34653232029943</v>
+        <v>42.4782543054376</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>20.27647404175343</v>
+        <v>29.46054768588008</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>20.36410859039169</v>
+        <v>54.76841369115679</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>20.38254938882512</v>
+        <v>61.73396111187279</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>20.26468727751103</v>
+        <v>10.3327755299898</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>20.38681131042902</v>
+        <v>58.28124594462565</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>20.40710841193424</v>
+        <v>69.63883565780745</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>20.42366507678036</v>
+        <v>58.43640624141544</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>20.45221323690522</v>
+        <v>68.65789575707754</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>20.47124812876546</v>
+        <v>67.66132292853587</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>20.31865137457136</v>
+        <v>33.38807500799383</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>20.45228937711946</v>
+        <v>71.73248556462778</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>20.47430841160759</v>
+        <v>75.91049006186569</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>20.28687685907133</v>
+        <v>31.47102767754055</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>20.36305552121798</v>
+        <v>47.62405940622127</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>20.38069664338793</v>
+        <v>49.05446238252078</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>20.29162726680473</v>
+        <v>34.46368745729738</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>20.40533927077744</v>
+        <v>65.31739085118039</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>20.42362876726558</v>
+        <v>68.60998573123231</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>20.28855465834596</v>
+        <v>12.46130224289197</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>20.43675521554475</v>
+        <v>74.0370337872663</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>20.46730294044989</v>
+        <v>78.39268341170083</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>20.52979155518737</v>
+        <v>92.86886540088351</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>20.55803313824998</v>
+        <v>92.9019368119444</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>20.58373084442571</v>
+        <v>97.30042520057562</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>20.36715938622962</v>
+        <v>42.32427258253838</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>20.53366543287844</v>
+        <v>91.73991516512228</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>20.56062087989714</v>
+        <v>94.91485411711967</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>20.25685141420461</v>
+        <v>19.41696590371735</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>20.32118126943909</v>
+        <v>40.03006841142147</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>20.33162907773879</v>
+        <v>44.58044881563205</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>20.22855539648253</v>
+        <v>5.955497212874</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>20.33480716369581</v>
+        <v>39.76375805677548</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>20.34445324105847</v>
+        <v>45.47341063681377</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>20.25114531682275</v>
+        <v>6.244746958716565</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>20.38747969886741</v>
+        <v>61.36477622023143</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>20.39509083231086</v>
+        <v>63.92535154100823</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>20.42489602560146</v>
+        <v>69.55359160341321</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>20.44118324996877</v>
+        <v>76.92932679163715</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>20.44804683761268</v>
+        <v>79.46065368487099</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>20.28322115690213</v>
+        <v>13.52800705919736</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>20.4114825568494</v>
+        <v>70.43708510436224</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>20.4346609759473</v>
+        <v>72.99315898003361</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>20.23592780352168</v>
+        <v>15.77989632527107</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>20.34146825144677</v>
+        <v>37.86708311277334</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>20.35502938219433</v>
+        <v>39.50107779313429</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>20.20135907668748</v>
+        <v>1.893934174812632</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>20.33647886475989</v>
+        <v>35.02490101343939</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>20.3563453501854</v>
+        <v>40.48076131084364</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>20.21755491536651</v>
+        <v>2.771768803862251</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>20.40772667353242</v>
+        <v>56.05999877603379</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>20.43176231999852</v>
+        <v>63.65720369415711</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>20.45520810344902</v>
+        <v>56.99340119685519</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>20.49150973066172</v>
+        <v>63.97400363333831</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>20.50389696397573</v>
+        <v>64.11423999995674</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>20.25057415040728</v>
+        <v>10.90190310316494</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>20.47650717680628</v>
+        <v>61.04773807571146</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>20.50250419992312</v>
+        <v>67.56701889100873</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>20.24692157607583</v>
+        <v>16.10234350609396</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>20.37477595737613</v>
+        <v>42.21277345375606</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>20.39890558280937</v>
+        <v>45.83427272339586</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>20.21161881717842</v>
+        <v>2.343215064099734</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>20.38699979689109</v>
+        <v>46.40902668802988</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>20.40940602208373</v>
+        <v>51.24018973599673</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>20.23733342180674</v>
+        <v>3.668485536727516</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>20.46940915741298</v>
+        <v>68.46720164340218</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>20.50869154601748</v>
+        <v>75.0671319512324</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>20.59703431858391</v>
+        <v>82.84524014174036</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>20.64144196264082</v>
+        <v>88.03222784463762</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>20.66522523394936</v>
+        <v>93.93485073649461</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>20.31289460603577</v>
+        <v>12.05344274970346</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>20.59338299052114</v>
+        <v>81.56395492160604</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>20.63298309548476</v>
+        <v>88.36913549681661</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>20.24379889464355</v>
+        <v>14.96015660064694</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>20.2684726935344</v>
+        <v>19.48423078589973</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>20.27473643839617</v>
+        <v>19.66548940444046</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>20.20655603846153</v>
+        <v>0.9479294562511384</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>20.27872913589446</v>
+        <v>20.29849568332712</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>20.28212498232668</v>
+        <v>21.34326571415555</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>20.22314671236989</v>
+        <v>3.64431601775377</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>20.3093838974931</v>
+        <v>30.3174655993683</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>20.31500396508559</v>
+        <v>29.5550666497944</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>20.32940492850695</v>
+        <v>34.94454603934678</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>20.34013210870388</v>
+        <v>39.309778578025</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>20.35142915111713</v>
+        <v>42.26911989604648</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>20.25660074469857</v>
+        <v>17.1947710426899</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.32028115479044</v>
+        <v>28.31492121829518</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>20.33346933141508</v>
+        <v>30.5749828128758</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>20.24791261083604</v>
+        <v>14.04484722644159</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>20.32186136374465</v>
+        <v>33.057205261906</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>20.34593736816197</v>
+        <v>37.8537135273976</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>20.21480072565798</v>
+        <v>3.946960181999877</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>20.32559854884544</v>
+        <v>32.47056957315512</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>20.3532780020583</v>
+        <v>40.99850405359517</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>20.22765325923751</v>
+        <v>7.966034042318757</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>20.37416098657988</v>
+        <v>53.06942900837969</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>20.4121046018906</v>
+        <v>62.44188866951133</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>20.42083177498871</v>
+        <v>52.03259977743668</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>20.45606357701653</v>
+        <v>56.93717245931549</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>20.48439117830639</v>
+        <v>65.39799581815717</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>20.26970034266589</v>
+        <v>14.18502870988118</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>20.44600324174057</v>
+        <v>57.84702157289431</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>20.47724561423645</v>
+        <v>64.08085892335441</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>20.27653331446148</v>
+        <v>22.35314157292604</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>20.36995536125676</v>
+        <v>43.19186575505162</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>20.40181941433246</v>
+        <v>49.45457555995362</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>20.23577857083036</v>
+        <v>9.625835034790168</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>20.38545667018041</v>
+        <v>44.36394386986006</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>20.41189807091364</v>
+        <v>53.84008450573018</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>20.2623455062455</v>
+        <v>17.74890026765912</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>20.4466124919598</v>
+        <v>70.58989861754091</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>20.4971817487108</v>
+        <v>78.6041131420547</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>20.55965233379189</v>
+        <v>77.86690233882501</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>20.59588876639444</v>
+        <v>78.13148419778477</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>20.63446957899411</v>
+        <v>89.72042942826886</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>20.33563312090902</v>
+        <v>33.2534807366066</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>20.56042494420436</v>
+        <v>78.35672437790477</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>20.59857743663881</v>
+        <v>89.76406530497241</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>20.24759701178431</v>
+        <v>14.90905319884214</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>20.27336025711713</v>
+        <v>18.81746912686029</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>20.28107934657434</v>
+        <v>19.32075514161171</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>20.23254299548286</v>
+        <v>-1.759427839605124</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>20.29206632846986</v>
+        <v>24.12351394761038</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>20.30097412821252</v>
+        <v>25.05194562916837</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>20.23943923146542</v>
+        <v>2.092264027449254</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>20.31314683089159</v>
+        <v>32.86990448735187</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>20.31965881934934</v>
+        <v>31.93182095834715</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>20.33011269195666</v>
+        <v>43.72799045586289</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>20.33948491893497</v>
+        <v>53.65863338881166</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>20.34978758595467</v>
+        <v>55.31457454147856</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>20.27697360634563</v>
+        <v>18.69799965250991</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>20.32850670919683</v>
+        <v>34.16190359217948</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>20.35027183374932</v>
+        <v>41.19702359424394</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>20.23654585741862</v>
+        <v>7.233074353234851</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>20.29211535558239</v>
+        <v>16.83565281929879</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>20.30986002349664</v>
+        <v>32.05937624179006</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>20.22615877202134</v>
+        <v>2.289296582253719</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>20.30346025292966</v>
+        <v>21.7024264092945</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>20.32921141417683</v>
+        <v>42.65652974742414</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>20.2229365926959</v>
+        <v>-1.75415259622644</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>20.33466803865497</v>
+        <v>35.99086145150063</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>20.36199723522131</v>
+        <v>59.70574153337903</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>20.36824297406688</v>
+        <v>41.78293833527846</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>20.39573873048672</v>
+        <v>55.21547791527207</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>20.4198333939821</v>
+        <v>61.23230397934334</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>20.26460036526382</v>
+        <v>11.17063798767996</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>20.39074309038004</v>
+        <v>53.89549007980189</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>20.42030075423706</v>
+        <v>63.08697630831458</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>20.24790926111445</v>
+        <v>20.17917455803691</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>20.31486409354639</v>
+        <v>31.27443833953459</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>20.33913204896108</v>
+        <v>40.5179518911827</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>20.23395306404475</v>
+        <v>7.295768464295559</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>20.33644547606944</v>
+        <v>30.07751184323232</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>20.36208055983126</v>
+        <v>46.89612936492559</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>20.24066324738793</v>
+        <v>2.345484092606501</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>20.37745437459584</v>
+        <v>51.30955131707194</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>20.4151539719584</v>
+        <v>66.48396298516394</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>20.46582237356973</v>
+        <v>77.18012004121289</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>20.49186724978459</v>
+        <v>77.89536315666766</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>20.52325972954873</v>
+        <v>86.3376899170006</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>20.30511407822348</v>
+        <v>23.90049512824069</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>20.46258723216786</v>
+        <v>69.67297946311028</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>20.49790107926065</v>
+        <v>81.36128714165974</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>20.26539383321384</v>
+        <v>22.74826207069219</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>20.32706591968245</v>
+        <v>36.67809937710446</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>20.33235304278683</v>
+        <v>39.81129177516186</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>20.24038564412185</v>
+        <v>7.710916354167626</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>20.36099779199326</v>
+        <v>50.84076601290936</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>20.36358021741168</v>
+        <v>51.21060532217831</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>20.26355739828024</v>
+        <v>13.01343128741993</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>20.40357993748328</v>
+        <v>70.22368124425606</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>20.40417600915099</v>
+        <v>65.84764424496117</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>20.4307823800967</v>
+        <v>65.42137902899108</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>20.44739917050554</v>
+        <v>74.63516468267269</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>20.45270881091732</v>
+        <v>75.88454634792654</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>20.34660931050898</v>
+        <v>42.53863583804735</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>20.43581717668373</v>
+        <v>62.65207233618283</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>20.46270902254893</v>
+        <v>81.24697321874511</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>20.25423455580661</v>
+        <v>27.77341715993283</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>20.36141082439176</v>
+        <v>43.10864212531393</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>20.36920378872325</v>
+        <v>44.75211157535169</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>20.2144347934997</v>
+        <v>7.076448822878156</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>20.36597932604976</v>
+        <v>40.29256492135843</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>20.37876497168903</v>
+        <v>44.22654370263607</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>20.23406180041741</v>
+        <v>9.231667078957486</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>20.43498244437691</v>
+        <v>60.93543567490069</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>20.45189999522724</v>
+        <v>65.32332974853531</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>20.48067446892722</v>
+        <v>61.14865776303415</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>20.51044785629241</v>
+        <v>66.24225173046236</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>20.52323481763723</v>
+        <v>66.67100910089715</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>20.32785899410344</v>
+        <v>30.83671040715154</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>20.52369393533415</v>
+        <v>70.65261079241712</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>20.54066701433935</v>
+        <v>71.65777208686025</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>20.25751376472376</v>
+        <v>27.18894913939833</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>20.38786388815062</v>
+        <v>46.062508179988</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>20.40361428585117</v>
+        <v>47.83704786701966</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>20.22130152303991</v>
+        <v>8.710455650236966</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>20.41594865857225</v>
+        <v>49.88749051680267</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>20.42812880316677</v>
+        <v>52.51776327866297</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>20.25601955848013</v>
+        <v>9.915242550597725</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>20.50087619640126</v>
+        <v>73.70612043928818</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>20.53069686307525</v>
+        <v>76.45911405029943</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>20.62518173849173</v>
+        <v>88.76249862440682</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>20.66217249995211</v>
+        <v>88.01807653907079</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>20.67743297515104</v>
+        <v>89.91784076958257</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>20.38492128798253</v>
+        <v>39.11589375448175</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>20.63403509204354</v>
+        <v>85.89620919005561</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>20.66064093054281</v>
+        <v>88.10881874794161</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>20.25733403424281</v>
+        <v>19.25273426617685</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>20.32289442933522</v>
+        <v>38.65812451613339</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>20.33159093317232</v>
+        <v>41.73657858108152</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>20.2301377035018</v>
+        <v>7.669386887924958</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>20.33993505527608</v>
+        <v>44.28130854860366</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>20.34751148073082</v>
+        <v>45.90873006445268</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>20.24889440798081</v>
+        <v>7.473953328620155</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>20.38749836290703</v>
+        <v>61.10640450581542</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>20.39363009633201</v>
+        <v>62.59887152852612</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>20.42642429951927</v>
+        <v>65.37050366564266</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>20.44612560056223</v>
+        <v>77.66445484621184</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>20.45209644618409</v>
+        <v>76.49233657906468</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>20.283744901469</v>
+        <v>13.85020153432717</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>20.4129915926284</v>
+        <v>67.62700031562699</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>20.43455062418156</v>
+        <v>71.07797855123006</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>20.2402908787653</v>
+        <v>15.26004775808469</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>20.34866034194249</v>
+        <v>37.44292239193639</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>20.36278084201681</v>
+        <v>38.56660244125722</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>20.20503299636509</v>
+        <v>3.82996917129978</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>20.34454361395079</v>
+        <v>38.07604123084714</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>20.3647560842841</v>
+        <v>42.79911576574363</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>20.2188041931273</v>
+        <v>6.172001144362905</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>20.41310828752744</v>
+        <v>59.07804888124759</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>20.43844590984217</v>
+        <v>67.3503023454636</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>20.46668556929513</v>
+        <v>60.34501022934927</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>20.50568920221166</v>
+        <v>67.87426388063892</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>20.51879379972271</v>
+        <v>66.01178433126425</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>20.2583231070543</v>
+        <v>12.44554826387551</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>20.4910302560873</v>
+        <v>68.99176433531784</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>20.51716003819881</v>
+        <v>69.63908685481607</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>20.24662912343386</v>
+        <v>15.69338908757354</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>20.37648413920119</v>
+        <v>40.87167642065756</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>20.4020147125545</v>
+        <v>43.95179173759814</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>20.20569142431522</v>
+        <v>4.197902210929552</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>20.38471883860799</v>
+        <v>47.3156777538709</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>20.40824819725967</v>
+        <v>51.29609568507824</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>20.22816399153729</v>
+        <v>6.21717661391304</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>20.46374638338111</v>
+        <v>67.24353111174044</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>20.5052528738054</v>
+        <v>74.49316265690203</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>20.59219965910436</v>
+        <v>79.73532847958371</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>20.63619225536995</v>
+        <v>85.30904822449774</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>20.66282145127189</v>
+        <v>91.80617398228418</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>20.30287858112123</v>
+        <v>12.10060577624074</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>20.58692502620574</v>
+        <v>76.90981369303539</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>20.62772841861063</v>
+        <v>83.83978250215893</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.64384619256352</v>
+        <v>17.64384619256344</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>21.98712567849199</v>
+        <v>21.98712567849185</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.21084377459284</v>
+        <v>21.21084377459267</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.67941579755006</v>
+        <v>-1.679415797549936</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.92400404104261</v>
+        <v>22.92400404104271</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.2275347422871</v>
+        <v>23.22753474228706</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.108504194466981</v>
+        <v>2.108504194467027</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33.45761612122158</v>
+        <v>33.45761612122132</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.64804845447393</v>
+        <v>30.64804845447375</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>35.99783520995386</v>
+        <v>35.99783520995379</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>43.68511436271783</v>
+        <v>43.68511436271786</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>44.85382612182769</v>
+        <v>44.85382612182772</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.0341288504814</v>
+        <v>14.03412885048137</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>32.20587193416943</v>
+        <v>32.20587193416962</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35.05070061408452</v>
+        <v>35.05070061408431</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20.3461839762163</v>
+        <v>20.3461839762165</v>
       </c>
     </row>
     <row r="18">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>45.18752383742408</v>
+        <v>45.18752383742388</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.367740659805811</v>
+        <v>4.367740659805701</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>35.95140131511167</v>
+        <v>35.95140131511153</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>47.81869842023542</v>
+        <v>47.81869842023534</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8.639120792582826</v>
+        <v>8.639120792582958</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>61.04992267229484</v>
+        <v>61.04992267229509</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>74.1138729043406</v>
+        <v>74.11387290434079</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>63.44768322942937</v>
+        <v>63.44768322942913</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>74.84229123591214</v>
+        <v>74.84229123591183</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>82.00533737260452</v>
+        <v>82.00533737260481</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.9864078503745</v>
+        <v>24.98640785037464</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>78.98868830895816</v>
+        <v>78.98868830895812</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>85.64080223675488</v>
+        <v>85.64080223675498</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>32.27095430118435</v>
+        <v>32.27095430118431</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>52.49600604357889</v>
+        <v>52.49600604357895</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>55.41910041738802</v>
+        <v>55.41910041738769</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>10.37258004212264</v>
+        <v>10.37258004212265</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>46.09450790848557</v>
+        <v>46.09450790848572</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>54.76352134793987</v>
+        <v>54.76352134793986</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>17.53667484050916</v>
+        <v>17.536674840509</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>80.60558222054132</v>
+        <v>80.60558222054131</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>82.69862922346064</v>
+        <v>82.69862922346077</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>96.8039201077828</v>
+        <v>96.80392010778264</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>102.2358121359349</v>
+        <v>102.2358121359348</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>105.224244531457</v>
+        <v>105.2242445314568</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>41.94992150212688</v>
+        <v>41.94992150212674</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>102.6697880698799</v>
+        <v>102.6697880698798</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>103.2917851977793</v>
+        <v>103.291785197779</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>8.881581179919504</v>
+        <v>8.881581179919397</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>42.09579898341983</v>
+        <v>42.0957989834198</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.6917073989896</v>
+        <v>42.69170739898974</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.6380210565019944</v>
+        <v>0.6380210565020477</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>47.98548428862068</v>
+        <v>47.98548428862078</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>48.45521261422692</v>
+        <v>48.45521261422687</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.781979379584325</v>
+        <v>1.781979379584342</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>70.37632070204216</v>
+        <v>70.37632070204197</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>68.43725519958073</v>
+        <v>68.43725519958089</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>65.64403113090724</v>
+        <v>65.64403113090708</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>73.33641272782492</v>
+        <v>73.33641272782468</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>73.82895392161652</v>
+        <v>73.82895392161635</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>12.48251637880901</v>
+        <v>12.48251637880884</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>66.87077040854049</v>
+        <v>66.87077040854042</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>68.81890882264133</v>
+        <v>68.81890882264129</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.90639956630343</v>
+        <v>12.90639956630341</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>43.21561375996569</v>
+        <v>43.21561375996568</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>48.53368358746492</v>
+        <v>48.53368358746471</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3.840674787620141</v>
+        <v>3.840674787620014</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>42.38872293277103</v>
+        <v>42.38872293277063</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>52.24273352290135</v>
+        <v>52.24273352290145</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6.828728511808833</v>
+        <v>6.828728511808716</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>66.55068129702187</v>
+        <v>66.55068129702184</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>80.59979220495288</v>
+        <v>80.59979220495283</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>65.08347126390785</v>
+        <v>65.08347126390791</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>77.04791424263369</v>
+        <v>77.04791424263398</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>80.08313434411423</v>
+        <v>80.08313434411426</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>11.06577189661519</v>
+        <v>11.06577189661521</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>77.55180273933127</v>
+        <v>77.55180273933109</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>82.19983696522644</v>
+        <v>82.19983696522638</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>12.18109697993259</v>
+        <v>12.18109697993255</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>48.8510648131347</v>
+        <v>48.85106481313476</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>51.40278861844747</v>
+        <v>51.40278861844728</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2.533622294804303</v>
+        <v>2.533622294804253</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>52.74293753911306</v>
+        <v>52.74293753911294</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>59.494215858131</v>
+        <v>59.49421585813086</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6.31317203049873</v>
+        <v>6.313172030498656</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>83.14003242950255</v>
+        <v>83.14003242950268</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>90.09127654665407</v>
+        <v>90.09127654665363</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>91.31854265009943</v>
+        <v>91.31854265009936</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>102.5852143539366</v>
+        <v>102.5852143539365</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>102.2528280415875</v>
+        <v>102.2528280415877</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>16.77707894548898</v>
+        <v>16.7770789454889</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>94.87120935447544</v>
+        <v>94.87120935447537</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>96.005479648772</v>
+        <v>96.00547964877155</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>27.31688909278212</v>
+        <v>27.31688909278211</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>44.15554561772474</v>
+        <v>44.15554561772458</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>45.32834516856796</v>
+        <v>45.32834516856784</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>7.817989099588353</v>
+        <v>7.817989099588321</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>47.53295388454161</v>
+        <v>47.53295388454154</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>47.94341165552616</v>
+        <v>47.94341165552619</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.015018272219265</v>
+        <v>9.015018272219244</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>69.52287534269729</v>
+        <v>69.52287534269709</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>64.46012153174692</v>
+        <v>64.46012153174681</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>64.92131325752051</v>
+        <v>64.92131325752044</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>77.36639394227504</v>
+        <v>77.36639394227512</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>75.14547072439551</v>
+        <v>75.14547072439547</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.92872829412878</v>
+        <v>29.9287282941288</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>67.89325453882768</v>
+        <v>67.89325453882753</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>67.47069194177597</v>
+        <v>67.47069194177607</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.62310746824586</v>
+        <v>26.62310746824581</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>50.0843075727887</v>
+        <v>50.0843075727888</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>52.66990261078768</v>
+        <v>52.66990261078746</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.698792139537339</v>
+        <v>7.698792139537147</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>47.22242725500105</v>
+        <v>47.22242725500094</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>53.73440168295073</v>
+        <v>53.7344016829508</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>9.782424145072959</v>
+        <v>9.782424145072856</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>72.79608165448877</v>
+        <v>72.7960816544888</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>81.98248793123881</v>
+        <v>81.98248793123878</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>69.25008448220697</v>
+        <v>69.25008448220684</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>82.22891322210855</v>
+        <v>82.22891322210863</v>
       </c>
     </row>
     <row r="118">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>30.0569756556367</v>
+        <v>30.05697565563656</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>79.82433273650153</v>
+        <v>79.82433273650147</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>80.45711065735397</v>
+        <v>80.45711065735372</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>30.89041199508907</v>
+        <v>30.89041199508914</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>55.49780960075947</v>
+        <v>55.49780960075938</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>55.26532364309179</v>
+        <v>55.26532364309166</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>8.526600507517728</v>
+        <v>8.526600507517614</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>58.72792093732051</v>
+        <v>58.72792093732031</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>60.58991586494128</v>
+        <v>60.58991586494116</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>10.82104960646597</v>
+        <v>10.82104960646596</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>86.93154293720448</v>
+        <v>86.9315429372047</v>
       </c>
     </row>
     <row r="130">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>95.85481989717235</v>
+        <v>95.85481989717204</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>100.6768094472411</v>
+        <v>100.6768094472407</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>102.9373081961463</v>
+        <v>102.9373081961462</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>39.2974661830472</v>
+        <v>39.29746618304714</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>99.17081851192913</v>
+        <v>99.17081851192907</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>96.9956520235115</v>
+        <v>96.9956520235113</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>17.51852247546198</v>
+        <v>17.51852247546216</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>23.03740756700901</v>
+        <v>23.03740756700913</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>23.15546970000522</v>
+        <v>23.15546970000537</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-0.5685607640664898</v>
+        <v>-0.5685607640664188</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>24.02394922829836</v>
+        <v>24.02394922829843</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.33960148198571</v>
+        <v>25.33960148198562</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.442904424251193</v>
+        <v>5.442904424251093</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>33.48801224502439</v>
+        <v>33.48801224502412</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>32.24630487394337</v>
+        <v>32.24630487394334</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>38.81276387410154</v>
+        <v>38.81276387410122</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>43.05708627526936</v>
+        <v>43.05708627526938</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>48.35634634824679</v>
+        <v>48.35634634824666</v>
       </c>
     </row>
     <row r="149">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>68.40853900125558</v>
+        <v>68.40853900125555</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>68.39970816549288</v>
+        <v>68.39970816549285</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>18.56008468433946</v>
+        <v>18.56008468433928</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>41.57358724547927</v>
+        <v>41.57358724547914</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>48.97106875418801</v>
+        <v>48.97106875418794</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6.694171640711598</v>
+        <v>6.694171640711691</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>44.3817649488893</v>
+        <v>44.38176494888921</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>56.33741805081476</v>
+        <v>56.33741805081502</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>16.35081811913284</v>
+        <v>16.35081811913305</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>65.44486484065484</v>
+        <v>65.44486484065462</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>79.15557987266355</v>
+        <v>79.15557987266338</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>63.80009785363968</v>
+        <v>63.80009785363963</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>72.1031307467852</v>
+        <v>72.10313074678514</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>79.43428963975869</v>
+        <v>79.43428963975836</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>30.10864327403407</v>
+        <v>30.10864327403424</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>77.88659382678648</v>
+        <v>77.88659382678635</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>83.1349325639323</v>
+        <v>83.13493256393241</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>30.46652545145117</v>
+        <v>30.46652545145095</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>51.13116215374989</v>
+        <v>51.13116215374976</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>53.38282915813795</v>
+        <v>53.38282915813783</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>10.54897870643101</v>
+        <v>10.54897870643102</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>50.02802440485834</v>
+        <v>50.02802440485819</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>58.26576545467837</v>
+        <v>58.26576545467825</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>19.84693140979892</v>
+        <v>19.84693140979887</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>79.92806033556113</v>
+        <v>79.92806033556107</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>83.00254222966421</v>
+        <v>83.00254222966436</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>88.15851173590526</v>
+        <v>88.15851173590504</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>91.35089884157489</v>
+        <v>91.35089884157495</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>101.1188830295375</v>
+        <v>101.1188830295372</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>44.43330271985508</v>
+        <v>44.43330271985498</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>96.59844821721593</v>
+        <v>96.598448217216</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>98.69063088051878</v>
+        <v>98.69063088051888</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.42196370120128</v>
+        <v>29.42196370120111</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>49.26713467157104</v>
+        <v>49.26713467157091</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>46.68539451759764</v>
+        <v>46.68539451759772</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>8.890584759981003</v>
+        <v>8.890584759981092</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>51.40539986375209</v>
+        <v>51.40539986375201</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>51.57577514715608</v>
+        <v>51.57577514715584</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>14.53083555272585</v>
+        <v>14.53083555272593</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>74.52735080020281</v>
+        <v>74.5273508002025</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>69.25080422636657</v>
+        <v>69.25080422636628</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>58.84991213443318</v>
+        <v>58.84991213443328</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>72.07177592044971</v>
+        <v>72.0717759204498</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>71.37297174416396</v>
+        <v>71.372971744164</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>23.15250309931789</v>
+        <v>23.15250309931788</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>38.57543030290072</v>
+        <v>38.57543030290061</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>38.08866026065111</v>
+        <v>38.08866026065091</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>34.32220547409284</v>
+        <v>34.32220547409287</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>55.2190234294789</v>
+        <v>55.21902342947892</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>53.45469645939171</v>
+        <v>53.45469645939183</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>7.448342560513609</v>
+        <v>7.448342560513648</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>49.12906029119668</v>
+        <v>49.12906029119661</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>55.584512883679</v>
+        <v>55.58451288367922</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>15.27298220123304</v>
+        <v>15.27298220123333</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>78.04526585282039</v>
+        <v>78.04526585282002</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>82.54882556297466</v>
+        <v>82.54882556297451</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>77.1992419477638</v>
+        <v>77.19924194776354</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>86.25425380088063</v>
+        <v>86.25425380088024</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>88.06101527077602</v>
+        <v>88.06101527077578</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>45.53698448309146</v>
+        <v>45.53698448309126</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>89.84721299822922</v>
+        <v>89.84721299822931</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>38.09120985574445</v>
+        <v>38.09120985574439</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>60.12009024872847</v>
+        <v>60.12009024872862</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>58.14826981362641</v>
+        <v>58.14826981362645</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>8.398943253448511</v>
+        <v>8.398943253448355</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>53.32536726409658</v>
+        <v>53.32536726409656</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>57.32224044699598</v>
+        <v>57.32224044699574</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>13.33516803963646</v>
+        <v>13.33516803963652</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>85.11747311585698</v>
+        <v>85.11747311585725</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>88.12154779302804</v>
+        <v>88.1215477930281</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>97.81555930143503</v>
+        <v>97.81555930143482</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>100.6037912179791</v>
+        <v>100.603791217979</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>104.1917445742851</v>
+        <v>104.1917445742852</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>51.08019599155111</v>
+        <v>51.08019599155131</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>105.1235137384988</v>
+        <v>105.1235137384989</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>103.9800430481885</v>
+        <v>103.9800430481889</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>25.26096689563747</v>
+        <v>25.26096689563739</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>42.18278254706014</v>
+        <v>42.18278254706016</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>45.59959423342784</v>
+        <v>45.59959423342785</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>7.31718910881936</v>
+        <v>7.317189108819349</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>48.74008068324632</v>
+        <v>48.74008068324631</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>47.98195354182104</v>
+        <v>47.98195354182084</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>9.677167205769365</v>
+        <v>9.677167205769258</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>72.91242133353009</v>
+        <v>72.91242133353016</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>68.20029433727063</v>
+        <v>68.20029433727066</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>57.94930262822028</v>
+        <v>57.94930262822025</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>66.74234224889538</v>
+        <v>66.74234224889535</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>68.24642354889917</v>
+        <v>68.24642354889903</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>14.37915713132031</v>
+        <v>14.37915713132025</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>15.97873820640352</v>
+        <v>15.97873820640347</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>16.0065398885446</v>
+        <v>16.0065398885444</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.86793811235778</v>
+        <v>28.86793811235779</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>57.24726989518882</v>
+        <v>57.24726989518864</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>56.3639416888664</v>
+        <v>56.36394168886649</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>7.101073440458727</v>
+        <v>7.101073440458745</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>50.62232338293821</v>
+        <v>50.62232338293811</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>55.29264552274004</v>
+        <v>55.29264552273983</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>9.570332705518652</v>
+        <v>9.570332705518592</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>77.74140850429316</v>
+        <v>77.74140850429319</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>80.049348979131</v>
+        <v>80.04934897913074</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>71.78244154329435</v>
+        <v>71.78244154329433</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>83.2216222609014</v>
+        <v>83.22162226090146</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>85.78153531904857</v>
+        <v>85.78153531904864</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>31.35580836520854</v>
+        <v>31.35580836520837</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>86.29121313735661</v>
+        <v>86.29121313735644</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>86.28815664502459</v>
+        <v>86.2881566450244</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.38601036012942</v>
+        <v>29.38601036012949</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>57.82510270051581</v>
+        <v>57.82510270051563</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>59.09671662749926</v>
+        <v>59.09671662749927</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>7.349108745573297</v>
+        <v>7.349108745573158</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>54.24119942257684</v>
+        <v>54.24119942257688</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>58.8947615498475</v>
+        <v>58.89476154984745</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>10.55253398012804</v>
+        <v>10.55253398012794</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>83.30289483844246</v>
+        <v>83.3028948384423</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>85.82344060773343</v>
+        <v>85.82344060773315</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>88.94494311836351</v>
+        <v>88.94494311836334</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>98.18871060505879</v>
+        <v>98.1887106050587</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>99.20962070363441</v>
+        <v>99.20962070363427</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.15534756058594</v>
+        <v>32.15534756058609</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>95.00277893648962</v>
+        <v>95.00277893648956</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>92.97183278584957</v>
+        <v>92.97183278584976</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>11.41296649257999</v>
+        <v>11.41296649258001</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>10.09122210228914</v>
+        <v>10.09122210228933</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>13.63332706352073</v>
+        <v>13.63332706352083</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-2.705965289939837</v>
+        <v>-2.705965289939787</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>14.21353569285723</v>
+        <v>14.21353569285732</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>15.59506761179921</v>
+        <v>15.59506761179914</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-0.6320428508365197</v>
+        <v>-0.6320428508365055</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>23.87852565333372</v>
+        <v>23.87852565333358</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.4094961812765</v>
+        <v>23.40949618127647</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>31.85034624227638</v>
+        <v>31.85034624227636</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>39.20380848928146</v>
+        <v>39.20380848928158</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>39.89478388723789</v>
+        <v>39.89478388723803</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>13.25396582372914</v>
+        <v>13.25396582372923</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>24.58245708311243</v>
+        <v>24.58245708311257</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>22.29773115643015</v>
+        <v>22.29773115643013</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>14.49407274215171</v>
+        <v>14.49407274215167</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>32.7504275585079</v>
+        <v>32.75042755850777</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>39.26881041902601</v>
+        <v>39.26881041902597</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>2.714538057949966</v>
+        <v>2.714538057949998</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.84626062190986</v>
+        <v>30.84626062190979</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>41.4011060605178</v>
+        <v>41.40110606051775</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>6.443706532151143</v>
+        <v>6.443706532151058</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>51.30526439834024</v>
+        <v>51.30526439834026</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>61.80423400389748</v>
+        <v>61.80423400389735</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>50.24478588927835</v>
+        <v>50.24478588927853</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>60.92034252211157</v>
+        <v>60.92034252211142</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>65.4366113083896</v>
+        <v>65.43661130838947</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>17.07529181336863</v>
+        <v>17.07529181336869</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>61.21058334885247</v>
+        <v>61.21058334885229</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>63.90062720031521</v>
+        <v>63.90062720031528</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>20.98016404492807</v>
+        <v>20.9801640449281</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>41.31716428881836</v>
+        <v>41.31716428881829</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>47.70974773266761</v>
+        <v>47.70974773266757</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>8.823108420144642</v>
+        <v>8.823108420144617</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>46.07683809918869</v>
+        <v>46.07683809918854</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>55.7415651662366</v>
+        <v>55.74156516623665</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>12.96984431177819</v>
+        <v>12.96984431177825</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>72.39963033007277</v>
+        <v>72.39963033007291</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>76.02723873256554</v>
+        <v>76.02723873256571</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>83.2049002470346</v>
+        <v>83.20490024703471</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>90.7809988776857</v>
+        <v>90.78099887768562</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>91.38136056684522</v>
+        <v>91.3813605668451</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>38.18587389953197</v>
+        <v>38.18587389953201</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>90.88808053903287</v>
+        <v>90.88808053903276</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>92.96100837876723</v>
+        <v>92.96100837876732</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>12.4087684165399</v>
+        <v>12.40876841653991</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>15.18459076557814</v>
+        <v>15.1845907655781</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>13.94129767537968</v>
+        <v>13.9412976753796</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-2.174536195168479</v>
+        <v>-2.174536195168493</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>15.66942557351368</v>
+        <v>15.66942557351381</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>16.12501946077003</v>
+        <v>16.12501946077013</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-1.573604182306635</v>
+        <v>-1.573604182306529</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>19.8158071959562</v>
+        <v>19.8158071959563</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>17.5636702963385</v>
+        <v>17.56367029633879</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>21.40844336121518</v>
+        <v>21.40844336121508</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>27.77445810728286</v>
+        <v>27.77445810728303</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>26.57401278243928</v>
+        <v>26.57401278243922</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>6.218445666931512</v>
+        <v>6.218445666931515</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>17.66032811063434</v>
+        <v>17.66032811063424</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>15.76322785271931</v>
+        <v>15.76322785271935</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>3.213176357253914</v>
+        <v>3.213176357253957</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>8.7916718217779</v>
+        <v>8.791671821777978</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>14.18320494619979</v>
+        <v>14.18320494619982</v>
       </c>
     </row>
     <row r="334">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>8.91003890778229</v>
+        <v>8.910038907782415</v>
       </c>
     </row>
     <row r="336">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-5.472811007653952</v>
+        <v>-5.472811007653853</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>19.12257827826586</v>
+        <v>19.12257827826598</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>31.61172692292716</v>
+        <v>31.61172692292719</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>19.3048722911451</v>
+        <v>19.30487229114508</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>35.63869016675822</v>
+        <v>35.63869016675828</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>45.31293942253715</v>
+        <v>45.3129394225376</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>2.378415622581031</v>
+        <v>2.378415622581009</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>26.28668923472475</v>
+        <v>26.28668923472489</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>23.98876779876368</v>
+        <v>23.98876779876343</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>5.942308020302939</v>
+        <v>5.942308020303059</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>16.27581907952029</v>
+        <v>16.27581907952026</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.13627647368891</v>
+        <v>32.13627647368881</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-4.036353540077936</v>
+        <v>-4.036353540077851</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>19.21623833114844</v>
+        <v>19.21623833114847</v>
       </c>
     </row>
     <row r="351">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-3.790354607645938</v>
+        <v>-3.790354607645959</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>34.12599759896212</v>
+        <v>34.12599759896211</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>60.21370627956352</v>
+        <v>60.21370627956335</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>42.27683935097356</v>
+        <v>42.27683935097355</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>58.65284192569608</v>
+        <v>58.65284192569602</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>79.2711432093526</v>
+        <v>79.2711432093528</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>5.738583098773645</v>
+        <v>5.738583098773667</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>47.01915275341619</v>
+        <v>47.01915275341639</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>53.98597414231713</v>
+        <v>53.98597414231735</v>
       </c>
     </row>
     <row r="361">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>40.72933445767529</v>
+        <v>40.72933445767535</v>
       </c>
     </row>
     <row r="364">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>51.48571091667931</v>
+        <v>51.4857109166793</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>51.12622576404755</v>
+        <v>51.12622576404763</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>11.18807480946749</v>
+        <v>11.18807480946738</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>73.86013288613054</v>
+        <v>73.86013288613057</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>72.97426048497287</v>
+        <v>72.97426048497299</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>73.81075011846769</v>
+        <v>73.81075011846748</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>80.79659963714195</v>
+        <v>80.79659963714184</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>79.66913673712293</v>
+        <v>79.66913673712287</v>
       </c>
     </row>
     <row r="373">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>69.17076964654196</v>
+        <v>69.17076964654183</v>
       </c>
     </row>
     <row r="375">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>21.16163628466067</v>
+        <v>21.16163628466063</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>39.89299415553366</v>
+        <v>39.89299415553368</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>41.51130997091592</v>
+        <v>41.51130997091608</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>3.750437924697604</v>
+        <v>3.750437924697543</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>39.83708482214411</v>
+        <v>39.83708482214406</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>42.61105770394965</v>
+        <v>42.61105770394978</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>8.080969206435984</v>
+        <v>8.080969206435853</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>64.30384650928747</v>
+        <v>64.30384650928734</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>68.94600337527163</v>
+        <v>68.94600337527146</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>61.56806547246293</v>
+        <v>61.56806547246286</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>68.4578845904276</v>
+        <v>68.45788459042737</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>68.11523889265331</v>
+        <v>68.11523889265322</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>31.8467178486835</v>
+        <v>31.84671784868344</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>74.70681321763182</v>
+        <v>74.70681321763176</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>71.05835500527607</v>
+        <v>71.0583550052761</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>23.04276372915207</v>
+        <v>23.04276372915212</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>41.65844337466951</v>
+        <v>41.65844337466938</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>45.5062819521893</v>
+        <v>45.50628195218934</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>7.273194454123317</v>
+        <v>7.273194454123331</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>50.28460179312993</v>
+        <v>50.28460179312984</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>53.18320525687481</v>
+        <v>53.1832052568748</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>10.84191901149913</v>
+        <v>10.84191901149916</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>78.05640470504206</v>
+        <v>78.05640470504194</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>80.3320345667709</v>
+        <v>80.33203456677093</v>
       </c>
     </row>
     <row r="400">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>89.0672825591743</v>
+        <v>89.06728255917405</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>89.57658125092578</v>
+        <v>89.57658125092561</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>39.22847852072786</v>
+        <v>39.22847852072769</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>90.71610710828023</v>
+        <v>90.71610710828001</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>90.38446711738473</v>
+        <v>90.38446711738467</v>
       </c>
     </row>
     <row r="406">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>13.17509340341091</v>
+        <v>13.17509340341094</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>14.77813455981958</v>
+        <v>14.77813455981951</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-2.308684796865119</v>
+        <v>-2.308684796865169</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>10.66829761339331</v>
+        <v>10.66829761339325</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>14.36664557217516</v>
+        <v>14.366645572175</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-1.110286482200561</v>
+        <v>-1.110286482200596</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.25697333413744</v>
+        <v>21.25697333413754</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.93299438758368</v>
+        <v>22.93299438758379</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>25.47182359761389</v>
+        <v>25.47182359761391</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>30.18501557236457</v>
+        <v>30.1850155723646</v>
       </c>
     </row>
     <row r="417">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>2.707630689621055</v>
+        <v>2.707630689621084</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>21.10406815525816</v>
+        <v>21.10406815525803</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>23.71543894043945</v>
+        <v>23.71543894043952</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>8.220687548634778</v>
+        <v>8.220687548634832</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.77344629470227</v>
+        <v>26.77344629470225</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>31.89537750281792</v>
+        <v>31.89537750281778</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>3.316968483292069</v>
+        <v>3.316968483291959</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>24.82182329641912</v>
+        <v>24.8218232964191</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>33.81351098610122</v>
+        <v>33.81351098610135</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>5.709735402900922</v>
+        <v>5.709735402900943</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>42.31695836430097</v>
+        <v>42.31695836430119</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>52.13856242750173</v>
+        <v>52.13856242750163</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>39.95852793867874</v>
+        <v>39.95852793867884</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>47.22013919272784</v>
+        <v>47.22013919272779</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>51.09997601465101</v>
+        <v>51.09997601465088</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>8.479068699204412</v>
+        <v>8.479068699204383</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>47.23223585883004</v>
+        <v>47.23223585882997</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>53.76310102841079</v>
+        <v>53.76310102841067</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>18.73463378852771</v>
+        <v>18.73463378852775</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>38.31551133145554</v>
+        <v>38.31551133145544</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>44.60314391891749</v>
+        <v>44.60314391891741</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>11.47647249266331</v>
+        <v>11.47647249266323</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>39.989182292045</v>
+        <v>39.98918229204486</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>49.67251868665006</v>
+        <v>49.67251868665005</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>19.46483362080982</v>
+        <v>19.46483362080972</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>63.44760364183259</v>
+        <v>63.44760364183274</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>71.89145535171863</v>
+        <v>71.89145535171841</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>71.20936762400518</v>
+        <v>71.20936762400522</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>78.4747781715394</v>
+        <v>78.47477817153958</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>87.60405017939992</v>
+        <v>87.60405017939966</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.32157824406009</v>
+        <v>28.32157824406033</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>74.04575630524084</v>
+        <v>74.04575630524073</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>80.67503678121624</v>
+        <v>80.67503678121602</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>4.198387653196981</v>
+        <v>4.198387653196932</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>5.959659692461397</v>
+        <v>5.959659692461308</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>6.634235512266262</v>
+        <v>6.634235512266127</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-3.937482270154515</v>
+        <v>-3.937482270154565</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>8.75167518867265</v>
+        <v>8.751675188672763</v>
       </c>
     </row>
     <row r="456">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-11.16818479879425</v>
+        <v>-11.16818479879419</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>11.94436058171138</v>
+        <v>11.94436058171111</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>11.21682444103412</v>
+        <v>11.21682444103425</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>13.80081445652142</v>
+        <v>13.80081445652126</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>18.265142849621</v>
+        <v>18.26514284962093</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>20.5497383567661</v>
+        <v>20.54973835676612</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-3.631329036186376</v>
+        <v>-3.631329036186319</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>7.992351382416601</v>
+        <v>7.992351382416487</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>9.450705007604935</v>
+        <v>9.450705007604899</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.85658815132928</v>
+        <v>19.85658815132926</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>38.40773842008739</v>
+        <v>38.40773842008729</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>41.09032472391574</v>
+        <v>41.09032472391571</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>6.595305475814818</v>
+        <v>6.59530547581484</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>37.01087832663342</v>
+        <v>37.01087832663308</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>45.01202264312606</v>
+        <v>45.01202264312602</v>
       </c>
     </row>
     <row r="472">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>56.7786701217919</v>
+        <v>56.77867012179171</v>
       </c>
     </row>
     <row r="474">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>55.71769810331188</v>
+        <v>55.71769810331182</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>64.55192321779714</v>
+        <v>64.55192321779694</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>66.01941122438204</v>
+        <v>66.01941122438191</v>
       </c>
     </row>
     <row r="478">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>65.34095865700959</v>
+        <v>65.34095865700937</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>65.60065292060577</v>
+        <v>65.60065292060574</v>
       </c>
     </row>
     <row r="481">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>47.58063305312201</v>
+        <v>47.580633053122</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>50.2871755706298</v>
+        <v>50.28717557062966</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>8.785308334870408</v>
+        <v>8.7853083348704</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>53.02347869640539</v>
+        <v>53.02347869640543</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>57.79603194696204</v>
+        <v>57.79603194696205</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>9.525773998523448</v>
+        <v>9.525773998523498</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>74.90984574627112</v>
+        <v>74.90984574627092</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>78.4658756696</v>
+        <v>78.46587566960005</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>87.30287400948561</v>
+        <v>87.30287400948549</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>94.83963909218269</v>
+        <v>94.83963909218259</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>94.3926412195416</v>
+        <v>94.39264121954142</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.55705247816222</v>
+        <v>29.55705247816217</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>90.70283721080176</v>
+        <v>90.70283721080136</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>86.37470589192009</v>
+        <v>86.37470589192</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>10.74429394472548</v>
+        <v>10.74429394472557</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>15.67022151068753</v>
+        <v>15.67022151068758</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>15.85096210264523</v>
+        <v>15.85096210264541</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-1.507817973359021</v>
+        <v>-1.507817973359</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>14.78033475464185</v>
+        <v>14.78033475464189</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>16.76584375075253</v>
+        <v>16.76584375075266</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>0.6087733981293439</v>
+        <v>0.6087733981294008</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.09447557965224</v>
+        <v>25.09447557965193</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.93982497461617</v>
+        <v>22.93982497461615</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.99546167968038</v>
+        <v>26.99546167968028</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>33.0340937325896</v>
+        <v>33.03409373258965</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.31269420409904</v>
+        <v>36.31269420409888</v>
       </c>
     </row>
     <row r="508">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>27.27867391675769</v>
+        <v>27.27867391675758</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.59838665560834</v>
+        <v>29.59838665560833</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>5.209906154100093</v>
+        <v>5.209906154100029</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>12.80010866703759</v>
+        <v>12.80010866703766</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>22.93096254575646</v>
+        <v>22.93096254575649</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-3.350470382077461</v>
+        <v>-3.350470382077443</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>11.38640394435152</v>
+        <v>11.38640394435153</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>25.12366727204704</v>
+        <v>25.12366727204713</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-1.916787658998029</v>
+        <v>-1.916787658997894</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>20.96086883850407</v>
+        <v>20.96086883850417</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>40.97062147103064</v>
+        <v>40.97062147103062</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>18.71342954432451</v>
+        <v>18.71342954432467</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>31.56963725169946</v>
+        <v>31.5696372516994</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>38.62929945045666</v>
+        <v>38.62929945045673</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>5.005284992963993</v>
+        <v>5.005284992964079</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.50496685353212</v>
+        <v>28.5049668535321</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>37.22426701142496</v>
+        <v>37.22426701142469</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>19.68541885203073</v>
+        <v>19.68541885203071</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>32.63182060198838</v>
+        <v>32.63182060198829</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>37.61089534585966</v>
+        <v>37.61089534585957</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>3.473591332492006</v>
+        <v>3.473591332491992</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>30.52478649819968</v>
+        <v>30.52478649819966</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>38.44064181092203</v>
+        <v>38.44064181092197</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>9.813376327214897</v>
+        <v>9.81337632721484</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>52.58376757848973</v>
+        <v>52.58376757848983</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>60.09831544808289</v>
+        <v>60.09831544808293</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>58.36813793620848</v>
+        <v>58.36813793620859</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>66.62045732658751</v>
+        <v>66.62045732658757</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>69.98699896125993</v>
+        <v>69.98699896126013</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>33.57108425496293</v>
+        <v>33.57108425496307</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>62.43068514047781</v>
+        <v>62.43068514047769</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>65.20392365886794</v>
+        <v>65.20392365886781</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>2.893029712598974</v>
+        <v>2.893029712598953</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>4.530618239540068</v>
+        <v>4.53061823954004</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>3.591694693608705</v>
+        <v>3.591694693608698</v>
       </c>
     </row>
     <row r="544">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>2.073525887342509</v>
+        <v>2.073525887342473</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>4.785202486237331</v>
+        <v>4.785202486237353</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-5.162466480966081</v>
+        <v>-5.162466480966039</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>5.836574506069102</v>
+        <v>5.836574506069137</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>5.007755205799846</v>
+        <v>5.00775520579986</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>7.379134463534267</v>
+        <v>7.379134463534385</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>7.99379791564882</v>
+        <v>7.993797915648791</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>11.53017983674724</v>
+        <v>11.53017983674719</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>2.626666545429693</v>
+        <v>2.626666545429593</v>
       </c>
     </row>
     <row r="554">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>11.3695966337673</v>
+        <v>11.36959663376721</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>0.101673995103269</v>
+        <v>0.1016739951033152</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>4.047486202939922</v>
+        <v>4.047486202939975</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>5.719120503334995</v>
+        <v>5.719120503335017</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-4.729964713980294</v>
+        <v>-4.729964713980216</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>3.528453519766689</v>
+        <v>3.528453519766611</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.38789363724465</v>
+        <v>10.38789363724473</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-4.324579016850702</v>
+        <v>-4.324579016850745</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>8.121900968591415</v>
+        <v>8.12190096859149</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>14.49301481492521</v>
+        <v>14.49301481492528</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>6.638907149519845</v>
+        <v>6.638907149520008</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>9.806482332019677</v>
+        <v>9.806482332019485</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>12.61473577311259</v>
+        <v>12.61473577311263</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-4.204980463546818</v>
+        <v>-4.204980463546761</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>10.19567581202766</v>
+        <v>10.19567581202765</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>12.07735011200685</v>
+        <v>12.07735011200719</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>17.54048000859182</v>
+        <v>17.54048000859192</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>23.14990021123349</v>
+        <v>23.14990021123351</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.52218171815301</v>
+        <v>25.52218171815305</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>3.615021635097392</v>
+        <v>3.615021635097467</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>21.07166850332845</v>
+        <v>21.07166850332838</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.01981284337807</v>
+        <v>28.019812843378</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>9.594046570491578</v>
+        <v>9.594046570491713</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>36.11118229627406</v>
+        <v>36.111182296274</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>39.35190170071981</v>
+        <v>39.35190170071964</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>45.47702321049037</v>
+        <v>45.47702321049029</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>45.92571309303433</v>
+        <v>45.9257130930343</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>50.12838728790709</v>
+        <v>50.12838728790717</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>25.8278108890369</v>
+        <v>25.82781088903693</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>40.23723018981843</v>
+        <v>40.23723018981887</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>44.13133930008674</v>
+        <v>44.13133930008663</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>21.94749374138915</v>
+        <v>21.94749374138912</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>33.7093499309245</v>
+        <v>33.7093499309246</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>34.99968133232409</v>
+        <v>34.99968133232411</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>3.288196310303469</v>
+        <v>3.288196310303505</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>30.99252496234135</v>
+        <v>30.99252496234131</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>34.65922085469006</v>
+        <v>34.65922085469023</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>9.307868109453977</v>
+        <v>9.307868109454059</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>46.60748928197484</v>
+        <v>46.60748928197485</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>48.40741228812768</v>
+        <v>48.40741228812747</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>51.24237445687176</v>
+        <v>51.24237445687172</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>62.098261476526</v>
+        <v>62.09826147652613</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>65.03531157551163</v>
+        <v>65.03531157551171</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>33.7486483980867</v>
+        <v>33.74864839808655</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>60.1742564014254</v>
+        <v>60.17425640142553</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>62.97046219470973</v>
+        <v>62.97046219470969</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>13.4397077715297</v>
+        <v>13.43970777152967</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.02172691397682</v>
+        <v>26.02172691397689</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.09949458525488</v>
+        <v>29.09949458525482</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-3.123724765653293</v>
+        <v>-3.123724765653257</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>21.08108645839257</v>
+        <v>21.08108645839274</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>27.76257571595922</v>
+        <v>27.7625757159594</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>1.088861062387029</v>
+        <v>1.088861062387032</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>40.52118818714632</v>
+        <v>40.52118818714641</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>46.79320833770512</v>
+        <v>46.79320833770498</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>43.89357154416937</v>
+        <v>43.89357154416922</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>50.75320596768588</v>
+        <v>50.75320596768604</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>51.54787585844717</v>
+        <v>51.54787585844676</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>23.33947058845596</v>
+        <v>23.33947058845584</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>58.0747616845711</v>
+        <v>58.07476168457133</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>59.78040565503079</v>
+        <v>59.78040565503113</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.15187756586669</v>
+        <v>28.1518775658666</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>43.41445075820191</v>
+        <v>43.41445075820187</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>49.44243719003819</v>
+        <v>49.44243719003811</v>
       </c>
     </row>
     <row r="619">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>39.39966848763095</v>
+        <v>39.39966848763103</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>46.77563453934368</v>
+        <v>46.77563453934373</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>14.22169540105361</v>
+        <v>14.22169540105369</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>68.8112231846047</v>
+        <v>68.81122318460478</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>72.75500971898683</v>
+        <v>72.75500971898676</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>87.86532663845361</v>
+        <v>87.86532663845372</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>87.81828331057588</v>
+        <v>87.81828331057608</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>89.17761387607138</v>
+        <v>89.17761387607152</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>41.61912717912013</v>
+        <v>41.61912717912023</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>84.3922171009948</v>
+        <v>84.39221710099466</v>
       </c>
     </row>
     <row r="630">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>17.18704197476453</v>
+        <v>17.18704197476445</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>39.37965292530843</v>
+        <v>39.37965292530832</v>
       </c>
     </row>
     <row r="633">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>8.681154654984834</v>
+        <v>8.681154654984791</v>
       </c>
     </row>
     <row r="635">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>47.46737739720716</v>
+        <v>47.46737739720717</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>10.25622985285904</v>
+        <v>10.25622985285905</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>64.31702196960444</v>
+        <v>64.3170219696045</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>64.57429038148258</v>
+        <v>64.57429038148256</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>71.28288523808908</v>
+        <v>71.28288523808902</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>78.27264095738845</v>
+        <v>78.27264095738857</v>
       </c>
     </row>
     <row r="642">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>70.04511289699732</v>
+        <v>70.0451128969973</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>71.46458736074459</v>
+        <v>71.46458736074453</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>16.12244551440375</v>
+        <v>16.12244551440381</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>37.64575608776296</v>
+        <v>37.64575608776302</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>42.0085427847484</v>
+        <v>42.0085427847485</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>6.231189908408123</v>
+        <v>6.231189908408169</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>36.06922414182991</v>
+        <v>36.06922414182969</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>42.99647718682306</v>
+        <v>42.99647718682304</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>7.373194078699406</v>
+        <v>7.373194078699544</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>54.96482212904719</v>
+        <v>54.96482212904708</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>65.42831306299338</v>
+        <v>65.42831306299317</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>55.70911873541439</v>
+        <v>55.70911873541452</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>64.0728546176409</v>
+        <v>64.07285461764079</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>63.21654166210521</v>
+        <v>63.21654166210514</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>17.12733269525076</v>
+        <v>17.12733269525074</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>65.55629092369227</v>
+        <v>65.55629092369213</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>70.10405514638157</v>
+        <v>70.10405514638127</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>18.53518655537983</v>
+        <v>18.53518655537987</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>43.62625744711295</v>
+        <v>43.62625744711296</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>48.52729945307702</v>
+        <v>48.52729945307701</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>5.88874698449272</v>
+        <v>5.888746984492528</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>45.78869254510936</v>
+        <v>45.78869254510946</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>52.20919840113816</v>
+        <v>52.20919840113798</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>7.283017159271395</v>
+        <v>7.283017159271431</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>67.01380960938616</v>
+        <v>67.01380960938599</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>76.41040480336491</v>
+        <v>76.41040480336486</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>82.12191865565268</v>
+        <v>82.12191865565251</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>88.49583095877006</v>
+        <v>88.49583095876997</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>93.62998842659833</v>
+        <v>93.6299884265985</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>24.47713225975279</v>
+        <v>24.47713225975281</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>82.76517077324928</v>
+        <v>82.76517077324921</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>88.61667017985802</v>
+        <v>88.61667017985789</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>23.91171010091339</v>
+        <v>23.91171010091346</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>37.41161325866258</v>
+        <v>37.41161325866273</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>41.27634424424688</v>
+        <v>41.27634424424704</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>6.537415087520678</v>
+        <v>6.537415087520664</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>49.66281530542923</v>
+        <v>49.66281530542915</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>50.22073196018469</v>
+        <v>50.22073196018482</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>11.11552837168971</v>
+        <v>11.1155283716897</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>67.10289579556022</v>
+        <v>67.10289579556007</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>66.14462657773645</v>
+        <v>66.14462657773635</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>64.57342148415151</v>
+        <v>64.57342148415128</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>69.56976149295754</v>
+        <v>69.56976149295753</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>68.669093535633</v>
+        <v>68.6690935356329</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>32.3091390632176</v>
+        <v>32.30913906321764</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>59.87287839311062</v>
+        <v>59.87287839311058</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>72.91722339565679</v>
+        <v>72.9172233956568</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>24.42004976062902</v>
+        <v>24.42004976062906</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>40.38340777208839</v>
+        <v>40.38340777208845</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>42.4216471920363</v>
+        <v>42.42164719203642</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>3.401653752187833</v>
+        <v>3.401653752187819</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>38.17894306117867</v>
+        <v>38.1789430611787</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>44.58124292196278</v>
+        <v>44.58124292196299</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>6.379257828330427</v>
+        <v>6.379257828330264</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>62.18421444647427</v>
+        <v>62.18421444647444</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>71.20932922239224</v>
+        <v>71.20932922239214</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>62.81230090182027</v>
+        <v>62.81230090182015</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>69.36643440867121</v>
+        <v>69.36643440867147</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>70.23352276351832</v>
+        <v>70.23352276351855</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>27.93647999672345</v>
+        <v>27.93647999672328</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>76.24404625505477</v>
+        <v>76.24404625505437</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>78.02876906985719</v>
+        <v>78.02876906985679</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>27.91736026052016</v>
+        <v>27.91736026052018</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>47.38671509405893</v>
+        <v>47.38671509405887</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>49.13470007784461</v>
+        <v>49.13470007784453</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>5.344908396199259</v>
+        <v>5.344908396199344</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>46.13926518489598</v>
+        <v>46.13926518489599</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>51.22709109609578</v>
+        <v>51.22709109609569</v>
       </c>
     </row>
     <row r="712">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>76.03676380663774</v>
+        <v>76.03676380663779</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>78.92332874146669</v>
+        <v>78.92332874146692</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>91.1447938872648</v>
+        <v>91.14479388726498</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>93.21237375102554</v>
+        <v>93.21237375102559</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>94.67277664316492</v>
+        <v>94.67277664316491</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.93018632873946</v>
+        <v>29.93018632873966</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>89.9451335381689</v>
+        <v>89.94513353816926</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>91.924448597489</v>
+        <v>91.9244485974892</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.79465251217368</v>
+        <v>25.79465251217377</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>36.29941050569322</v>
+        <v>36.29941050569329</v>
       </c>
     </row>
     <row r="723">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>59.22513241672612</v>
+        <v>59.22513241672625</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>59.37398245450272</v>
+        <v>59.37398245450296</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>14.63488022947343</v>
+        <v>14.6348802294734</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>62.42314425321931</v>
+        <v>62.42314425321929</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>60.89592548987126</v>
+        <v>60.89592548987112</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>62.79848323986745</v>
+        <v>62.79848323986728</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>72.55893351410575</v>
+        <v>72.55893351410589</v>
       </c>
     </row>
     <row r="732">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>41.06730381010863</v>
+        <v>41.0673038101087</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>55.8745362903122</v>
+        <v>55.87453629031225</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>68.21320742166097</v>
+        <v>68.21320742166083</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>24.52557193491316</v>
+        <v>24.52557193491329</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>36.49078377046777</v>
+        <v>36.49078377046781</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>42.4782543054376</v>
+        <v>42.47825430543784</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.46054768588008</v>
+        <v>29.46054768588028</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>54.76841369115679</v>
+        <v>54.76841369115664</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>61.73396111187279</v>
+        <v>61.73396111187285</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>10.3327755299898</v>
+        <v>10.33277552998977</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>58.28124594462565</v>
+        <v>58.28124594462556</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>69.63883565780745</v>
+        <v>69.63883565780746</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>58.43640624141544</v>
+        <v>58.43640624141533</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>68.65789575707754</v>
+        <v>68.65789575707751</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>67.66132292853587</v>
+        <v>67.66132292853595</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>33.38807500799383</v>
+        <v>33.38807500799371</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>71.73248556462778</v>
+        <v>71.7324855646274</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>75.91049006186569</v>
+        <v>75.91049006186557</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>31.47102767754055</v>
+        <v>31.47102767754046</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>47.62405940622127</v>
+        <v>47.62405940622136</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>49.05446238252078</v>
+        <v>49.05446238252109</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>34.46368745729738</v>
+        <v>34.46368745729765</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>65.31739085118039</v>
+        <v>65.31739085118031</v>
       </c>
     </row>
     <row r="756">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>12.46130224289197</v>
+        <v>12.46130224289214</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>74.0370337872663</v>
+        <v>74.03703378726605</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>78.39268341170083</v>
+        <v>78.39268341170076</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>92.86886540088351</v>
+        <v>92.86886540088364</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>92.9019368119444</v>
+        <v>92.90193681194442</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>97.30042520057562</v>
+        <v>97.30042520057582</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>42.32427258253838</v>
+        <v>42.32427258253847</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>91.73991516512228</v>
+        <v>91.73991516512216</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>94.91485411711967</v>
+        <v>94.91485411711966</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>19.41696590371735</v>
+        <v>19.41696590371742</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>40.03006841142147</v>
+        <v>40.03006841142142</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>44.58044881563205</v>
+        <v>44.58044881563217</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>5.955497212874</v>
+        <v>5.955497212874096</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>39.76375805677548</v>
+        <v>39.76375805677536</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>45.47341063681377</v>
+        <v>45.47341063681374</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>6.244746958716565</v>
+        <v>6.244746958716526</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>61.36477622023143</v>
+        <v>61.36477622023148</v>
       </c>
     </row>
     <row r="774">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>69.55359160341321</v>
+        <v>69.55359160341324</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>76.92932679163715</v>
+        <v>76.92932679163729</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>79.46065368487099</v>
+        <v>79.46065368487105</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>13.52800705919736</v>
+        <v>13.52800705919742</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>70.43708510436224</v>
+        <v>70.4370851043621</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>72.99315898003361</v>
+        <v>72.99315898003383</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>15.77989632527107</v>
+        <v>15.77989632527103</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>37.86708311277334</v>
+        <v>37.86708311277333</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>39.50107779313429</v>
+        <v>39.50107779313431</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>1.893934174812632</v>
+        <v>1.893934174812621</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>35.02490101343939</v>
+        <v>35.02490101343931</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>40.48076131084364</v>
+        <v>40.4807613108435</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>2.771768803862251</v>
+        <v>2.771768803862237</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>56.05999877603379</v>
+        <v>56.05999877603346</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>63.65720369415711</v>
+        <v>63.65720369415691</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>56.99340119685519</v>
+        <v>56.99340119685525</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>63.97400363333831</v>
+        <v>63.97400363333833</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>64.11423999995674</v>
+        <v>64.1142399999566</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>10.90190310316494</v>
+        <v>10.90190310316483</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>61.04773807571146</v>
+        <v>61.04773807571167</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>67.56701889100873</v>
+        <v>67.56701889100887</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>16.10234350609396</v>
+        <v>16.10234350609401</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>42.21277345375606</v>
+        <v>42.21277345375581</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>45.83427272339586</v>
+        <v>45.83427272339608</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>2.343215064099734</v>
+        <v>2.343215064099851</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>46.40902668802988</v>
+        <v>46.40902668802994</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>51.24018973599673</v>
+        <v>51.24018973599661</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>3.668485536727516</v>
+        <v>3.668485536727577</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>68.46720164340218</v>
+        <v>68.46720164340198</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>75.0671319512324</v>
+        <v>75.0671319512322</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>82.84524014174036</v>
+        <v>82.84524014174038</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>88.03222784463762</v>
+        <v>88.0322278446376</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>93.93485073649461</v>
+        <v>93.9348507364945</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>12.05344274970346</v>
+        <v>12.05344274970329</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>81.56395492160604</v>
+        <v>81.56395492160597</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>88.36913549681661</v>
+        <v>88.36913549681697</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>14.96015660064694</v>
+        <v>14.96015660064708</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>19.48423078589973</v>
+        <v>19.48423078589974</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>19.66548940444046</v>
+        <v>19.6654894044404</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>0.9479294562511384</v>
+        <v>0.9479294562510319</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>20.29849568332712</v>
+        <v>20.29849568332711</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>21.34326571415555</v>
+        <v>21.34326571415551</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>3.64431601775377</v>
+        <v>3.644316017753741</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.3174655993683</v>
+        <v>30.3174655993684</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.5550666497944</v>
+        <v>29.55506664979421</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>34.94454603934678</v>
+        <v>34.94454603934676</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>39.309778578025</v>
+        <v>39.30977857802515</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>42.26911989604648</v>
+        <v>42.26911989604642</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>17.1947710426899</v>
+        <v>17.19477104268986</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.31492121829518</v>
+        <v>28.31492121829528</v>
       </c>
     </row>
     <row r="825">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>14.04484722644159</v>
+        <v>14.04484722644176</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>33.057205261906</v>
+        <v>33.05720526190573</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>37.8537135273976</v>
+        <v>37.85371352739756</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>3.946960181999877</v>
+        <v>3.946960181999849</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>32.47056957315512</v>
+        <v>32.47056957315522</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>40.99850405359517</v>
+        <v>40.99850405359523</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>7.966034042318757</v>
+        <v>7.966034042318924</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>53.06942900837969</v>
+        <v>53.06942900837934</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>62.44188866951133</v>
+        <v>62.44188866951103</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>52.03259977743668</v>
+        <v>52.03259977743662</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>56.93717245931549</v>
+        <v>56.93717245931554</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>65.39799581815717</v>
+        <v>65.3979958181572</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>14.18502870988118</v>
+        <v>14.18502870988119</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>57.84702157289431</v>
+        <v>57.84702157289408</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>64.08085892335441</v>
+        <v>64.08085892335433</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>22.35314157292604</v>
+        <v>22.35314157292623</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>43.19186575505162</v>
+        <v>43.19186575505152</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>49.45457555995362</v>
+        <v>49.4545755599535</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>9.625835034790168</v>
+        <v>9.625835034790008</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>44.36394386986006</v>
+        <v>44.36394386986021</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>53.84008450573018</v>
+        <v>53.84008450573005</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>17.74890026765912</v>
+        <v>17.7489002676592</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>70.58989861754091</v>
+        <v>70.589898617541</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>78.6041131420547</v>
+        <v>78.60411314205493</v>
       </c>
     </row>
     <row r="850">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>78.13148419778477</v>
+        <v>78.13148419778486</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>89.72042942826886</v>
+        <v>89.72042942826842</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>33.2534807366066</v>
+        <v>33.25348073660668</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>78.35672437790477</v>
+        <v>78.35672437790463</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>89.76406530497241</v>
+        <v>89.76406530497239</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>14.90905319884214</v>
+        <v>14.90905319884221</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>18.81746912686029</v>
+        <v>18.81746912686041</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.32075514161171</v>
+        <v>19.32075514161184</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-1.759427839605124</v>
+        <v>-1.759427839605074</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>24.12351394761038</v>
+        <v>24.12351394761034</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>25.05194562916837</v>
+        <v>25.05194562916821</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>2.092264027449254</v>
+        <v>2.092264027449492</v>
       </c>
     </row>
     <row r="863">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.93182095834715</v>
+        <v>31.93182095834711</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>43.72799045586289</v>
+        <v>43.72799045586284</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>53.65863338881166</v>
+        <v>53.65863338881159</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>55.31457454147856</v>
+        <v>55.31457454147869</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>18.69799965250991</v>
+        <v>18.69799965250983</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>34.16190359217948</v>
+        <v>34.16190359217953</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>41.19702359424394</v>
+        <v>41.19702359424414</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>7.233074353234851</v>
+        <v>7.233074353234752</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>16.83565281929879</v>
+        <v>16.83565281929856</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>32.05937624179006</v>
+        <v>32.05937624179018</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>2.289296582253719</v>
+        <v>2.289296582253471</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>21.7024264092945</v>
+        <v>21.70242640929439</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>42.65652974742414</v>
+        <v>42.65652974742443</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-1.75415259622644</v>
+        <v>-1.754152596226419</v>
       </c>
     </row>
     <row r="878">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>59.70574153337903</v>
+        <v>59.70574153337895</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>41.78293833527846</v>
+        <v>41.78293833527849</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>55.21547791527207</v>
+        <v>55.2154779152722</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>61.23230397934334</v>
+        <v>61.23230397934337</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>11.17063798767996</v>
+        <v>11.17063798767986</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>53.89549007980189</v>
+        <v>53.89549007980199</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>63.08697630831458</v>
+        <v>63.08697630831504</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>20.17917455803691</v>
+        <v>20.1791745580368</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>31.27443833953459</v>
+        <v>31.27443833953458</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>40.5179518911827</v>
+        <v>40.51795189118279</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>7.295768464295559</v>
+        <v>7.295768464295506</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>30.07751184323232</v>
+        <v>30.0775118432326</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>46.89612936492559</v>
+        <v>46.89612936492561</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>2.345484092606501</v>
+        <v>2.345484092606764</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>51.30955131707194</v>
+        <v>51.30955131707211</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>66.48396298516394</v>
+        <v>66.48396298516374</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>77.18012004121289</v>
+        <v>77.18012004121277</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>77.89536315666766</v>
+        <v>77.89536315666783</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>86.3376899170006</v>
+        <v>86.33768991700052</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>23.90049512824069</v>
+        <v>23.90049512824057</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>69.67297946311028</v>
+        <v>69.67297946311011</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>81.36128714165974</v>
+        <v>81.36128714165989</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>22.74826207069219</v>
+        <v>22.74826207069216</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>36.67809937710446</v>
+        <v>36.67809937710442</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>39.81129177516186</v>
+        <v>39.81129177516168</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>7.710916354167626</v>
+        <v>7.710916354167605</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>50.84076601290936</v>
+        <v>50.84076601290938</v>
       </c>
     </row>
     <row r="906">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>13.01343128741993</v>
+        <v>13.01343128741999</v>
       </c>
     </row>
     <row r="908">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>65.84764424496117</v>
+        <v>65.84764424496112</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>65.42137902899108</v>
+        <v>65.42137902899097</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>74.63516468267269</v>
+        <v>74.63516468267258</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>75.88454634792654</v>
+        <v>75.88454634792637</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>42.53863583804735</v>
+        <v>42.53863583804745</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>62.65207233618283</v>
+        <v>62.65207233618263</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>81.24697321874511</v>
+        <v>81.24697321874503</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>27.77341715993283</v>
+        <v>27.77341715993291</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>43.10864212531393</v>
+        <v>43.10864212531366</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>44.75211157535169</v>
+        <v>44.75211157535153</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>7.076448822878156</v>
+        <v>7.076448822878067</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>40.29256492135843</v>
+        <v>40.29256492135823</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>44.22654370263607</v>
+        <v>44.22654370263604</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>9.231667078957486</v>
+        <v>9.231667078957621</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>60.93543567490069</v>
+        <v>60.93543567490064</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>65.32332974853531</v>
+        <v>65.32332974853533</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>61.14865776303415</v>
+        <v>61.14865776303427</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>66.24225173046236</v>
+        <v>66.24225173046229</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>66.67100910089715</v>
+        <v>66.67100910089698</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>30.83671040715154</v>
+        <v>30.83671040715144</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>70.65261079241712</v>
+        <v>70.65261079241702</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>71.65777208686025</v>
+        <v>71.65777208686055</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>27.18894913939833</v>
+        <v>27.18894913939836</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>46.062508179988</v>
+        <v>46.06250817998792</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>47.83704786701966</v>
+        <v>47.83704786701971</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>8.710455650236966</v>
+        <v>8.71045565023671</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>49.88749051680267</v>
+        <v>49.88749051680261</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>52.51776327866297</v>
+        <v>52.51776327866291</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>9.915242550597725</v>
+        <v>9.915242550597736</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>73.70612043928818</v>
+        <v>73.70612043928782</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>76.45911405029943</v>
+        <v>76.45911405029923</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>88.76249862440682</v>
+        <v>88.76249862440662</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>88.01807653907079</v>
+        <v>88.01807653907072</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>89.91784076958257</v>
+        <v>89.91784076958271</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>39.11589375448175</v>
+        <v>39.11589375448195</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>85.89620919005561</v>
+        <v>85.89620919005543</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>88.10881874794161</v>
+        <v>88.10881874794157</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>19.25273426617685</v>
+        <v>19.25273426617679</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>38.65812451613339</v>
+        <v>38.65812451613346</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>41.73657858108152</v>
+        <v>41.73657858108137</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>7.669386887924958</v>
+        <v>7.669386887924908</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>44.28130854860366</v>
+        <v>44.2813085486037</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>45.90873006445268</v>
+        <v>45.90873006445269</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>7.473953328620155</v>
+        <v>7.473953328620283</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>61.10640450581542</v>
+        <v>61.10640450581538</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>62.59887152852612</v>
+        <v>62.59887152852625</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>65.37050366564266</v>
+        <v>65.37050366564262</v>
       </c>
     </row>
     <row r="956">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>76.49233657906468</v>
+        <v>76.4923365790647</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>13.85020153432717</v>
+        <v>13.85020153432726</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>67.62700031562699</v>
+        <v>67.62700031562696</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>71.07797855123006</v>
+        <v>71.07797855123012</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>15.26004775808469</v>
+        <v>15.26004775808475</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>37.44292239193639</v>
+        <v>37.44292239193631</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>38.56660244125722</v>
+        <v>38.56660244125711</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>3.82996917129978</v>
+        <v>3.829969171299805</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>38.07604123084714</v>
+        <v>38.07604123084728</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>42.79911576574363</v>
+        <v>42.79911576574358</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>6.172001144362905</v>
+        <v>6.172001144362834</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>59.07804888124759</v>
+        <v>59.07804888124755</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>67.3503023454636</v>
+        <v>67.3503023454638</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>60.34501022934927</v>
+        <v>60.3450102293492</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>67.87426388063892</v>
+        <v>67.87426388063911</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>66.01178433126425</v>
+        <v>66.01178433126434</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>12.44554826387551</v>
+        <v>12.44554826387533</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>68.99176433531784</v>
+        <v>68.99176433531794</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>69.63908685481607</v>
+        <v>69.6390868548161</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>15.69338908757354</v>
+        <v>15.69338908757341</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>40.87167642065756</v>
+        <v>40.87167642065762</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>43.95179173759814</v>
+        <v>43.9517917375981</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>4.197902210929552</v>
+        <v>4.197902210929652</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>47.3156777538709</v>
+        <v>47.31567775387092</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>51.29609568507824</v>
+        <v>51.29609568507831</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>6.21717661391304</v>
+        <v>6.21717661391294</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>67.24353111174044</v>
+        <v>67.24353111174032</v>
       </c>
     </row>
     <row r="984">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>79.73532847958371</v>
+        <v>79.73532847958373</v>
       </c>
     </row>
     <row r="986">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>91.80617398228418</v>
+        <v>91.80617398228415</v>
       </c>
     </row>
     <row r="988">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>76.90981369303539</v>
+        <v>76.90981369303542</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>83.83978250215893</v>
+        <v>83.83978250215887</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.51</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.013</v>
+        <v>17.366</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.861</v>
+        <v>0.887</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.702</v>
+        <v>9.637</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.963</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.143</v>
+        <v>0.951</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.64384619256344</v>
+        <v>15.78793355768439</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>21.98712567849185</v>
+        <v>19.43252461138889</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.21084377459267</v>
+        <v>17.17152962914781</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.679415797549936</v>
+        <v>3.414529043745823</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.92400404104271</v>
+        <v>18.63964825337251</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.22753474228706</v>
+        <v>22.98891870473495</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.108504194467027</v>
+        <v>7.37261947432485</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33.45761612122132</v>
+        <v>27.83721496489808</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.64804845447375</v>
+        <v>28.28663618571246</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>35.99783520995379</v>
+        <v>29.51185685556029</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>43.68511436271786</v>
+        <v>35.11126819604502</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>44.85382612182772</v>
+        <v>37.19555916271786</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.03412885048137</v>
+        <v>12.30141841254257</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>32.20587193416962</v>
+        <v>27.06925925085419</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35.05070061408431</v>
+        <v>27.13560631405581</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20.3461839762165</v>
+        <v>16.66981071774597</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>38.83810459220845</v>
+        <v>37.72276521040687</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>45.18752383742388</v>
+        <v>41.86085474272797</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.367740659805701</v>
+        <v>3.358552680533094</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>35.95140131511153</v>
+        <v>33.56547283910204</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>47.81869842023534</v>
+        <v>46.05629471068987</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8.639120792582958</v>
+        <v>4.81449636431968</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>61.04992267229509</v>
+        <v>62.18467733835908</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>74.11387290434079</v>
+        <v>75.73164879499609</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>63.44768322942913</v>
+        <v>63.00253119637199</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>74.84229123591183</v>
+        <v>74.03678428778872</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>82.00533737260481</v>
+        <v>77.90916133344189</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.98640785037464</v>
+        <v>16.3397954024256</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>78.98868830895812</v>
+        <v>82.34585439095314</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>85.64080223675498</v>
+        <v>86.96714270584917</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>32.27095430118431</v>
+        <v>29.09297970494853</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>52.49600604357895</v>
+        <v>49.53679358540687</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>55.41910041738769</v>
+        <v>51.52963403777188</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>10.37258004212265</v>
+        <v>5.932459802181928</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>46.09450790848572</v>
+        <v>40.05656673198011</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>54.76352134793986</v>
+        <v>55.24999540194085</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>17.536674840509</v>
+        <v>14.82182021826724</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>80.60558222054131</v>
+        <v>82.03744425175509</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>82.69862922346077</v>
+        <v>81.55806916435607</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>96.80392010778264</v>
+        <v>88.68126341501126</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>102.2358121359348</v>
+        <v>94.56523285050349</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>105.2242445314568</v>
+        <v>97.91701049519709</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>41.94992150212674</v>
+        <v>36.34805515857369</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>102.6697880698798</v>
+        <v>102.2226074910283</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>103.291785197779</v>
+        <v>102.5471784688827</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>8.881581179919397</v>
+        <v>7.660183497685399</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>42.0957989834198</v>
+        <v>46.36622298248718</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.69170739898974</v>
+        <v>42.95000284910134</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.6380210565020477</v>
+        <v>1.973669342263982</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>47.98548428862078</v>
+        <v>44.12336946412819</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>48.45521261422687</v>
+        <v>48.94322106093819</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.781979379584342</v>
+        <v>2.821630749282601</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>70.37632070204197</v>
+        <v>67.71097991495574</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>68.43725519958089</v>
+        <v>65.7262738355643</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>65.64403113090708</v>
+        <v>65.06854891198566</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>73.33641272782468</v>
+        <v>66.49198607880237</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>73.82895392161635</v>
+        <v>67.06448481375794</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>12.48251637880884</v>
+        <v>8.558715800308185</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>66.87077040854042</v>
+        <v>68.09523638082899</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>68.81890882264129</v>
+        <v>69.93189229226167</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.90639956630341</v>
+        <v>9.32757817016476</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>43.21561375996568</v>
+        <v>43.40839612389057</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>48.53368358746471</v>
+        <v>46.04644016945021</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3.840674787620014</v>
+        <v>2.752118059499821</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>42.38872293277063</v>
+        <v>37.87448457805404</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>52.24273352290145</v>
+        <v>47.03799602750698</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6.828728511808716</v>
+        <v>3.665909453790782</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>66.55068129702184</v>
+        <v>66.31835356176595</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>80.59979220495283</v>
+        <v>82.66543116007648</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>65.08347126390791</v>
+        <v>65.06977574616155</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>77.04791424263398</v>
+        <v>76.59647841673825</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>80.08313434411426</v>
+        <v>80.847793012116</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>11.06577189661521</v>
+        <v>6.00942093330497</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>77.55180273933109</v>
+        <v>78.33018664062747</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>82.19983696522638</v>
+        <v>83.16063969072476</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>12.18109697993255</v>
+        <v>9.433084077106294</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>48.85106481313476</v>
+        <v>50.46853284607545</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>51.40278861844728</v>
+        <v>50.23334282783649</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2.533622294804253</v>
+        <v>1.460960589948591</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>52.74293753911294</v>
+        <v>50.18360289419599</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>59.49421585813086</v>
+        <v>57.15884354170261</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6.313172030498656</v>
+        <v>3.153324265172181</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>83.14003242950268</v>
+        <v>83.19557757052138</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>90.09127654665363</v>
+        <v>84.4569227122536</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>91.31854265009936</v>
+        <v>89.64394255949847</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>102.5852143539365</v>
+        <v>97.63281550125274</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>102.2528280415877</v>
+        <v>98.13797731681481</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>16.7770789454889</v>
+        <v>6.580891463940485</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>94.87120935447537</v>
+        <v>94.41955689924258</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>96.00547964877155</v>
+        <v>95.85689510523906</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>27.31688909278211</v>
+        <v>39.03293633156379</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>44.15554561772458</v>
+        <v>44.47525963666085</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>45.32834516856784</v>
+        <v>44.66683794909234</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>7.817989099588321</v>
+        <v>3.964493049244908</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>47.53295388454154</v>
+        <v>46.91022767343405</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>47.94341165552619</v>
+        <v>46.83072534757281</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.015018272219244</v>
+        <v>5.664697761399719</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>69.52287534269709</v>
+        <v>71.88094915167925</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>64.46012153174681</v>
+        <v>66.09314573322715</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>64.92131325752044</v>
+        <v>61.79597655541777</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>77.36639394227512</v>
+        <v>78.30085419851308</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>75.14547072439547</v>
+        <v>76.15215029127754</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.9287282941288</v>
+        <v>31.46168564730488</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>67.89325453882753</v>
+        <v>68.23654759733725</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>67.47069194177607</v>
+        <v>68.31834109425643</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.62310746824581</v>
+        <v>28.92637594044107</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>50.0843075727888</v>
+        <v>45.01694126149641</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>52.66990261078746</v>
+        <v>46.8313302872064</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.698792139537147</v>
+        <v>3.760483576455549</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>47.22242725500094</v>
+        <v>43.21648889233624</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>53.7344016829508</v>
+        <v>47.50149722838332</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>9.782424145072856</v>
+        <v>5.201927974057462</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>72.7960816544888</v>
+        <v>71.68190840951344</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>81.98248793123878</v>
+        <v>83.12857324690545</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>69.25008448220684</v>
+        <v>69.98396514964662</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>82.22891322210863</v>
+        <v>81.91524010085794</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>81.47674638180729</v>
+        <v>81.86914285988667</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>30.05697565563656</v>
+        <v>31.49345237979149</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>79.82433273650147</v>
+        <v>78.48899898234856</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>80.45711065735372</v>
+        <v>81.16350026369314</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>30.89041199508914</v>
+        <v>38.52358679108453</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>55.49780960075938</v>
+        <v>52.02052544930041</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>55.26532364309166</v>
+        <v>50.09752788661778</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>8.526600507517614</v>
+        <v>3.173417318701322</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>58.72792093732031</v>
+        <v>54.03081810012216</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>60.58991586494116</v>
+        <v>53.80362079110365</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>10.82104960646596</v>
+        <v>6.573512848262695</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>86.9315429372047</v>
+        <v>82.10821969963962</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>87.26737304617967</v>
+        <v>79.29309298242759</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>95.85481989717204</v>
+        <v>88.46960904337664</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>100.6768094472407</v>
+        <v>91.7589857695427</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>102.9373081961462</v>
+        <v>94.71093917221701</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>39.29746618304714</v>
+        <v>40.56064827670389</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>99.17081851192907</v>
+        <v>94.41436523854424</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>96.9956520235113</v>
+        <v>92.79214635006632</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>17.51852247546216</v>
+        <v>15.27248131946171</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>23.03740756700913</v>
+        <v>20.1981411254054</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>23.15546970000537</v>
+        <v>18.96295964781561</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-0.5685607640664188</v>
+        <v>2.726428468055403</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>24.02394922829843</v>
+        <v>19.50170075341195</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.33960148198562</v>
+        <v>22.71695305701148</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.442904424251093</v>
+        <v>7.18917350793884</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>33.48801224502412</v>
+        <v>29.09442561749666</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>32.24630487394334</v>
+        <v>28.94064087491279</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>38.81276387410122</v>
+        <v>32.53805818249285</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>43.05708627526938</v>
+        <v>35.53012503444694</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>48.35634634824666</v>
+        <v>40.88879232962913</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>56.75086965673292</v>
+        <v>65.80737638756369</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>68.40853900125555</v>
+        <v>70.84534787694004</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>68.39970816549285</v>
+        <v>67.2673796355943</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>18.56008468433928</v>
+        <v>12.71958733743825</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>41.57358724547914</v>
+        <v>42.61377628921668</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>48.97106875418794</v>
+        <v>45.52605274286192</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6.694171640711691</v>
+        <v>3.502369673453789</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>44.38176494888921</v>
+        <v>45.22192198273358</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>56.33741805081502</v>
+        <v>58.08116708641716</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>16.35081811913305</v>
+        <v>17.39485249821561</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>65.44486484065462</v>
+        <v>69.26894362058735</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>79.15557987266338</v>
+        <v>80.55367864471856</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>63.80009785363963</v>
+        <v>62.70749548726636</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>72.10313074678514</v>
+        <v>73.31237446569995</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>79.43428963975836</v>
+        <v>79.31724918926498</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>30.10864327403424</v>
+        <v>14.64449112627452</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>77.88659382678635</v>
+        <v>76.73024490681726</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>83.13493256393241</v>
+        <v>83.51263026916972</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>30.46652545145095</v>
+        <v>26.63626502634612</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>51.13116215374976</v>
+        <v>51.81751225649711</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>53.38282915813783</v>
+        <v>52.36895080153334</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>10.54897870643102</v>
+        <v>6.622508119112595</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>50.02802440485819</v>
+        <v>49.40958145472165</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>58.26576545467825</v>
+        <v>58.55171149261533</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>19.84693140979887</v>
+        <v>17.81548149627082</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>79.92806033556107</v>
+        <v>78.63812482031219</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>83.00254222966436</v>
+        <v>83.13884431423293</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>88.15851173590504</v>
+        <v>85.04345803715562</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>91.35089884157495</v>
+        <v>89.93550356600646</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>101.1188830295372</v>
+        <v>99.45740278371937</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>44.43330271985498</v>
+        <v>39.38678537840052</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>96.598448217216</v>
+        <v>93.99906888038684</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>98.69063088051888</v>
+        <v>95.19219065357521</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.42196370120111</v>
+        <v>31.68031806151343</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>49.26713467157091</v>
+        <v>53.33749516839548</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>46.68539451759772</v>
+        <v>47.58733544776057</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>8.890584759981092</v>
+        <v>4.180237157910042</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>51.40539986375201</v>
+        <v>54.31965839311448</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>51.57577514715584</v>
+        <v>57.05294150417932</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>14.53083555272593</v>
+        <v>6.908918204318852</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>74.5273508002025</v>
+        <v>82.70236884275566</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>69.25080422636628</v>
+        <v>70.52651409132461</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>58.84991213443328</v>
+        <v>60.45701699032952</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>72.0717759204498</v>
+        <v>78.78168189892887</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>71.372971744164</v>
+        <v>81.19875471112256</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>23.15250309931788</v>
+        <v>18.20845066621368</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>38.57543030290061</v>
+        <v>2.698544524673576</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>38.08866026065091</v>
+        <v>2.671450276028057</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>34.32220547409287</v>
+        <v>37.62879089076357</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>55.21902342947892</v>
+        <v>53.16878684405628</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>53.45469645939183</v>
+        <v>49.25537450984694</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>7.448342560513648</v>
+        <v>4.186246431684442</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>49.12906029119661</v>
+        <v>48.45587123090959</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>55.58451288367922</v>
+        <v>54.52706741069922</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>15.27298220123333</v>
+        <v>13.05817139752761</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>78.04526585282002</v>
+        <v>79.23656989286656</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>82.54882556297451</v>
+        <v>81.35351016320647</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>77.19924194776354</v>
+        <v>78.81179958938229</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>86.25425380088024</v>
+        <v>82.9667649114794</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>88.06101527077578</v>
+        <v>87.20566633041425</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>45.53698448309126</v>
+        <v>48.36578663219333</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>89.84721299822931</v>
+        <v>87.06999819578927</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>38.09120985574439</v>
+        <v>42.05444192994297</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>60.12009024872862</v>
+        <v>53.37320003649042</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>58.14826981362645</v>
+        <v>51.42744792625459</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>8.398943253448355</v>
+        <v>4.565305572811244</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>53.32536726409656</v>
+        <v>54.3254699319593</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>57.32224044699574</v>
+        <v>53.20996936424425</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>13.33516803963652</v>
+        <v>8.670929962893357</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>85.11747311585725</v>
+        <v>84.64667645762165</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>88.1215477930281</v>
+        <v>80.62905078996127</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>97.81555930143482</v>
+        <v>91.20130099820581</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>100.603791217979</v>
+        <v>92.83722393311331</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>104.1917445742852</v>
+        <v>96.32767348075693</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>51.08019599155131</v>
+        <v>62.12756912772983</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>105.1235137384989</v>
+        <v>98.33563483940661</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>103.9800430481889</v>
+        <v>95.71263511986821</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>25.26096689563739</v>
+        <v>28.24413924361563</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>42.18278254706016</v>
+        <v>44.14253824371932</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>45.59959423342785</v>
+        <v>42.57974089226125</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>7.317189108819349</v>
+        <v>3.528143115001519</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>48.74008068324631</v>
+        <v>47.02321220220055</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>47.98195354182084</v>
+        <v>50.33411341698118</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>9.677167205769258</v>
+        <v>6.042486990830923</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>72.91242133353016</v>
+        <v>74.40495078992893</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>68.20029433727066</v>
+        <v>67.085897047847</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>57.94930262822025</v>
+        <v>62.70180060771828</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>66.74234224889535</v>
+        <v>71.5315836204548</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>68.24642354889903</v>
+        <v>73.37345397961192</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>14.37915713132025</v>
+        <v>17.88569857860331</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>15.97873820640347</v>
+        <v>1.610700613214437</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>16.0065398885444</v>
+        <v>1.018497810468357</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.86793811235779</v>
+        <v>30.45481367101824</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>57.24726989518864</v>
+        <v>51.68131494636717</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>56.36394168886649</v>
+        <v>52.3452495978601</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>7.101073440458745</v>
+        <v>3.74979868866405</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>50.62232338293811</v>
+        <v>45.69746328830456</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>55.29264552273983</v>
+        <v>52.74636738621976</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>9.570332705518592</v>
+        <v>5.753181767314128</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>77.74140850429319</v>
+        <v>78.48795776846208</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>80.04934897913074</v>
+        <v>81.18542788365967</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>71.78244154329433</v>
+        <v>70.37305881193009</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>83.22162226090146</v>
+        <v>82.14100748771443</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>85.78153531904864</v>
+        <v>86.38180260735514</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>31.35580836520837</v>
+        <v>30.31952328622553</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>86.29121313735644</v>
+        <v>86.34436006781709</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>86.2881566450244</v>
+        <v>87.65037999386175</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.38601036012949</v>
+        <v>31.31119527891178</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>57.82510270051563</v>
+        <v>53.37691875270729</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>59.09671662749927</v>
+        <v>54.99381858790971</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>7.349108745573158</v>
+        <v>4.086868096318227</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>54.24119942257688</v>
+        <v>48.9699143494675</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>58.89476154984745</v>
+        <v>52.28724909832453</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>10.55253398012794</v>
+        <v>6.274463535962134</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>83.3028948384423</v>
+        <v>79.97628205910681</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>85.82344060773315</v>
+        <v>79.31891798187847</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>88.94494311836334</v>
+        <v>86.72830249555329</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>98.1887106050587</v>
+        <v>90.50988576710412</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>99.20962070363427</v>
+        <v>92.09505698125841</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.15534756058609</v>
+        <v>30.42624701473635</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>95.00277893648956</v>
+        <v>93.87536828676431</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>92.97183278584976</v>
+        <v>93.31539628350498</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>11.41296649258001</v>
+        <v>9.798063439590134</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>10.09122210228933</v>
+        <v>12.37752588967149</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>13.63332706352083</v>
+        <v>11.96596692431955</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-2.705965289939787</v>
+        <v>2.941288309850471</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>14.21353569285732</v>
+        <v>16.5086836728625</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>15.59506761179914</v>
+        <v>18.80229935105721</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-0.6320428508365055</v>
+        <v>3.37548086777101</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>23.87852565333358</v>
+        <v>20.36005546815793</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>23.40949618127647</v>
+        <v>21.05122624557944</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>31.85034624227636</v>
+        <v>29.42129727320609</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>39.20380848928158</v>
+        <v>36.89649096592774</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>39.89478388723803</v>
+        <v>39.26875696169422</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>13.25396582372923</v>
+        <v>12.00886721036981</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>24.58245708311257</v>
+        <v>21.60975984806973</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>22.29773115643013</v>
+        <v>20.51848506856597</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>14.49407274215167</v>
+        <v>10.76242083595537</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>32.75042755850777</v>
+        <v>29.88194655516902</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>39.26881041902597</v>
+        <v>36.64014238031558</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>2.714538057949998</v>
+        <v>3.185925480412795</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.84626062190979</v>
+        <v>33.30031725109252</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>41.40110606051775</v>
+        <v>42.99638712835284</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>6.443706532151058</v>
+        <v>3.562636291896812</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>51.30526439834026</v>
+        <v>50.30371556526892</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>61.80423400389735</v>
+        <v>58.58025746019376</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>50.24478588927853</v>
+        <v>50.74443340282431</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>60.92034252211142</v>
+        <v>58.51624491417561</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>65.43661130838947</v>
+        <v>59.57946018138869</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>17.07529181336869</v>
+        <v>12.93232922264739</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>61.21058334885229</v>
+        <v>56.33495216451831</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>63.90062720031528</v>
+        <v>56.89643440771624</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>20.9801640449281</v>
+        <v>21.71021141257473</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>41.31716428881829</v>
+        <v>37.249072700966</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>47.70974773266757</v>
+        <v>47.75120694198029</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>8.823108420144617</v>
+        <v>4.032263373232716</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>46.07683809918854</v>
+        <v>47.5678836701066</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>55.74156516623665</v>
+        <v>56.04067222974847</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>12.96984431177825</v>
+        <v>7.947049977667064</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>72.39963033007291</v>
+        <v>71.31477717892319</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>76.02723873256571</v>
+        <v>71.13981399325715</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>83.20490024703471</v>
+        <v>75.40835556292885</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>90.78099887768562</v>
+        <v>83.10739380470567</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>91.3813605668451</v>
+        <v>82.64837302880866</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>38.18587389953201</v>
+        <v>36.98096888966924</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>90.88808053903276</v>
+        <v>85.77771061612566</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>92.96100837876732</v>
+        <v>90.79222681737514</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>12.40876841653991</v>
+        <v>11.33232935718679</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>15.1845907655781</v>
+        <v>13.67961724567143</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>13.9412976753796</v>
+        <v>10.90427027851468</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-2.174536195168493</v>
+        <v>1.64620923460857</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>15.66942557351381</v>
+        <v>14.27707492692351</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>16.12501946077013</v>
+        <v>19.10206695125214</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-1.573604182306529</v>
+        <v>4.822573511771889</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>19.8158071959563</v>
+        <v>15.89747150459494</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>17.56367029633879</v>
+        <v>15.85446914290678</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>21.40844336121508</v>
+        <v>18.41188230174677</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>27.77445810728303</v>
+        <v>21.50220986535648</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>26.57401278243922</v>
+        <v>19.18241658861695</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>6.218445666931515</v>
+        <v>11.74174225693706</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>17.66032811063424</v>
+        <v>15.16448190291995</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>15.76322785271935</v>
+        <v>11.54735151721115</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>3.213176357253957</v>
+        <v>2.844791093946441</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>8.791671821777978</v>
+        <v>6.031575334886092</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>14.18320494619982</v>
+        <v>9.819412280738494</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-5.660930036283204</v>
+        <v>0.8201731310534583</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>8.910038907782415</v>
+        <v>9.252684147764107</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>16.20640294226471</v>
+        <v>15.83746213768043</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-5.472811007653853</v>
+        <v>0.8201384718409876</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>19.12257827826598</v>
+        <v>15.06732964635996</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>31.61172692292719</v>
+        <v>30.56987785576779</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>19.30487229114508</v>
+        <v>10.03263083141629</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>35.63869016675828</v>
+        <v>31.80494014854726</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>45.3129394225376</v>
+        <v>45.78577823133083</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>2.378415622581009</v>
+        <v>2.557396596781906</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>26.28668923472489</v>
+        <v>20.31383147198259</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>23.98876779876343</v>
+        <v>15.28427725793275</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>5.942308020303059</v>
+        <v>3.420536503036434</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>16.27581907952026</v>
+        <v>13.56306560087611</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.13627647368881</v>
+        <v>36.26455980703851</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-4.036353540077851</v>
+        <v>0.8198390361971555</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>19.21623833114847</v>
+        <v>16.31669024179376</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>37.44148417964868</v>
+        <v>39.36286706471485</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-3.790354607645959</v>
+        <v>1.102167613077082</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>34.12599759896211</v>
+        <v>26.63905111370905</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>60.21370627956335</v>
+        <v>72.83805989666291</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>42.27683935097355</v>
+        <v>17.28064701223315</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>58.65284192569602</v>
+        <v>55.50202156554725</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>79.2711432093528</v>
+        <v>80.39299603611124</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>5.738583098773667</v>
+        <v>2.840819791609764</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>47.01915275341639</v>
+        <v>44.62974588057683</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>53.98597414231735</v>
+        <v>51.09227840131514</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>19.70493319740595</v>
+        <v>19.31240289388986</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>30.14704777135347</v>
+        <v>22.90462432712753</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>40.72933445767535</v>
+        <v>36.52807856761417</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>7.461576067747146</v>
+        <v>4.173487284507956</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>51.4857109166793</v>
+        <v>45.6666022898511</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>51.12622576404763</v>
+        <v>46.98919065447775</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>11.18807480946738</v>
+        <v>12.19902084762634</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>73.86013288613057</v>
+        <v>68.47339603883947</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>72.97426048497299</v>
+        <v>66.14846753309428</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>73.81075011846748</v>
+        <v>66.61924537170545</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>80.79659963714184</v>
+        <v>79.54439736524719</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>79.66913673712287</v>
+        <v>75.11411216543448</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>49.13042972242535</v>
+        <v>47.22144467995669</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>69.17076964654183</v>
+        <v>69.3120514561368</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>81.10560620323258</v>
+        <v>74.39981400691676</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>21.16163628466063</v>
+        <v>25.61086022100261</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>39.89299415553368</v>
+        <v>35.5540861619952</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>41.51130997091608</v>
+        <v>38.34106543023459</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>3.750437924697543</v>
+        <v>3.882532662831473</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>39.83708482214406</v>
+        <v>39.39999895688178</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>42.61105770394978</v>
+        <v>40.91232225951103</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>8.080969206435853</v>
+        <v>6.78077577003527</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>64.30384650928734</v>
+        <v>59.41554917120669</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>68.94600337527146</v>
+        <v>61.95548402107294</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>61.56806547246286</v>
+        <v>55.87327386177761</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>68.45788459042737</v>
+        <v>62.73039509114789</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>68.11523889265322</v>
+        <v>61.2441138326304</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>31.84671784868344</v>
+        <v>34.57865144098519</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>74.70681321763176</v>
+        <v>65.73618221925582</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>71.0583550052761</v>
+        <v>63.99413714717283</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>23.04276372915212</v>
+        <v>26.58365769690356</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>41.65844337466938</v>
+        <v>36.85197627827069</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>45.50628195218934</v>
+        <v>45.85652574128655</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>7.273194454123331</v>
+        <v>4.51370772771676</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>50.28460179312984</v>
+        <v>52.68585557304287</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>53.1832052568748</v>
+        <v>53.16372222564998</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>10.84191901149916</v>
+        <v>7.845749495061309</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>78.05640470504194</v>
+        <v>74.93449653601081</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>80.33203456677093</v>
+        <v>74.5211132073661</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>85.83716004551411</v>
+        <v>78.80891712596143</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>89.06728255917405</v>
+        <v>82.60052030981971</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>89.57658125092561</v>
+        <v>83.31579556781929</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>39.22847852072769</v>
+        <v>40.94927116235267</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>90.71610710828001</v>
+        <v>83.62610326264199</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>90.38446711738467</v>
+        <v>86.60229967534211</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.512718852131208</v>
+        <v>8.269475896463089</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>13.17509340341094</v>
+        <v>11.78808580970061</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>14.77813455981951</v>
+        <v>11.44670831519972</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-2.308684796865169</v>
+        <v>2.21908159878927</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>10.66829761339325</v>
+        <v>11.22838347967904</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>14.366645572175</v>
+        <v>15.08948779969264</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-1.110286482200596</v>
+        <v>3.951775609287818</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.25697333413754</v>
+        <v>18.06372780832873</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.93299438758379</v>
+        <v>19.62779134375774</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>25.47182359761391</v>
+        <v>19.793813304931</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>30.1850155723646</v>
+        <v>24.49529289275443</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>31.89510528306133</v>
+        <v>27.86883315077982</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>2.707630689621084</v>
+        <v>8.019247828179441</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>21.10406815525803</v>
+        <v>17.25479069322832</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>23.71543894043952</v>
+        <v>18.74019905540882</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>8.220687548634832</v>
+        <v>5.447829487158874</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.77344629470225</v>
+        <v>23.45943350206163</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>31.89537750281778</v>
+        <v>29.4703763249464</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>3.316968483291959</v>
+        <v>2.840721991773712</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>24.8218232964191</v>
+        <v>25.50735224684011</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>33.81351098610135</v>
+        <v>35.89610203216581</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>5.709735402900943</v>
+        <v>3.256737244317492</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>42.31695836430119</v>
+        <v>43.32196732352158</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>52.13856242750163</v>
+        <v>51.65828222669163</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>39.95852793867884</v>
+        <v>35.47415288621551</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>47.22013919272779</v>
+        <v>46.53374335232338</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>51.09997601465088</v>
+        <v>51.26702913867132</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>8.479068699204383</v>
+        <v>5.687311225379514</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>47.23223585882997</v>
+        <v>43.70985534422374</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>53.76310102841067</v>
+        <v>49.49931429554429</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>18.73463378852775</v>
+        <v>15.36174159136645</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>38.31551133145544</v>
+        <v>33.37633573555334</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>44.60314391891741</v>
+        <v>45.37085934225482</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>11.47647249266323</v>
+        <v>7.297340419814446</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>39.98918229204486</v>
+        <v>33.46925356386747</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>49.67251868665005</v>
+        <v>45.99057739302459</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>19.46483362080972</v>
+        <v>15.51866173587574</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>63.44760364183274</v>
+        <v>58.34212381403391</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>71.89145535171841</v>
+        <v>67.49478043585091</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>71.20936762400522</v>
+        <v>62.27104075308004</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>78.47477817153958</v>
+        <v>76.82492524240089</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>87.60405017939966</v>
+        <v>88.23057351103373</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.32157824406033</v>
+        <v>26.78538313295488</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>74.04575630524073</v>
+        <v>71.46403223675196</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>80.67503678121602</v>
+        <v>79.73761980388306</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>4.198387653196932</v>
+        <v>2.840662462850407</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>5.959659692461308</v>
+        <v>3.187543711985867</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>6.634235512266127</v>
+        <v>4.559355341065668</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-3.937482270154565</v>
+        <v>0.8194577273447585</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>8.751675188672763</v>
+        <v>3.944434450484078</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>11.13136085752553</v>
+        <v>7.431567750095212</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-11.16818479879419</v>
+        <v>0.8196820020780144</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>11.94436058171111</v>
+        <v>4.563734040197001</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>11.21682444103425</v>
+        <v>7.792560449323215</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>13.80081445652126</v>
+        <v>6.298361017808119</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>18.26514284962093</v>
+        <v>10.20677723820894</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>20.54973835676612</v>
+        <v>14.65292599003376</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-3.631329036186319</v>
+        <v>1.092734498828243</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>7.992351382416487</v>
+        <v>3.248001465198673</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>9.450705007604899</v>
+        <v>6.994254309709607</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.85658815132926</v>
+        <v>22.44700879167475</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>38.40773842008729</v>
+        <v>35.85024621707526</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>41.09032472391571</v>
+        <v>36.24807185255101</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>6.59530547581484</v>
+        <v>3.65303247568438</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>37.01087832663308</v>
+        <v>37.92949806864148</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>45.01202264312602</v>
+        <v>40.97581368841758</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>7.660027992066926</v>
+        <v>4.276141635144061</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>56.77867012179171</v>
+        <v>55.8113965154507</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>66.41630768978708</v>
+        <v>60.39896645832677</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>55.71769810331182</v>
+        <v>58.44322633513752</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>64.55192321779694</v>
+        <v>57.83705120750255</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>66.01941122438191</v>
+        <v>60.66954145097112</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>21.89880540988268</v>
+        <v>24.65586338576512</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>65.34095865700937</v>
+        <v>61.70952864428307</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>65.60065292060574</v>
+        <v>62.57973850086586</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>24.31729597749548</v>
+        <v>26.88259030565074</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>47.580633053122</v>
+        <v>41.49877329013091</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>50.28717557062966</v>
+        <v>49.36345657581699</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>8.7853083348704</v>
+        <v>3.988666611490327</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>53.02347869640543</v>
+        <v>54.45384400240276</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>57.79603194696205</v>
+        <v>58.37566139366059</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>9.525773998523498</v>
+        <v>5.598192828445477</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>74.90984574627092</v>
+        <v>76.60436154526015</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>78.46587566960005</v>
+        <v>74.57755359969822</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>87.30287400948549</v>
+        <v>84.51118586398303</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>94.83963909218259</v>
+        <v>88.55299182232409</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>94.39264121954142</v>
+        <v>90.99630211002844</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.55705247816217</v>
+        <v>30.57621171302768</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>90.70283721080136</v>
+        <v>90.604034852588</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>86.37470589192</v>
+        <v>85.99204943594654</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>10.74429394472557</v>
+        <v>13.01401229765207</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>15.67022151068758</v>
+        <v>16.65508883937885</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>15.85096210264541</v>
+        <v>16.32176229802028</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-1.507817973359</v>
+        <v>2.277362347812829</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>14.78033475464189</v>
+        <v>16.6814250492738</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>16.76584375075266</v>
+        <v>20.02956431506642</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>0.6087733981294008</v>
+        <v>5.447867060408182</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.09447557965193</v>
+        <v>21.8973887499461</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.93982497461615</v>
+        <v>23.88467684203029</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.99546167968028</v>
+        <v>23.51960153760495</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>33.03409373258965</v>
+        <v>32.69649201707453</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.31269420409888</v>
+        <v>32.17908047083989</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>13.81184198959227</v>
+        <v>11.38926306680724</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>27.27867391675758</v>
+        <v>22.89090569146052</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.59838665560833</v>
+        <v>24.91291401809148</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>5.209906154100029</v>
+        <v>2.846559438155946</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>12.80010866703766</v>
+        <v>10.54005403747798</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>22.93096254575649</v>
+        <v>22.4260987448766</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-3.350470382077443</v>
+        <v>0.8907135081864652</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>11.38640394435153</v>
+        <v>9.280265490316641</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>25.12366727204713</v>
+        <v>25.94897933469565</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-1.916787658997894</v>
+        <v>0.9659536405813363</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>20.96086883850417</v>
+        <v>16.0831482539457</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>40.97062147103062</v>
+        <v>42.64761263671905</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>18.71342954432467</v>
+        <v>13.13417885636282</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>31.5696372516994</v>
+        <v>30.96697186016418</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>38.62929945045673</v>
+        <v>40.05248185595597</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>5.005284992964079</v>
+        <v>2.63595973019202</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.5049668535321</v>
+        <v>29.18598097345457</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>37.22426701142469</v>
+        <v>38.22927019135847</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>19.68541885203071</v>
+        <v>20.98619805930564</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>32.63182060198829</v>
+        <v>28.44342416442684</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>37.61089534585957</v>
+        <v>40.78947261395957</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>3.473591332491992</v>
+        <v>3.623818440239319</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>30.52478649819966</v>
+        <v>25.85677341093029</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>38.44064181092197</v>
+        <v>35.65696307010228</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>9.81337632721484</v>
+        <v>12.99723522384345</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>52.58376757848983</v>
+        <v>47.33995012477879</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>60.09831544808293</v>
+        <v>60.80454158624634</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>58.36813793620859</v>
+        <v>52.02295910069338</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>66.62045732658757</v>
+        <v>62.22813447687415</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>69.98699896126013</v>
+        <v>71.34939499861665</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>33.57108425496307</v>
+        <v>35.570029838106</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>62.43068514047769</v>
+        <v>57.05020089366285</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>65.20392365886781</v>
+        <v>61.30937619881811</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>2.893029712598953</v>
+        <v>3.75586658723331</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>4.53061823954004</v>
+        <v>7.173154874512427</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>3.591694693608698</v>
+        <v>6.002147703070314</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-4.342361762019735</v>
+        <v>1.218748887098084</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>2.073525887342473</v>
+        <v>5.819590365799886</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>4.785202486237353</v>
+        <v>7.587319284395896</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-5.162466480966039</v>
+        <v>1.167551128655138</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>5.836574506069137</v>
+        <v>6.866462059762224</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>5.00775520579986</v>
+        <v>9.911581146666457</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>7.379134463534385</v>
+        <v>6.247358172815943</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>7.993797915648791</v>
+        <v>7.454273946563692</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>11.53017983674719</v>
+        <v>12.69699959836093</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>2.626666545429593</v>
+        <v>2.365284554406742</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.354834505992276</v>
+        <v>6.079343951705777</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>11.36959663376721</v>
+        <v>8.084867927410759</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>0.1016739951033152</v>
+        <v>2.537538405216228</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>4.047486202939975</v>
+        <v>4.374202574378653</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>5.719120503335017</v>
+        <v>3.836217350424274</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-4.729964713980216</v>
+        <v>0.8197943844858209</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>3.528453519766611</v>
+        <v>3.724198350473607</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.38789363724473</v>
+        <v>5.548290749854779</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-4.324579016850745</v>
+        <v>1.270176858083325</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>8.12190096859149</v>
+        <v>4.941349971166478</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>14.49301481492528</v>
+        <v>9.22295664464054</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>6.638907149520008</v>
+        <v>4.497584142269634</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>9.806482332019485</v>
+        <v>7.842411620195595</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>12.61473577311263</v>
+        <v>9.703187767623351</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-4.204980463546761</v>
+        <v>0.8196517873208435</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>10.19567581202765</v>
+        <v>5.332271675151116</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>12.07735011200719</v>
+        <v>6.984535033731905</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>17.54048000859192</v>
+        <v>22.36367094247372</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>23.14990021123351</v>
+        <v>23.46598194692808</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.52218171815305</v>
+        <v>25.48259059420189</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>3.615021635097467</v>
+        <v>3.61577959534149</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>21.07166850332838</v>
+        <v>19.37703688639858</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.019812843378</v>
+        <v>22.6326674506463</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>9.594046570491713</v>
+        <v>14.18277433294362</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>36.111182296274</v>
+        <v>31.36015869678365</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>39.35190170071964</v>
+        <v>33.76364461962586</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>45.47702321049029</v>
+        <v>43.08863356999901</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>45.9257130930343</v>
+        <v>46.6496200152387</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>50.12838728790717</v>
+        <v>51.04054488166091</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>25.82781088903693</v>
+        <v>30.07121338113808</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>40.23723018981887</v>
+        <v>33.3192524009085</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>44.13133930008663</v>
+        <v>37.56669774190642</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>21.94749374138912</v>
+        <v>19.37516018675773</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>33.7093499309246</v>
+        <v>32.00659017188096</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>34.99968133232411</v>
+        <v>37.25202271654641</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>3.288196310303505</v>
+        <v>3.712506041679518</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>30.99252496234131</v>
+        <v>28.34943405351421</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>34.65922085469023</v>
+        <v>30.36142490545361</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>9.307868109454059</v>
+        <v>6.891243132651777</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>46.60748928197485</v>
+        <v>48.16440909977315</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>48.40741228812747</v>
+        <v>50.53821794102464</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>51.24237445687172</v>
+        <v>50.02958768760332</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>62.09826147652613</v>
+        <v>60.31358372952249</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>65.03531157551171</v>
+        <v>63.8203472005795</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>33.74864839808655</v>
+        <v>34.91801784223244</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>60.17425640142553</v>
+        <v>62.05834261604937</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>62.97046219470969</v>
+        <v>68.99646108876556</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>13.43970777152967</v>
+        <v>16.90592835501185</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.02172691397689</v>
+        <v>27.14777600403673</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.09949458525482</v>
+        <v>30.99030490546449</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-3.123724765653257</v>
+        <v>1.657019442508332</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>21.08108645839274</v>
+        <v>16.9287440506908</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>27.7625757159594</v>
+        <v>21.54773052340276</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>1.088861062387032</v>
+        <v>4.282358801524136</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>40.52118818714641</v>
+        <v>35.74007580022895</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>46.79320833770498</v>
+        <v>37.63473246416754</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>43.89357154416922</v>
+        <v>38.02076405238453</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>50.75320596768604</v>
+        <v>46.83086866802071</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>51.54787585844676</v>
+        <v>45.44171561772507</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>23.33947058845584</v>
+        <v>26.06579616805699</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>58.07476168457133</v>
+        <v>51.08265933753593</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>59.78040565503113</v>
+        <v>53.3827890655629</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.1518775658666</v>
+        <v>26.80712216802597</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>43.41445075820187</v>
+        <v>37.67622996037249</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>49.44243719003811</v>
+        <v>48.40951869680236</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>7.826223075915419</v>
+        <v>5.007360279211756</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>39.39966848763103</v>
+        <v>36.18425445180147</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>46.77563453934373</v>
+        <v>40.42055383458474</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>14.22169540105369</v>
+        <v>10.97121592792852</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>68.81122318460478</v>
+        <v>64.69748561464141</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>72.75500971898676</v>
+        <v>65.39469048812705</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>87.86532663845372</v>
+        <v>79.80497329942203</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>87.81828331057608</v>
+        <v>83.534619456591</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>89.17761387607152</v>
+        <v>86.88905803513933</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>41.61912717912023</v>
+        <v>44.53982706719839</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>84.39221710099466</v>
+        <v>76.24130414198932</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>89.4201937009978</v>
+        <v>80.99548039770445</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>17.18704197476445</v>
+        <v>20.50860752226146</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>39.37965292530832</v>
+        <v>34.63505354439467</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>42.06061745410076</v>
+        <v>37.99146011542251</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>8.681154654984791</v>
+        <v>5.648853947525055</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>45.09441431569061</v>
+        <v>42.68549101832006</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>47.46737739720717</v>
+        <v>43.0666740806105</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>10.25622985285905</v>
+        <v>10.08468282389349</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>64.3170219696045</v>
+        <v>60.15070593831962</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>64.57429038148256</v>
+        <v>62.59954578990404</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>71.28288523808902</v>
+        <v>71.70101380342919</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>78.27264095738857</v>
+        <v>72.81194756371397</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>78.55207418907688</v>
+        <v>74.80364205735162</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>22.46204896506045</v>
+        <v>23.91639670107865</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>70.0451128969973</v>
+        <v>70.3985077087348</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>71.46458736074453</v>
+        <v>71.41071031257015</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>16.12244551440381</v>
+        <v>18.9798961496715</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>37.64575608776302</v>
+        <v>34.31648502276504</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>42.0085427847485</v>
+        <v>40.79065499414921</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>6.231189908408169</v>
+        <v>3.452933326836909</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>36.06922414182969</v>
+        <v>36.63049548147553</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>42.99647718682304</v>
+        <v>38.36003132273153</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>7.373194078699544</v>
+        <v>4.058944681874841</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>54.96482212904708</v>
+        <v>55.4871620357151</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>65.42831306299317</v>
+        <v>65.54311895240936</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>55.70911873541452</v>
+        <v>56.46869902951103</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>64.07285461764079</v>
+        <v>63.94991524662427</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>63.21654166210514</v>
+        <v>57.2743863996602</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>17.12733269525074</v>
+        <v>19.27616156558658</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>65.55629092369213</v>
+        <v>63.87611505363903</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>70.10405514638127</v>
+        <v>69.86615427808397</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>18.53518655537987</v>
+        <v>22.01863672867177</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>43.62625744711296</v>
+        <v>39.13631168131755</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>48.52729945307701</v>
+        <v>43.93149377397683</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>5.888746984492528</v>
+        <v>3.595341093453211</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>45.78869254510946</v>
+        <v>47.84723128028439</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>52.20919840113798</v>
+        <v>46.90368119963063</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>7.283017159271431</v>
+        <v>4.141242948241725</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>67.01380960938599</v>
+        <v>67.05100597908347</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>76.41040480336486</v>
+        <v>69.83985688295316</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>82.12191865565251</v>
+        <v>80.84227900614388</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>88.49583095876997</v>
+        <v>81.81997800133968</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>93.6299884265985</v>
+        <v>86.35946266467268</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>24.47713225975281</v>
+        <v>21.7223262663321</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>82.76517077324921</v>
+        <v>80.28200330362347</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>88.61667017985789</v>
+        <v>83.46424052920105</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>23.91171010091346</v>
+        <v>26.59521380978898</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>37.41161325866273</v>
+        <v>31.23555897845399</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>41.27634424424704</v>
+        <v>36.59123759997038</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>6.537415087520664</v>
+        <v>4.052138935976537</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>49.66281530542915</v>
+        <v>44.67243433466891</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>50.22073196018482</v>
+        <v>44.4077929072645</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>11.1155283716897</v>
+        <v>9.277711808013798</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>67.10289579556007</v>
+        <v>61.69121239845925</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>66.14462657773635</v>
+        <v>61.55914108962156</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>64.57342148415128</v>
+        <v>62.10893809602929</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>69.56976149295753</v>
+        <v>62.98409436962461</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>68.6690935356329</v>
+        <v>66.56937779200919</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>32.30913906321764</v>
+        <v>43.82156895371612</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>59.87287839311058</v>
+        <v>64.48213306595679</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>72.9172233956568</v>
+        <v>72.62361838843046</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>24.42004976062906</v>
+        <v>27.97274388400573</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>40.38340777208845</v>
+        <v>38.86294222790962</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>42.42164719203642</v>
+        <v>37.30848547767228</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>3.401653752187819</v>
+        <v>2.711491720423357</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>38.1789430611787</v>
+        <v>37.01890092544541</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>44.58124292196299</v>
+        <v>38.45262844312777</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>6.379257828330264</v>
+        <v>3.837152279088233</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>62.18421444647444</v>
+        <v>56.64552542556378</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>71.20932922239214</v>
+        <v>64.80905943856892</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>62.81230090182015</v>
+        <v>62.00445753584385</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>69.36643440867147</v>
+        <v>63.42624608620212</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>70.23352276351855</v>
+        <v>62.57995881059789</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>27.93647999672328</v>
+        <v>29.90838570723814</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>76.24404625505437</v>
+        <v>69.0836464939205</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>78.02876906985679</v>
+        <v>70.70185633076983</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>27.91736026052018</v>
+        <v>30.84072026134339</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>47.38671509405887</v>
+        <v>42.44224094638733</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>49.13470007784453</v>
+        <v>43.34192588157616</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>5.344908396199344</v>
+        <v>3.882959242755298</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>46.13926518489599</v>
+        <v>48.05314937095585</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>51.22709109609569</v>
+        <v>48.89906796455872</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>7.862585419815126</v>
+        <v>5.434088192662298</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>76.03676380663779</v>
+        <v>72.06526088936147</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>78.92332874146692</v>
+        <v>70.2432376167929</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>91.14479388726498</v>
+        <v>83.80571910327609</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>93.21237375102559</v>
+        <v>85.52179232234094</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>94.67277664316491</v>
+        <v>85.69861314173174</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.93018632873966</v>
+        <v>30.73879481595121</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>89.94513353816926</v>
+        <v>81.44878426648054</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>91.9244485974892</v>
+        <v>81.91089553804079</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.79465251217377</v>
+        <v>27.77252458994793</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>36.29941050569329</v>
+        <v>34.08779464210215</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>39.48401356827458</v>
+        <v>38.16540646466625</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>16.38102896889453</v>
+        <v>10.26933109196122</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>59.22513241672625</v>
+        <v>65.21875964198455</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>59.37398245450296</v>
+        <v>62.58074494481054</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>14.6348802294734</v>
+        <v>9.731907025571555</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>62.42314425321929</v>
+        <v>64.61141050630735</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>60.89592548987112</v>
+        <v>62.5346141501006</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>62.79848323986728</v>
+        <v>70.06118133127285</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>72.55893351410589</v>
+        <v>71.38392390682867</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>73.24730395417029</v>
+        <v>71.57567421711192</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>41.0673038101087</v>
+        <v>54.06362446365374</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>55.87453629031225</v>
+        <v>68.24354209988074</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>68.21320742166083</v>
+        <v>74.81299132104138</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>24.52557193491329</v>
+        <v>31.10635015324704</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>36.49078377046781</v>
+        <v>38.671114596621</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>42.47825430543784</v>
+        <v>38.81203705186726</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.46054768588028</v>
+        <v>39.34378232511521</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>54.76841369115664</v>
+        <v>56.8374838685813</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>61.73396111187285</v>
+        <v>53.71402191087973</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>10.33277552998977</v>
+        <v>7.255336799057336</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>58.28124594462556</v>
+        <v>58.94368869422013</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>69.63883565780746</v>
+        <v>61.69863480031723</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>58.43640624141533</v>
+        <v>58.7040976008559</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>68.65789575707751</v>
+        <v>61.56437301057503</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>67.66132292853595</v>
+        <v>60.46683463118688</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>33.38807500799371</v>
+        <v>36.03425483827399</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>71.7324855646274</v>
+        <v>65.17677767257868</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>75.91049006186557</v>
+        <v>69.13798971867604</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>31.47102767754046</v>
+        <v>35.64414431775582</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>47.62405940622136</v>
+        <v>42.38521384223939</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>49.05446238252109</v>
+        <v>42.66130975576642</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>34.46368745729765</v>
+        <v>40.85054940466578</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>65.31739085118031</v>
+        <v>66.03838660306792</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>68.60998573123231</v>
+        <v>59.43732064785947</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>12.46130224289214</v>
+        <v>7.392747970890404</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>74.03703378726605</v>
+        <v>71.87312443546094</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>78.39268341170076</v>
+        <v>68.88333328364051</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>92.86886540088364</v>
+        <v>90.56797283750984</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>92.90193681194442</v>
+        <v>85.30514054468506</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>97.30042520057582</v>
+        <v>87.98972762884824</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>42.32427258253847</v>
+        <v>44.50341663976363</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>91.73991516512216</v>
+        <v>83.68207479749026</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>94.91485411711966</v>
+        <v>85.60392236505865</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>19.41696590371742</v>
+        <v>15.61377606128801</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>40.03006841142142</v>
+        <v>35.73723274928817</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>44.58044881563217</v>
+        <v>38.86510589943472</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>5.955497212874096</v>
+        <v>2.840226547873659</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>39.76375805677536</v>
+        <v>37.50375182019055</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>45.47341063681374</v>
+        <v>47.29538331747074</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>6.244746958716526</v>
+        <v>3.532996924013446</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>61.36477622023148</v>
+        <v>62.78972034878794</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>63.92535154100823</v>
+        <v>65.55377954165567</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>69.55359160341324</v>
+        <v>70.20681350811481</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>76.92932679163729</v>
+        <v>72.33090900390806</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>79.46065368487105</v>
+        <v>77.14779709722856</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>13.52800705919742</v>
+        <v>10.19579102482223</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>70.4370851043621</v>
+        <v>71.19449405893323</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>72.99315898003383</v>
+        <v>72.89215341325146</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>15.77989632527103</v>
+        <v>13.08240997562194</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>37.86708311277333</v>
+        <v>36.62789953846032</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>39.50107779313431</v>
+        <v>36.72171434629755</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>1.893934174812621</v>
+        <v>3.089215296696455</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>35.02490101343931</v>
+        <v>37.62977474270333</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>40.4807613108435</v>
+        <v>36.26796230406777</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>2.771768803862237</v>
+        <v>3.534534977020247</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>56.05999877603346</v>
+        <v>57.13196553803967</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>63.65720369415691</v>
+        <v>61.50765900527526</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>56.99340119685525</v>
+        <v>57.74171416666261</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>63.97400363333833</v>
+        <v>65.67477679832803</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>64.1142399999566</v>
+        <v>58.67826717133089</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>10.90190310316483</v>
+        <v>8.435510386178301</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>61.04773807571167</v>
+        <v>54.05592905210175</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>67.56701889100887</v>
+        <v>68.91510071846071</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>16.10234350609401</v>
+        <v>13.23522761222878</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>42.21277345375581</v>
+        <v>39.24541733081715</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>45.83427272339608</v>
+        <v>42.53473867286971</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>2.343215064099851</v>
+        <v>2.171627194482411</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>46.40902668802994</v>
+        <v>46.96723768795202</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>51.24018973599661</v>
+        <v>47.41016452486704</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>3.668485536727577</v>
+        <v>3.208320153327271</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>68.46720164340198</v>
+        <v>67.88141349167245</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>75.0671319512322</v>
+        <v>68.50265728541063</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>82.84524014174038</v>
+        <v>80.79721463933048</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>88.0322278446376</v>
+        <v>82.09128669425979</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>93.9348507364945</v>
+        <v>86.72043568175017</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>12.05344274970329</v>
+        <v>2.650614666934434</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>81.56395492160597</v>
+        <v>79.87532796938166</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>88.36913549681697</v>
+        <v>84.02003735183999</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>14.96015660064708</v>
+        <v>14.31302676705679</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>19.48423078589974</v>
+        <v>17.78006496707885</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>19.6654894044404</v>
+        <v>16.68961595403881</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>0.9479294562510319</v>
+        <v>3.255657285500515</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>20.29849568332711</v>
+        <v>18.43580908723477</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>21.34326571415551</v>
+        <v>19.41967554995185</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>3.644316017753741</v>
+        <v>7.256126510509446</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.3174655993684</v>
+        <v>26.54097021174874</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.55506664979421</v>
+        <v>28.85288032725662</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>34.94454603934676</v>
+        <v>29.18859077632427</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>39.30977857802515</v>
+        <v>33.40065219380604</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>42.26911989604642</v>
+        <v>37.27356177141989</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>17.19477104268986</v>
+        <v>16.9018282283631</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.31492121829528</v>
+        <v>24.44373660502168</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>30.5749828128758</v>
+        <v>25.83338176883735</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>14.04484722644176</v>
+        <v>10.23534438068098</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>33.05720526190573</v>
+        <v>31.90827317257101</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>37.85371352739756</v>
+        <v>36.70693910214288</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>3.946960181999849</v>
+        <v>3.343119235787224</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>32.47056957315522</v>
+        <v>34.1983348485446</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>40.99850405359523</v>
+        <v>41.28985550760927</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>7.966034042318924</v>
+        <v>4.205164223778688</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>53.06942900837934</v>
+        <v>53.45136403346111</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>62.44188866951103</v>
+        <v>63.46155274860828</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>52.03259977743662</v>
+        <v>52.75097978031397</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>56.93717245931554</v>
+        <v>58.43259387062945</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>65.3979958181572</v>
+        <v>61.14028127895997</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>14.18502870988119</v>
+        <v>9.919597880027585</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>57.84702157289408</v>
+        <v>56.20628634656617</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>64.08085892335433</v>
+        <v>64.58265877258727</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>22.35314157292623</v>
+        <v>18.50801146595396</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>43.19186575505152</v>
+        <v>40.68730400059111</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>49.4545755599535</v>
+        <v>47.20841198086348</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>9.625835034790008</v>
+        <v>5.784100738387924</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>44.36394386986021</v>
+        <v>45.533800169698</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>53.84008450573005</v>
+        <v>51.92052693104333</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>17.7489002676592</v>
+        <v>12.88369778120828</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>70.589898617541</v>
+        <v>69.2947469976057</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>78.60411314205493</v>
+        <v>75.58544778338121</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>77.86690233882501</v>
+        <v>74.7013579510305</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>78.13148419778486</v>
+        <v>75.00317911041341</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>89.72042942826842</v>
+        <v>86.59231507280438</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>33.25348073660668</v>
+        <v>30.15259271150957</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>78.35672437790463</v>
+        <v>73.87769546904536</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>89.76406530497239</v>
+        <v>84.67577133742552</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>14.90905319884221</v>
+        <v>13.34475258027292</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>18.81746912686041</v>
+        <v>15.9844954725171</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.32075514161184</v>
+        <v>16.56368999486473</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-1.759427839605074</v>
+        <v>3.086580048138394</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>24.12351394761034</v>
+        <v>16.9077481209894</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>25.05194562916821</v>
+        <v>18.80605870529276</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>2.092264027449492</v>
+        <v>6.685113316601594</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>32.86990448735187</v>
+        <v>24.72163094814063</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.93182095834711</v>
+        <v>29.31875968275092</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>43.72799045586284</v>
+        <v>43.40658003462872</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>53.65863338881159</v>
+        <v>53.80363985639988</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>55.31457454147869</v>
+        <v>61.02745090299678</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>18.69799965250983</v>
+        <v>16.4949880276185</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>34.16190359217953</v>
+        <v>29.00488495361915</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>41.19702359424414</v>
+        <v>30.6435417231059</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>7.233074353234752</v>
+        <v>5.010759348449458</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>16.83565281929856</v>
+        <v>12.62667148483108</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>32.05937624179018</v>
+        <v>34.68739848882743</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>2.289296582253471</v>
+        <v>3.248409623863171</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>21.70242640929439</v>
+        <v>11.73266382281938</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>42.65652974742443</v>
+        <v>61.19198770718666</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-1.754152596226419</v>
+        <v>2.556190114364036</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>35.99086145150063</v>
+        <v>28.34481800442161</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>59.70574153337895</v>
+        <v>60.89553397356532</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>41.78293833527849</v>
+        <v>34.14262590261725</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>55.2154779152722</v>
+        <v>48.60159985959842</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>61.23230397934337</v>
+        <v>60.57430132912371</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>11.17063798767986</v>
+        <v>5.618956951970727</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>53.89549007980199</v>
+        <v>47.12878026803021</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>63.08697630831504</v>
+        <v>64.12859655017724</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>20.1791745580368</v>
+        <v>18.42503281872756</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>31.27443833953458</v>
+        <v>29.9703092973239</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>40.51795189118279</v>
+        <v>41.26246588342298</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>7.295768464295506</v>
+        <v>3.75428655258531</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>30.0775118432326</v>
+        <v>14.80296876560608</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>46.89612936492561</v>
+        <v>48.89303664601579</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>2.345484092606764</v>
+        <v>6.503252667028939</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>51.30955131707211</v>
+        <v>44.17423854005865</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>66.48396298516374</v>
+        <v>70.40036845645128</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>77.18012004121277</v>
+        <v>74.90554890938512</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>77.89536315666783</v>
+        <v>74.44243311839654</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>86.33768991700052</v>
+        <v>86.57310918641255</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>23.90049512824057</v>
+        <v>14.23768478757924</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>69.67297946311011</v>
+        <v>55.6641268533257</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>81.36128714165989</v>
+        <v>84.65301232210442</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>22.74826207069216</v>
+        <v>25.69742588860013</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>36.67809937710442</v>
+        <v>31.3010587803878</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>39.81129177516168</v>
+        <v>35.44514114415997</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>7.710916354167605</v>
+        <v>4.931872242311698</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>50.84076601290938</v>
+        <v>48.1243280784565</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>51.21060532217831</v>
+        <v>45.25840791265849</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>13.01343128741999</v>
+        <v>10.86355800609513</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>70.22368124425606</v>
+        <v>64.51968059902126</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>65.84764424496112</v>
+        <v>61.46645931770702</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>65.42137902899097</v>
+        <v>61.43924611936481</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>74.63516468267258</v>
+        <v>67.62451790556031</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>75.88454634792637</v>
+        <v>69.79650562657147</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>42.53863583804745</v>
+        <v>42.28627226963872</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>62.65207233618263</v>
+        <v>60.86325421564831</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>81.24697321874503</v>
+        <v>73.50359540548916</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>27.77341715993291</v>
+        <v>31.38900174257559</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>43.10864212531366</v>
+        <v>38.69665140739191</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>44.75211157535153</v>
+        <v>40.29803425017693</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>7.076448822878067</v>
+        <v>4.039669166576488</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>40.29256492135823</v>
+        <v>40.71537028889333</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>44.22654370263604</v>
+        <v>38.70752211420564</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>9.231667078957621</v>
+        <v>5.64222548049165</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>60.93543567490064</v>
+        <v>58.92563145398837</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>65.32332974853533</v>
+        <v>60.29949518550627</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>61.14865776303427</v>
+        <v>62.16233376946643</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>66.24225173046229</v>
+        <v>60.74594380065499</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>66.67100910089698</v>
+        <v>62.29770583395799</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>30.83671040715144</v>
+        <v>34.10061932587897</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>70.65261079241702</v>
+        <v>65.06634675485603</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>71.65777208686055</v>
+        <v>64.37691537185188</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>27.18894913939836</v>
+        <v>30.2939054863201</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>46.06250817998792</v>
+        <v>40.53470287599425</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>47.83704786701971</v>
+        <v>42.3509245251234</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>8.71045565023671</v>
+        <v>4.725062265822025</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>49.88749051680261</v>
+        <v>51.58965707844443</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>52.51776327866291</v>
+        <v>46.31115088077695</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>9.915242550597736</v>
+        <v>5.843598736521059</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>73.70612043928782</v>
+        <v>73.16871859327949</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>76.45911405029923</v>
+        <v>72.2292047861815</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>88.76249862440662</v>
+        <v>85.7255405006569</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>88.01807653907072</v>
+        <v>83.13701161939568</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>89.91784076958271</v>
+        <v>81.31327546000458</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>39.11589375448195</v>
+        <v>40.8060464903715</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>85.89620919005543</v>
+        <v>79.75498649900959</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>88.10881874794157</v>
+        <v>81.21497700025867</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>19.25273426617679</v>
+        <v>15.53747246975474</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>38.65812451613346</v>
+        <v>38.09333503766941</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>41.73657858108137</v>
+        <v>37.43801719983311</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>7.669386887924908</v>
+        <v>3.587894280219395</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>44.2813085486037</v>
+        <v>45.44387646558434</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>45.90873006445269</v>
+        <v>45.89563566182576</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>7.473953328620283</v>
+        <v>3.915548961284159</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>61.10640450581538</v>
+        <v>63.20132951612456</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>62.59887152852625</v>
+        <v>64.80698286178762</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>65.37050366564262</v>
+        <v>64.41051762501377</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>77.66445484621184</v>
+        <v>73.89202638380067</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>76.4923365790647</v>
+        <v>73.35644270805761</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>13.85020153432726</v>
+        <v>9.954165638663667</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>67.62700031562696</v>
+        <v>68.49781542137396</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>71.07797855123012</v>
+        <v>73.49311365206592</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>15.26004775808475</v>
+        <v>13.52652923339075</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>37.44292239193631</v>
+        <v>36.01114946088454</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>38.56660244125711</v>
+        <v>36.82665722780114</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>3.829969171299805</v>
+        <v>3.072399504103483</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>38.07604123084728</v>
+        <v>36.73331570893118</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>42.79911576574358</v>
+        <v>36.78281461067365</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>6.172001144362834</v>
+        <v>1.5362000556647</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>59.07804888124755</v>
+        <v>53.1289697711743</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>67.3503023454638</v>
+        <v>59.77980453973303</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>60.3450102293492</v>
+        <v>61.1745740843392</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>67.87426388063911</v>
+        <v>62.20284019809071</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>66.01178433126434</v>
+        <v>61.11939156574635</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>12.44554826387533</v>
+        <v>8.759068481569756</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>68.99176433531794</v>
+        <v>65.00269886295425</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>69.6390868548161</v>
+        <v>66.35090796029499</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>15.69338908757341</v>
+        <v>12.56312720766283</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>40.87167642065762</v>
+        <v>38.95420045971457</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>43.9517917375981</v>
+        <v>44.14857168970875</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>4.197902210929652</v>
+        <v>3.171924870481284</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>47.31567775387092</v>
+        <v>47.54772367122789</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>51.29609568507831</v>
+        <v>48.21654133890701</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>6.21717661391294</v>
+        <v>3.475666885565193</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>67.24353111174032</v>
+        <v>66.28175582879268</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>74.49316265690203</v>
+        <v>72.70383291363072</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>79.73532847958373</v>
+        <v>77.3834376971689</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>85.30904822449774</v>
+        <v>78.70061402141133</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>91.80617398228415</v>
+        <v>84.53789076509921</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>12.10060577624074</v>
+        <v>8.901348543426995</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>76.90981369303542</v>
+        <v>74.23978729511687</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>83.83978250215887</v>
+        <v>82.82490279474126</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.495</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.366</v>
+        <v>18.48</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.887</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.637</v>
+        <v>9.566000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.951</v>
+        <v>0.965</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.78793355768439</v>
+        <v>16.81711050548196</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.43252461138889</v>
+        <v>20.20573622312739</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17.17152962914781</v>
+        <v>18.07352462197196</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.414529043745823</v>
+        <v>5.035370957531352</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.63964825337251</v>
+        <v>19.12349076898638</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.98891870473495</v>
+        <v>23.17220375354254</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.37261947432485</v>
+        <v>8.853652756018658</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.83721496489808</v>
+        <v>28.18907094921173</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.28663618571246</v>
+        <v>29.01204908349642</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.51185685556029</v>
+        <v>30.99043559820665</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.11126819604502</v>
+        <v>36.30658435751533</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37.19555916271786</v>
+        <v>36.67644228130566</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.30141841254257</v>
+        <v>13.42645383330849</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.06925925085419</v>
+        <v>27.16933296776829</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>27.13560631405581</v>
+        <v>28.36530979171326</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.66981071774597</v>
+        <v>17.76430731557502</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>37.72276521040687</v>
+        <v>37.44565595605987</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>41.86085474272797</v>
+        <v>41.22736888360913</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.358552680533094</v>
+        <v>5.115165334424173</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>33.56547283910204</v>
+        <v>32.66028519184492</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>46.05629471068987</v>
+        <v>42.53617586842792</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.81449636431968</v>
+        <v>6.484060371804713</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>62.18467733835908</v>
+        <v>59.88733489825599</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>75.73164879499609</v>
+        <v>71.53896575424739</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>63.00253119637199</v>
+        <v>60.98457134266435</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>74.03678428778872</v>
+        <v>71.70919391432479</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>77.90916133344189</v>
+        <v>74.02341622042789</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>16.3397954024256</v>
+        <v>17.14997408303734</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>82.34585439095314</v>
+        <v>78.35095006235896</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>86.96714270584917</v>
+        <v>82.56748783423069</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.09297970494853</v>
+        <v>29.36359502718741</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>49.53679358540687</v>
+        <v>48.26442088708238</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>51.52963403777188</v>
+        <v>50.07562062070217</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5.932459802181928</v>
+        <v>7.314516458950116</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.05656673198011</v>
+        <v>38.69594646986362</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>55.24999540194085</v>
+        <v>52.70595319361576</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>14.82182021826724</v>
+        <v>16.06160772209427</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>82.03744425175509</v>
+        <v>77.86293613837208</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>81.55806916435607</v>
+        <v>77.2724628847979</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>88.68126341501126</v>
+        <v>82.47366206830395</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>94.56523285050349</v>
+        <v>88.63446900661856</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>97.91701049519709</v>
+        <v>92.99599292163418</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.34805515857369</v>
+        <v>35.53803741167008</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>102.2226074910283</v>
+        <v>96.31438568938117</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>102.5471784688827</v>
+        <v>96.58700695101696</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7.660183497685399</v>
+        <v>9.09611077367278</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>46.36622298248718</v>
+        <v>45.60499059528854</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.95000284910134</v>
+        <v>42.60195073876593</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.973669342263982</v>
+        <v>4.659512538805096</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>44.12336946412819</v>
+        <v>43.10624202898801</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>48.94322106093819</v>
+        <v>47.86421079696477</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2.821630749282601</v>
+        <v>5.257623365038871</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>67.71097991495574</v>
+        <v>65.63511039798837</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>65.7262738355643</v>
+        <v>62.9984075658238</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>65.06854891198566</v>
+        <v>62.59755593942338</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>66.49198607880237</v>
+        <v>63.78635381189379</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>67.06448481375794</v>
+        <v>64.67107119756079</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>8.558715800308185</v>
+        <v>9.862800216430553</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>68.09523638082899</v>
+        <v>63.82562541351578</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>69.93189229226167</v>
+        <v>67.45568319323837</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>9.32757817016476</v>
+        <v>10.83985714405534</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>43.40839612389057</v>
+        <v>42.97043628547266</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>46.04644016945021</v>
+        <v>43.76029769137435</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2.752118059499821</v>
+        <v>4.659729215433405</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>37.87448457805404</v>
+        <v>36.06478325583404</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>47.03799602750698</v>
+        <v>43.71559445977112</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3.665909453790782</v>
+        <v>5.216478746681968</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>66.31835356176595</v>
+        <v>63.96034162834712</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>82.66543116007648</v>
+        <v>78.61435157270765</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>65.06977574616155</v>
+        <v>62.8864822528239</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>76.59647841673825</v>
+        <v>73.70600114035742</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>80.847793012116</v>
+        <v>77.8766999195787</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6.00942093330497</v>
+        <v>7.418760095923176</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>78.33018664062747</v>
+        <v>74.67399919778926</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>83.16063969072476</v>
+        <v>79.20156313836702</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>9.433084077106294</v>
+        <v>10.85765258358925</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>50.46853284607545</v>
+        <v>49.38176349566449</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>50.23334282783649</v>
+        <v>49.07523160753618</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1.460960589948591</v>
+        <v>4.651823615099506</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>50.18360289419599</v>
+        <v>47.78345659432929</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>57.15884354170261</v>
+        <v>53.36142077976331</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3.153324265172181</v>
+        <v>5.157178831910663</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>83.19557757052138</v>
+        <v>79.61724436019452</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>84.4569227122536</v>
+        <v>79.40177557132537</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>89.64394255949847</v>
+        <v>85.40534627568459</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>97.63281550125274</v>
+        <v>91.75919498058033</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>98.13797731681481</v>
+        <v>93.45107442114534</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6.580891463940485</v>
+        <v>8.333039206191447</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>94.41955689924258</v>
+        <v>89.47087403537112</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>95.85689510523906</v>
+        <v>91.04458673663748</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>39.03293633156379</v>
+        <v>38.87924557108046</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>44.47525963666085</v>
+        <v>42.84888172203485</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>44.66683794909234</v>
+        <v>42.31792406155455</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>3.964493049244908</v>
+        <v>5.498548324700529</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>46.91022767343405</v>
+        <v>45.31141414696342</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>46.83072534757281</v>
+        <v>45.18007746374614</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>5.664697761399719</v>
+        <v>7.14349418264273</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>71.88094915167925</v>
+        <v>69.14494678420063</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>66.09314573322715</v>
+        <v>62.15737118435804</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>61.79597655541777</v>
+        <v>57.46462935789921</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>78.30085419851308</v>
+        <v>74.52159375938209</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>76.15215029127754</v>
+        <v>72.42611745823592</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>31.46168564730488</v>
+        <v>31.71526625340129</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>68.23654759733725</v>
+        <v>65.3183975565353</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>68.31834109425643</v>
+        <v>65.22364615753096</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>28.92637594044107</v>
+        <v>29.18085726316946</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>45.01694126149641</v>
+        <v>43.78983928772567</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>46.8313302872064</v>
+        <v>45.21067079177497</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3.760483576455549</v>
+        <v>5.233583133890431</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>43.21648889233624</v>
+        <v>41.76345503747045</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>47.50149722838332</v>
+        <v>44.705520616358</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.201927974057462</v>
+        <v>6.736177366140421</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>71.68190840951344</v>
+        <v>68.79408505713872</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>83.12857324690545</v>
+        <v>79.19619030844569</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>69.98396514964662</v>
+        <v>67.03043405087308</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>81.91524010085794</v>
+        <v>78.51959675978921</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>81.86914285988667</v>
+        <v>78.72707237772181</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>31.49345237979149</v>
+        <v>31.47930020889491</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>78.48899898234856</v>
+        <v>74.73954496472047</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>81.16350026369314</v>
+        <v>76.880891025211</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>38.52358679108453</v>
+        <v>38.10693315828357</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>52.02052544930041</v>
+        <v>50.09282563952742</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>50.09752788661778</v>
+        <v>48.9472968684675</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>3.173417318701322</v>
+        <v>5.646826047749119</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>54.03081810012216</v>
+        <v>51.74336705855947</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>53.80362079110365</v>
+        <v>51.6845128149252</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>6.573512848262695</v>
+        <v>8.111032975257498</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>82.10821969963962</v>
+        <v>76.78919382190216</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>79.29309298242759</v>
+        <v>75.51783920643697</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>88.46960904337664</v>
+        <v>84.07441537778783</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>91.7589857695427</v>
+        <v>87.49519096652321</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>94.71093917221701</v>
+        <v>88.58132428505183</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>40.56064827670389</v>
+        <v>39.91763458998854</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>94.41436523854424</v>
+        <v>87.71289814791135</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>92.79214635006632</v>
+        <v>88.08484959403336</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>15.27248131946171</v>
+        <v>16.48379158202535</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>20.1981411254054</v>
+        <v>20.92760422963989</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>18.96295964781561</v>
+        <v>20.62893167659293</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2.726428468055403</v>
+        <v>5.944350337801747</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>19.50170075341195</v>
+        <v>19.86018318533164</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>22.71695305701148</v>
+        <v>22.83492331319625</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>7.18917350793884</v>
+        <v>9.5364959009103</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.09442561749666</v>
+        <v>28.97642611239666</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.94064087491279</v>
+        <v>29.55314503529037</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>32.53805818249285</v>
+        <v>32.22944876072211</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>35.53012503444694</v>
+        <v>35.12982756264122</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>40.88879232962913</v>
+        <v>40.07145074048666</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>65.80737638756369</v>
+        <v>64.04227060659061</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>70.84534787694004</v>
+        <v>68.51865762610041</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>67.2673796355943</v>
+        <v>65.22599843544171</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>12.71958733743825</v>
+        <v>14.10560137892433</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>42.61377628921668</v>
+        <v>42.04487497382217</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>45.52605274286192</v>
+        <v>44.750252677578</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>3.502369673453789</v>
+        <v>5.237264916768495</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>45.22192198273358</v>
+        <v>43.94643626433199</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>58.08116708641716</v>
+        <v>55.41161795720658</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>17.39485249821561</v>
+        <v>18.65948542592756</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>69.26894362058735</v>
+        <v>66.44452020768466</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>80.55367864471856</v>
+        <v>76.31105605993957</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>62.70749548726636</v>
+        <v>60.70014266698468</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>73.31237446569995</v>
+        <v>71.15456936686974</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>79.31724918926498</v>
+        <v>76.18297658612371</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>14.64449112627452</v>
+        <v>15.47549924637432</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>76.73024490681726</v>
+        <v>73.09016095470636</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>83.51263026916972</v>
+        <v>79.35598351703143</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>26.63626502634612</v>
+        <v>26.94074085858241</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>51.81751225649711</v>
+        <v>50.2937496665101</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>52.36895080153334</v>
+        <v>50.69110604569298</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>6.622508119112595</v>
+        <v>8.001773337045783</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>49.40958145472165</v>
+        <v>47.66797279648725</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>58.55171149261533</v>
+        <v>55.95530460184671</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>17.81548149627082</v>
+        <v>18.64553606259425</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>78.63812482031219</v>
+        <v>74.86535534712223</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>83.13884431423293</v>
+        <v>78.92400752775634</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>85.04345803715562</v>
+        <v>80.97121892854705</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>89.93550356600646</v>
+        <v>86.05841822475298</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>99.45740278371937</v>
+        <v>94.37794009613894</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>39.38678537840052</v>
+        <v>38.23659739346973</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>93.99906888038684</v>
+        <v>89.13024161253364</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>95.19219065357521</v>
+        <v>90.08410014834764</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>31.68031806151343</v>
+        <v>31.49905846841787</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>53.33749516839548</v>
+        <v>51.07860731337308</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>47.58733544776057</v>
+        <v>44.49344202139002</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4.180237157910042</v>
+        <v>5.709729608276469</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>54.31965839311448</v>
+        <v>51.99623409222479</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>57.05294150417932</v>
+        <v>54.61756117047858</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6.908918204318852</v>
+        <v>8.398412096035845</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>82.70236884275566</v>
+        <v>79.11365575354178</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>70.52651409132461</v>
+        <v>67.75023980641217</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>60.45701699032952</v>
+        <v>57.2890385025493</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>78.78168189892887</v>
+        <v>74.3388862331587</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>81.19875471112256</v>
+        <v>76.45144890389496</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.20845066621368</v>
+        <v>19.20707971461528</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>2.698544524673576</v>
+        <v>4.691898407294111</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>2.671450276028057</v>
+        <v>4.734043451275433</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>37.62879089076357</v>
+        <v>37.22120580550229</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>53.16878684405628</v>
+        <v>51.35194443208951</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>49.25537450984694</v>
+        <v>47.99681356514525</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>4.186246431684442</v>
+        <v>5.502650889474278</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>48.45587123090959</v>
+        <v>45.67075381535579</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>54.52706741069922</v>
+        <v>50.63191571616274</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>13.05817139752761</v>
+        <v>16.76984135559953</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>79.23656989286656</v>
+        <v>74.6838449993743</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>81.35351016320647</v>
+        <v>77.50349827227492</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>78.81179958938229</v>
+        <v>75.38152896838969</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>82.9667649114794</v>
+        <v>78.22091808484669</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>87.20566633041425</v>
+        <v>83.37813472832642</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>48.36578663219333</v>
+        <v>46.97411852381698</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>87.06999819578927</v>
+        <v>82.82108949475476</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>42.05444192994297</v>
+        <v>41.47170652282905</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>53.37320003649042</v>
+        <v>51.81129150320398</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>51.42744792625459</v>
+        <v>50.20575517440742</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>4.565305572811244</v>
+        <v>5.956724096563633</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>54.3254699319593</v>
+        <v>51.96464284068171</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>53.20996936424425</v>
+        <v>51.20500268366384</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>8.670929962893357</v>
+        <v>10.00891991926167</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>84.64667645762165</v>
+        <v>80.48838727730771</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>80.62905078996127</v>
+        <v>77.26676308215153</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>91.20130099820581</v>
+        <v>84.77136834958992</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>92.83722393311331</v>
+        <v>88.47647151704115</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>96.32767348075693</v>
+        <v>90.24763613140342</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>62.12756912772983</v>
+        <v>59.67198647639894</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>98.33563483940661</v>
+        <v>92.78171361078904</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>95.71263511986821</v>
+        <v>89.11752974168178</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>28.24413924361563</v>
+        <v>28.44137185459816</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>44.14253824371932</v>
+        <v>43.2081707235696</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>42.57974089226125</v>
+        <v>41.92473007874874</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>3.528143115001519</v>
+        <v>4.870311916286688</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>47.02321220220055</v>
+        <v>45.65137634434774</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>50.33411341698118</v>
+        <v>48.83364219931168</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>6.042486990830923</v>
+        <v>7.311905628171676</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>74.40495078992893</v>
+        <v>71.60453715702064</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>67.085897047847</v>
+        <v>64.78438461148707</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>62.70180060771828</v>
+        <v>59.36759436494355</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>71.5315836204548</v>
+        <v>67.54679526889643</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>73.37345397961192</v>
+        <v>69.1153358874223</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>17.88569857860331</v>
+        <v>18.81658295008772</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>1.610700613214437</v>
+        <v>3.619590902770071</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>1.018497810468357</v>
+        <v>3.158423675832658</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>30.45481367101824</v>
+        <v>30.48333731414363</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>51.68131494636717</v>
+        <v>48.878920145618</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>52.3452495978601</v>
+        <v>49.87802198326789</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>3.74979868866405</v>
+        <v>5.172871922769758</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>45.69746328830456</v>
+        <v>43.61765641848181</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>52.74636738621976</v>
+        <v>50.95016694660474</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>5.753181767314128</v>
+        <v>6.982066194065709</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>78.48795776846208</v>
+        <v>75.28771934997422</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>81.18542788365967</v>
+        <v>77.62741074136613</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>70.37305881193009</v>
+        <v>67.96290019187148</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>82.14100748771443</v>
+        <v>79.17318582006072</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>86.38180260735514</v>
+        <v>82.92953443055947</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.31952328622553</v>
+        <v>30.1379212422007</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>86.34436006781709</v>
+        <v>82.25220120928697</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>87.65037999386175</v>
+        <v>83.5670073999854</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>31.31119527891178</v>
+        <v>31.44900351075385</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>53.37691875270729</v>
+        <v>48.42571875208669</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>54.99381858790971</v>
+        <v>50.23484646976518</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>4.086868096318227</v>
+        <v>5.409485722669338</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>48.9699143494675</v>
+        <v>46.23274463346763</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>52.28724909832453</v>
+        <v>48.70719688084475</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>6.274463535962134</v>
+        <v>7.73050418399637</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>79.97628205910681</v>
+        <v>76.33732141334259</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>79.31891798187847</v>
+        <v>74.90574766088662</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>86.72830249555329</v>
+        <v>82.5453819095609</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>90.50988576710412</v>
+        <v>86.28911864046067</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>92.09505698125841</v>
+        <v>86.40090173428177</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.42624701473635</v>
+        <v>30.19674931579982</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>93.87536828676431</v>
+        <v>89.08247550629787</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>93.31539628350498</v>
+        <v>88.74315133569164</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>9.798063439590134</v>
+        <v>11.57916143538501</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>12.37752588967149</v>
+        <v>15.00816090266186</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>11.96596692431955</v>
+        <v>13.35212438160376</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>2.941288309850471</v>
+        <v>6.514710411970299</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>16.5086836728625</v>
+        <v>17.49857600875128</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>18.80229935105721</v>
+        <v>19.35907247726229</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>3.37548086777101</v>
+        <v>6.402076412193647</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>20.36005546815793</v>
+        <v>20.90962574848389</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>21.05122624557944</v>
+        <v>21.61259602601735</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.42129727320609</v>
+        <v>29.25617215112367</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>36.89649096592774</v>
+        <v>36.45840700337724</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>39.26875696169422</v>
+        <v>38.34671398033959</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>12.00886721036981</v>
+        <v>13.67612847854538</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>21.60975984806973</v>
+        <v>22.21563276600256</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>20.51848506856597</v>
+        <v>22.77338113243951</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>10.76242083595537</v>
+        <v>12.1948895482454</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.88194655516902</v>
+        <v>30.49323942679889</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>36.64014238031558</v>
+        <v>35.22499623543591</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>3.185925480412795</v>
+        <v>4.816832102202543</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>33.30031725109252</v>
+        <v>32.86824977198161</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>42.99638712835284</v>
+        <v>41.76064366064844</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>3.562636291896812</v>
+        <v>5.29883164713581</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>50.30371556526892</v>
+        <v>48.87978462335604</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>58.58025746019376</v>
+        <v>54.67653603075144</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>50.74443340282431</v>
+        <v>49.63298571519739</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>58.51624491417561</v>
+        <v>57.19365868062376</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>59.57946018138869</v>
+        <v>57.82764995776752</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>12.93232922264739</v>
+        <v>14.09803726178025</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>56.33495216451831</v>
+        <v>54.30410501311844</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>56.89643440771624</v>
+        <v>53.67385931292326</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>21.71021141257473</v>
+        <v>22.34296997053779</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>37.249072700966</v>
+        <v>36.4580727266422</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>47.75120694198029</v>
+        <v>44.93642536737201</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>4.032263373232716</v>
+        <v>5.540312081094694</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>47.5678836701066</v>
+        <v>45.68459584505807</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>56.04067222974847</v>
+        <v>53.59019658765816</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>7.947049977667064</v>
+        <v>9.253728854839675</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>71.31477717892319</v>
+        <v>67.81679937879812</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>71.13981399325715</v>
+        <v>67.14972973819144</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>75.40835556292885</v>
+        <v>71.33932445577238</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>83.10739380470567</v>
+        <v>77.76261811637245</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>82.64837302880866</v>
+        <v>77.26000641266313</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>36.98096888966924</v>
+        <v>36.45369739556241</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>85.77771061612566</v>
+        <v>81.13876759778336</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>90.79222681737514</v>
+        <v>85.88961200306218</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>11.33232935718679</v>
+        <v>12.49692443680363</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>13.67961724567143</v>
+        <v>14.87481312897458</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>10.90427027851468</v>
+        <v>12.74389187120897</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>1.64620923460857</v>
+        <v>3.402651869465856</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>14.27707492692351</v>
+        <v>15.79913467460276</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>19.10206695125214</v>
+        <v>19.69448322818258</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>4.822573511771889</v>
+        <v>6.379440117814092</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>15.89747150459494</v>
+        <v>16.81543384018191</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>15.85446914290678</v>
+        <v>16.68385988505262</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>18.41188230174677</v>
+        <v>20.76317195151647</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>21.50220986535648</v>
+        <v>22.12908970829031</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>19.18241658861695</v>
+        <v>19.97711367987631</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>11.74174225693706</v>
+        <v>13.94255101164562</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>15.16448190291995</v>
+        <v>16.25159646295285</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>11.54735151721115</v>
+        <v>14.19236904292298</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>2.844791093946441</v>
+        <v>4.523246362794907</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>6.031575334886092</v>
+        <v>9.508056601444398</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>9.819412280738494</v>
+        <v>11.44674223930881</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>0.8201731310534583</v>
+        <v>2.624052306642966</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>9.252684147764107</v>
+        <v>10.67051584297642</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>15.83746213768043</v>
+        <v>17.73327618003393</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>0.8201384718409876</v>
+        <v>2.624073901939436</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>15.06732964635996</v>
+        <v>15.82482693245004</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>30.56987785576779</v>
+        <v>30.0127418190197</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>10.03263083141629</v>
+        <v>11.44481740280283</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>31.80494014854726</v>
+        <v>32.37408243245414</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>45.78577823133083</v>
+        <v>45.54397682459267</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>2.557396596781906</v>
+        <v>4.254506015118931</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>20.31383147198259</v>
+        <v>20.84359883300143</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>15.28427725793275</v>
+        <v>16.19934876668041</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>3.420536503036434</v>
+        <v>5.149147907189676</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>13.56306560087611</v>
+        <v>15.11987528968645</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>36.26455980703851</v>
+        <v>35.43081155232458</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>0.8198390361971555</v>
+        <v>2.826611454920876</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>16.31669024179376</v>
+        <v>16.95942714670551</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>39.36286706471485</v>
+        <v>37.58415349829718</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>1.102167613077082</v>
+        <v>3.854120044707344</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>26.63905111370905</v>
+        <v>26.54890662167765</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>72.83805989666291</v>
+        <v>68.78288398428769</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>17.28064701223315</v>
+        <v>17.86188905366206</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>55.50202156554725</v>
+        <v>55.69714008448149</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>80.39299603611124</v>
+        <v>76.86538956709862</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>2.840819791609764</v>
+        <v>4.780432388585144</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>44.62974588057683</v>
+        <v>43.40265562381566</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>51.09227840131514</v>
+        <v>49.2270811913456</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>19.31240289388986</v>
+        <v>20.44001853700198</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>22.90462432712753</v>
+        <v>23.46374686818866</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>36.52807856761417</v>
+        <v>36.55735792202111</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>4.173487284507956</v>
+        <v>6.137444300247733</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>45.6666022898511</v>
+        <v>44.73170982672207</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>46.98919065447775</v>
+        <v>45.50259267336429</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>12.19902084762634</v>
+        <v>14.90377575921648</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>68.47339603883947</v>
+        <v>66.10369796936692</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>66.14846753309428</v>
+        <v>64.39874359203728</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>66.61924537170545</v>
+        <v>63.40799066135911</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>79.54439736524719</v>
+        <v>75.48289067738368</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>75.11411216543448</v>
+        <v>71.23813365694269</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>47.22144467995669</v>
+        <v>47.3240791813016</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>69.3120514561368</v>
+        <v>66.90819563895806</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>74.39981400691676</v>
+        <v>71.06594757440965</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>25.61086022100261</v>
+        <v>25.81454105831438</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>35.5540861619952</v>
+        <v>35.28111978964296</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>38.34106543023459</v>
+        <v>37.84375421109836</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>3.882532662831473</v>
+        <v>5.432095098549404</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>39.39999895688178</v>
+        <v>38.53916269714669</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>40.91232225951103</v>
+        <v>39.78451456597476</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>6.78077577003527</v>
+        <v>8.271393147608475</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>59.41554917120669</v>
+        <v>57.44305070907717</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>61.95548402107294</v>
+        <v>57.65339958597556</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>55.87327386177761</v>
+        <v>53.0975054137735</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>62.73039509114789</v>
+        <v>59.29923389467122</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>61.2441138326304</v>
+        <v>57.97486751606617</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>34.57865144098519</v>
+        <v>34.73491198138185</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>65.73618221925582</v>
+        <v>62.73757312742069</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>63.99413714717283</v>
+        <v>59.50251355646531</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>26.58365769690356</v>
+        <v>26.83717439406578</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.85197627827069</v>
+        <v>36.19552728424655</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>45.85652574128655</v>
+        <v>44.30282750585443</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>4.51370772771676</v>
+        <v>5.88817927733195</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>52.68585557304287</v>
+        <v>50.61269854615177</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>53.16372222564998</v>
+        <v>50.96243958033661</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>7.845749495061309</v>
+        <v>9.138859984141956</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>74.93449653601081</v>
+        <v>70.98655844410187</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>74.5211132073661</v>
+        <v>70.80030410138869</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>78.80891712596143</v>
+        <v>74.28995267992312</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>82.60052030981971</v>
+        <v>77.28316482674629</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>83.31579556781929</v>
+        <v>79.4268350526487</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>40.94927116235267</v>
+        <v>40.34028953560732</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>83.62610326264199</v>
+        <v>77.74527427468533</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>86.60229967534211</v>
+        <v>82.08156773062501</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>8.269475896463089</v>
+        <v>11.53218713777871</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>11.78808580970061</v>
+        <v>13.07003044430754</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>11.44670831519972</v>
+        <v>14.23210958111829</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>2.21908159878927</v>
+        <v>5.947473966674536</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>11.22838347967904</v>
+        <v>12.52044292042969</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>15.08948779969264</v>
+        <v>16.77790290315219</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>3.951775609287818</v>
+        <v>7.491872691761468</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>18.06372780832873</v>
+        <v>18.77828577665511</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>19.62779134375774</v>
+        <v>20.20050062319591</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>19.793813304931</v>
+        <v>20.14943450527108</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>24.49529289275443</v>
+        <v>24.72265024992817</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>27.86883315077982</v>
+        <v>27.33685041327134</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>8.019247828179441</v>
+        <v>10.13622162722523</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>17.25479069322832</v>
+        <v>17.70045300755305</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>18.74019905540882</v>
+        <v>19.135650326186</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>5.447829487158874</v>
+        <v>7.460505908937041</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>23.45943350206163</v>
+        <v>24.12971653128465</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.4703763249464</v>
+        <v>28.93226240574689</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>2.840721991773712</v>
+        <v>4.681417836945869</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>25.50735224684011</v>
+        <v>24.55554996222997</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>35.89610203216581</v>
+        <v>35.10049861187699</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>3.256737244317492</v>
+        <v>4.874748508991107</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>43.32196732352158</v>
+        <v>42.46467758646564</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>51.65828222669163</v>
+        <v>49.70942895488825</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>35.47415288621551</v>
+        <v>33.45974386903288</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>46.53374335232338</v>
+        <v>45.94809965109546</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>51.26702913867132</v>
+        <v>50.28176746272159</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>5.687311225379514</v>
+        <v>7.350464736166089</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>43.70985534422374</v>
+        <v>42.73852746848239</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>49.49931429554429</v>
+        <v>47.83260870923712</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>15.36174159136645</v>
+        <v>16.37251032058789</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>33.37633573555334</v>
+        <v>31.88852987061282</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>45.37085934225482</v>
+        <v>44.00773057350195</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>7.297340419814446</v>
+        <v>8.631297779442729</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>33.46925356386747</v>
+        <v>32.73198642538458</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>45.99057739302459</v>
+        <v>43.53838021654295</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>15.51866173587574</v>
+        <v>17.99019573533442</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>58.34212381403391</v>
+        <v>54.67366259656485</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>67.49478043585091</v>
+        <v>63.33024189282345</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>62.27104075308004</v>
+        <v>58.10014249299867</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>76.82492524240089</v>
+        <v>73.6678155338092</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>88.23057351103373</v>
+        <v>83.62910104792223</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>26.78538313295488</v>
+        <v>27.00615485144239</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>71.46403223675196</v>
+        <v>68.14982251800785</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>79.73761980388306</v>
+        <v>75.64972632838459</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>2.840662462850407</v>
+        <v>4.33689872869898</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>3.187543711985867</v>
+        <v>4.774183771664674</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>4.559355341065668</v>
+        <v>6.322971987601999</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>0.8194577273447585</v>
+        <v>2.623762498943822</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>3.944434450484078</v>
+        <v>5.45831612395633</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>7.431567750095212</v>
+        <v>8.564629515199961</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>0.8196820020780144</v>
+        <v>2.751715879419056</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>4.563734040197001</v>
+        <v>6.07267074652237</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>7.792560449323215</v>
+        <v>9.128496279412701</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>6.298361017808119</v>
+        <v>7.666302840371007</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>10.20677723820894</v>
+        <v>11.33248063699882</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>14.65292599003376</v>
+        <v>15.04984881884675</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>1.092734498828243</v>
+        <v>4.254110845861096</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>3.248001465198673</v>
+        <v>4.805246177714594</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>6.994254309709607</v>
+        <v>8.063927338903802</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>22.44700879167475</v>
+        <v>23.01622605939274</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>35.85024621707526</v>
+        <v>35.62104409056058</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>36.24807185255101</v>
+        <v>35.81867813818561</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>3.65303247568438</v>
+        <v>5.070193464258107</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>37.92949806864148</v>
+        <v>37.00739975708817</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>40.97581368841758</v>
+        <v>39.93607451653969</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>4.276141635144061</v>
+        <v>6.453461086415594</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>55.8113965154507</v>
+        <v>54.01120999189803</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>60.39896645832677</v>
+        <v>58.31805850423217</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>58.44322633513752</v>
+        <v>56.46736028402677</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>57.83705120750255</v>
+        <v>56.30290906974611</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>60.66954145097112</v>
+        <v>58.7331117942057</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>24.65586338576512</v>
+        <v>25.2030333397787</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>61.70952864428307</v>
+        <v>58.42507874825086</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>62.57973850086586</v>
+        <v>59.10182330263054</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>26.88259030565074</v>
+        <v>27.48250510587234</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>41.49877329013091</v>
+        <v>40.73263494739516</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>49.36345657581699</v>
+        <v>47.54365088978406</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>3.988666611490327</v>
+        <v>5.492572106981665</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>54.45384400240276</v>
+        <v>51.93943926066565</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>58.37566139366059</v>
+        <v>55.79691160755231</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>5.598192828445477</v>
+        <v>7.057249414846154</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>76.60436154526015</v>
+        <v>72.76317634297519</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>74.57755359969822</v>
+        <v>71.6018060510706</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>84.51118586398303</v>
+        <v>80.17428146138252</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>88.55299182232409</v>
+        <v>82.73319303534691</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>90.99630211002844</v>
+        <v>85.12286004070023</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>30.57621171302768</v>
+        <v>30.19125766215619</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>90.604034852588</v>
+        <v>85.55788080703473</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>85.99204943594654</v>
+        <v>81.64489628626919</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>13.01401229765207</v>
+        <v>14.7139185577193</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>16.65508883937885</v>
+        <v>17.97357253181841</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>16.32176229802028</v>
+        <v>17.88713984552366</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>2.277362347812829</v>
+        <v>5.844734012089365</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>16.6814250492738</v>
+        <v>17.66081837742963</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>20.02956431506642</v>
+        <v>20.46619298308574</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>5.447867060408182</v>
+        <v>7.241257605372706</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>21.8973887499461</v>
+        <v>23.07237500944624</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.88467684203029</v>
+        <v>24.61102779337898</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>23.51960153760495</v>
+        <v>23.8311399539964</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.69649201707453</v>
+        <v>32.59128340489305</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.17908047083989</v>
+        <v>31.93498693706131</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>11.38926306680724</v>
+        <v>12.79692927724774</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>22.89090569146052</v>
+        <v>23.26898173807385</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>24.91291401809148</v>
+        <v>25.11348211051924</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>2.846559438155946</v>
+        <v>4.594471419914488</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>10.54005403747798</v>
+        <v>12.20077220338362</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>22.4260987448766</v>
+        <v>23.0351116082443</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>0.8907135081864652</v>
+        <v>4.389728513027336</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>9.280265490316641</v>
+        <v>10.4480501649631</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>25.94897933469565</v>
+        <v>26.17167898228579</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>0.9659536405813363</v>
+        <v>4.046810459676657</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>16.0831482539457</v>
+        <v>16.85138165020701</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>42.64761263671905</v>
+        <v>41.33198099730402</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>13.13417885636282</v>
+        <v>14.50421930696817</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>30.96697186016418</v>
+        <v>31.03951053913318</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>40.05248185595597</v>
+        <v>39.51372101314178</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>2.63595973019202</v>
+        <v>4.312309188657686</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.18598097345457</v>
+        <v>28.94732242101791</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>38.22927019135847</v>
+        <v>37.4083585948115</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>20.98619805930564</v>
+        <v>21.49156256034895</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.44342416442684</v>
+        <v>28.64822658213691</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>40.78947261395957</v>
+        <v>40.02636365970013</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>3.623818440239319</v>
+        <v>6.928589458242811</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>25.85677341093029</v>
+        <v>25.60523275113594</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>35.65696307010228</v>
+        <v>34.74747894065457</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>12.99723522384345</v>
+        <v>14.02565409437052</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>47.33995012477879</v>
+        <v>45.67886931605512</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>60.80454158624634</v>
+        <v>58.47876561972694</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>52.02295910069338</v>
+        <v>50.09256374446799</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>62.22813447687415</v>
+        <v>58.12163742287906</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>71.34939499861665</v>
+        <v>68.21863985018624</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>35.570029838106</v>
+        <v>35.2170376236971</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>57.05020089366285</v>
+        <v>54.2806052024382</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>61.30937619881811</v>
+        <v>57.37392401687072</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>3.75586658723331</v>
+        <v>5.457257130222882</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>7.173154874512427</v>
+        <v>9.205088681933809</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>6.002147703070314</v>
+        <v>9.008421776830055</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>1.218748887098084</v>
+        <v>4.544465186281084</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>5.819590365799886</v>
+        <v>8.444642682233557</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>7.587319284395896</v>
+        <v>8.585903284461299</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>1.167551128655138</v>
+        <v>3.2123918848785</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.866462059762224</v>
+        <v>9.238788237450482</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>9.911581146666457</v>
+        <v>11.74917408889524</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>6.247358172815943</v>
+        <v>7.534287216254885</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>7.454273946563692</v>
+        <v>8.539955952529088</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>12.69699959836093</v>
+        <v>13.82154175829547</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>2.365284554406742</v>
+        <v>5.66219558799795</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>6.079343951705777</v>
+        <v>7.200120857898906</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>8.084867927410759</v>
+        <v>9.40634605016287</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>2.537538405216228</v>
+        <v>4.426888573501166</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>4.374202574378653</v>
+        <v>6.182973965178299</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>3.836217350424274</v>
+        <v>7.403497985184504</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>0.8197943844858209</v>
+        <v>2.752187621432004</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>3.724198350473607</v>
+        <v>5.409443237629084</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>5.548290749854779</v>
+        <v>6.995125591889764</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>1.270176858083325</v>
+        <v>3.046284680859554</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>4.941349971166478</v>
+        <v>6.698494833969871</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>9.22295664464054</v>
+        <v>10.37148816774671</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>4.497584142269634</v>
+        <v>6.213511580407978</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>7.842411620195595</v>
+        <v>9.591054901392919</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>9.703187767623351</v>
+        <v>11.06858343683232</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>0.8196517873208435</v>
+        <v>4.547084204576581</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>5.332271675151116</v>
+        <v>6.760108198961053</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>6.984535033731905</v>
+        <v>8.280960554816186</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>22.36367094247372</v>
+        <v>21.90845959005748</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>23.46598194692808</v>
+        <v>24.08975245168915</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.48259059420189</v>
+        <v>25.54176741463391</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>3.61577959534149</v>
+        <v>7.054380957958799</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>19.37703688639858</v>
+        <v>19.87261288838754</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>22.6326674506463</v>
+        <v>22.8477204722742</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.18277433294362</v>
+        <v>15.290192506905</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>31.36015869678365</v>
+        <v>31.02515596830166</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>33.76364461962586</v>
+        <v>33.26499761314054</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>43.08863356999901</v>
+        <v>41.54050193258038</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>46.6496200152387</v>
+        <v>45.27490339155389</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>51.04054488166091</v>
+        <v>49.30975428437085</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>30.07121338113808</v>
+        <v>29.79488860289198</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>33.3192524009085</v>
+        <v>32.77092079658443</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>37.56669774190642</v>
+        <v>36.72522759131324</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>19.37516018675773</v>
+        <v>20.37713926691016</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>32.00659017188096</v>
+        <v>30.62373370434491</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>37.25202271654641</v>
+        <v>36.80744881057867</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>3.712506041679518</v>
+        <v>5.372695161615383</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.34943405351421</v>
+        <v>27.41026147983409</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>30.36142490545361</v>
+        <v>29.7990561759928</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>6.891243132651777</v>
+        <v>8.721408300885791</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>48.16440909977315</v>
+        <v>47.12793874741368</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>50.53821794102464</v>
+        <v>48.09225668956535</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>50.02958768760332</v>
+        <v>48.73622624676416</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>60.31358372952249</v>
+        <v>58.44368448426242</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>63.8203472005795</v>
+        <v>61.32414698731739</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>34.91801784223244</v>
+        <v>34.70165352706801</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>62.05834261604937</v>
+        <v>59.77257917924513</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>68.99646108876556</v>
+        <v>65.80067777825548</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>16.90592835501185</v>
+        <v>17.8858691408441</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.14777600403673</v>
+        <v>28.23850640755164</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>30.99030490546449</v>
+        <v>31.45459045765274</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>1.657019442508332</v>
+        <v>3.580254120992961</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>16.9287440506908</v>
+        <v>17.43601409370338</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>21.54773052340276</v>
+        <v>21.53855519010951</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>4.282358801524136</v>
+        <v>6.177404075858597</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>35.74007580022895</v>
+        <v>34.82323079668185</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>37.63473246416754</v>
+        <v>36.52956407991522</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>38.02076405238453</v>
+        <v>37.22716819485957</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>46.83086866802071</v>
+        <v>46.07229836620853</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>45.44171561772507</v>
+        <v>44.22063858787196</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.06579616805699</v>
+        <v>26.2974311616676</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>51.08265933753593</v>
+        <v>48.81772823135289</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>53.3827890655629</v>
+        <v>50.9106904061683</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>26.80712216802597</v>
+        <v>27.34678271417773</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>37.67622996037249</v>
+        <v>37.19077088464174</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>48.40951869680236</v>
+        <v>47.22527415896953</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>5.007360279211756</v>
+        <v>6.440088859891272</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>36.18425445180147</v>
+        <v>35.11103587190442</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>40.42055383458474</v>
+        <v>38.87382543823145</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>10.97121592792852</v>
+        <v>13.57837859312031</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>64.69748561464141</v>
+        <v>61.72144545912203</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>65.39469048812705</v>
+        <v>62.16434728671742</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>79.80497329942203</v>
+        <v>74.26583743453472</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>83.534619456591</v>
+        <v>79.52586606598332</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>86.88905803513933</v>
+        <v>82.4081991031812</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>44.53982706719839</v>
+        <v>43.59974502738179</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>76.24130414198932</v>
+        <v>72.31918162322785</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>80.99548039770445</v>
+        <v>75.37724089610541</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>20.50860752226146</v>
+        <v>21.5098668574479</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>34.63505354439467</v>
+        <v>34.78177154883281</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>37.99146011542251</v>
+        <v>37.72833799515633</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>5.648853947525055</v>
+        <v>7.130416295943782</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>42.68549101832006</v>
+        <v>41.69018795041741</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>43.0666740806105</v>
+        <v>42.07568066114192</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>10.08468282389349</v>
+        <v>13.06383941148681</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>60.15070593831962</v>
+        <v>58.5554853046403</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>62.59954578990404</v>
+        <v>60.47598951559026</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>71.70101380342919</v>
+        <v>68.55616658677256</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>72.81194756371397</v>
+        <v>68.17229291599332</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>74.80364205735162</v>
+        <v>71.63163172872925</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>23.91639670107865</v>
+        <v>24.60274802676622</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>70.3985077087348</v>
+        <v>67.49080801194245</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>71.41071031257015</v>
+        <v>68.54739639834699</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>18.9798961496715</v>
+        <v>19.93237812704678</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>34.31648502276504</v>
+        <v>34.40086884892811</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>40.79065499414921</v>
+        <v>39.69026277153056</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>3.452933326836909</v>
+        <v>4.871619452909282</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>36.63049548147553</v>
+        <v>35.90845381142441</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>38.36003132273153</v>
+        <v>37.20263444278396</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>4.058944681874841</v>
+        <v>5.695358910078276</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>55.4871620357151</v>
+        <v>52.79658108815831</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>65.54311895240936</v>
+        <v>62.78587158832636</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>56.46869902951103</v>
+        <v>54.88112883370996</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>63.94991524662427</v>
+        <v>62.21923333135526</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>57.2743863996602</v>
+        <v>55.64821973754862</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>19.27616156558658</v>
+        <v>19.9619340059433</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>63.87611505363903</v>
+        <v>59.51793617433907</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>69.86615427808397</v>
+        <v>66.77307477780249</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>22.01863672867177</v>
+        <v>22.62172289950935</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>39.13631168131755</v>
+        <v>38.51689648844997</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>43.93149377397683</v>
+        <v>43.07857750778152</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>3.595341093453211</v>
+        <v>5.069170745430966</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>47.84723128028439</v>
+        <v>46.06962236558315</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>46.90368119963063</v>
+        <v>45.26060314819872</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>4.141242948241725</v>
+        <v>5.94140395476407</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>67.05100597908347</v>
+        <v>64.28960531157574</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>69.83985688295316</v>
+        <v>66.74098993029</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>80.84227900614388</v>
+        <v>77.19286460602314</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>81.81997800133968</v>
+        <v>76.59879585120609</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>86.35946266467268</v>
+        <v>82.5828352357905</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>21.7223262663321</v>
+        <v>22.24206664446498</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>80.28200330362347</v>
+        <v>76.12516353157517</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>83.46424052920105</v>
+        <v>77.62194482876924</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>26.59521380978898</v>
+        <v>27.1956757191069</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>31.23555897845399</v>
+        <v>31.5336798249952</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>36.59123759997038</v>
+        <v>36.15116432782162</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>4.052138935976537</v>
+        <v>5.635761439765083</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>44.67243433466891</v>
+        <v>43.44756742243594</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>44.4077929072645</v>
+        <v>43.3197229810046</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>9.277711808013798</v>
+        <v>10.61401457381499</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>61.69121239845925</v>
+        <v>59.8724062632724</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>61.55914108962156</v>
+        <v>59.65234816782315</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>62.10893809602929</v>
+        <v>59.12984884958282</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>62.98409436962461</v>
+        <v>59.99322555602045</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>66.56937779200919</v>
+        <v>63.1567623492306</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>43.82156895371612</v>
+        <v>43.4097772692382</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>64.48213306595679</v>
+        <v>62.46626390861577</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>72.62361838843046</v>
+        <v>69.01831166415336</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>27.97274388400573</v>
+        <v>28.28249696221674</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>38.86294222790962</v>
+        <v>38.41539167221462</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>37.30848547767228</v>
+        <v>36.99659083293066</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>2.711491720423357</v>
+        <v>5.083170896061105</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>37.01890092544541</v>
+        <v>36.33194275563123</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>38.45262844312777</v>
+        <v>37.24530722947144</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>3.837152279088233</v>
+        <v>7.320754467910842</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>56.64552542556378</v>
+        <v>54.73429485606964</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>64.80905943856892</v>
+        <v>62.81700257496482</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>62.00445753584385</v>
+        <v>59.913447200927</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>63.42624608620212</v>
+        <v>61.4881836518837</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>62.57995881059789</v>
+        <v>61.63910152662164</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.90838570723814</v>
+        <v>30.02512218248475</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>69.0836464939205</v>
+        <v>65.92219064796063</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>70.70185633076983</v>
+        <v>67.55021807391184</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>30.84072026134339</v>
+        <v>30.84716884411644</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>42.44224094638733</v>
+        <v>41.47496772180194</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>43.34192588157616</v>
+        <v>42.84882302798057</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>3.882959242755298</v>
+        <v>5.533903356497813</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>48.05314937095585</v>
+        <v>46.31191602734621</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>48.89906796455872</v>
+        <v>47.190728245236</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>5.434088192662298</v>
+        <v>7.30467716042487</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>72.06526088936147</v>
+        <v>68.85194487614942</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>70.2432376167929</v>
+        <v>67.58459283045417</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>83.80571910327609</v>
+        <v>79.62733510847571</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>85.52179232234094</v>
+        <v>81.98329825380765</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>85.69861314173174</v>
+        <v>81.95595866839128</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>30.73879481595121</v>
+        <v>30.67878778035091</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>81.44878426648054</v>
+        <v>77.29082241881133</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>81.91089553804079</v>
+        <v>78.04403262410831</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>27.77252458994793</v>
+        <v>28.43468258483098</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>34.08779464210215</v>
+        <v>33.86723462238925</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>38.16540646466625</v>
+        <v>36.39072622649844</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>10.26933109196122</v>
+        <v>11.61281372720699</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>65.21875964198455</v>
+        <v>63.02730138572417</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>62.58074494481054</v>
+        <v>60.50499313611045</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>9.731907025571555</v>
+        <v>11.56259371914887</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>64.61141050630735</v>
+        <v>60.75438301307756</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>62.5346141501006</v>
+        <v>59.23984914167709</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>70.06118133127285</v>
+        <v>64.79254745919224</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>71.38392390682867</v>
+        <v>67.75542624735073</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>71.57567421711192</v>
+        <v>67.78919000885222</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>54.06362446365374</v>
+        <v>53.37620412908059</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>68.24354209988074</v>
+        <v>65.55756685495459</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>74.81299132104138</v>
+        <v>71.80616361726493</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>31.10635015324704</v>
+        <v>31.1188510397963</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>38.671114596621</v>
+        <v>38.12147088206171</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>38.81203705186726</v>
+        <v>38.54255132125659</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>39.34378232511521</v>
+        <v>39.17694334851244</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>56.8374838685813</v>
+        <v>55.16333117675739</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>53.71402191087973</v>
+        <v>52.24357595423464</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>7.255336799057336</v>
+        <v>8.669437646022569</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>58.94368869422013</v>
+        <v>56.59531605120511</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>61.69863480031723</v>
+        <v>60.92511832805137</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>58.7040976008559</v>
+        <v>56.87479656347734</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>61.56437301057503</v>
+        <v>59.63648788219794</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>60.46683463118688</v>
+        <v>58.74661584450926</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>36.03425483827399</v>
+        <v>35.52506829872775</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>65.17677767257868</v>
+        <v>61.23718870599353</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>69.13798971867604</v>
+        <v>66.17376503637017</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>35.64414431775582</v>
+        <v>35.18315595241329</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>42.38521384223939</v>
+        <v>41.36225819406387</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.66130975576642</v>
+        <v>42.1807523988926</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>40.85054940466578</v>
+        <v>40.52264994537612</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>66.03838660306792</v>
+        <v>63.39284489907283</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>59.43732064785947</v>
+        <v>57.33241316018989</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>7.392747970890404</v>
+        <v>8.856346599515838</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>71.87312443546094</v>
+        <v>68.50607682543912</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>68.88333328364051</v>
+        <v>66.36708914497552</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>90.56797283750984</v>
+        <v>85.68290869945855</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>85.30514054468506</v>
+        <v>81.53465436190157</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>87.98972762884824</v>
+        <v>84.09099342763858</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>44.50341663976363</v>
+        <v>42.90236026936645</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>83.68207479749026</v>
+        <v>79.35063909624211</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>85.60392236505865</v>
+        <v>81.32895895744655</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>15.61377606128801</v>
+        <v>18.34710854517603</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>35.73723274928817</v>
+        <v>35.44627839401308</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>38.86510589943472</v>
+        <v>38.29333509616985</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>2.840226547873659</v>
+        <v>4.49011972157199</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>37.50375182019055</v>
+        <v>37.15859037679084</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>47.29538331747074</v>
+        <v>45.5666138026199</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>3.532996924013446</v>
+        <v>5.17572284869776</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>62.78972034878794</v>
+        <v>60.65914394082981</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>65.55377954165567</v>
+        <v>63.12945753176275</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>70.20681350811481</v>
+        <v>67.15755908157087</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>72.33090900390806</v>
+        <v>67.39055614237324</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>77.14779709722856</v>
+        <v>73.51829209026428</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>10.19579102482223</v>
+        <v>11.59357080129015</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>71.19449405893323</v>
+        <v>68.24980617003607</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>72.89215341325146</v>
+        <v>69.56345619889575</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>13.08240997562194</v>
+        <v>14.17419453742443</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>36.62789953846032</v>
+        <v>35.40110546526406</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>36.72171434629755</v>
+        <v>36.10094913057168</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>3.089215296696455</v>
+        <v>4.742735227160612</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>37.62977474270333</v>
+        <v>37.19004103182733</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>36.26796230406777</v>
+        <v>35.242028059913</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>3.534534977020247</v>
+        <v>5.332114056370479</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>57.13196553803967</v>
+        <v>53.98837979866462</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>61.50765900527526</v>
+        <v>58.92500804076577</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>57.74171416666261</v>
+        <v>55.59246436336936</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>65.67477679832803</v>
+        <v>63.52787412386561</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>58.67826717133089</v>
+        <v>56.92604593848053</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>8.435510386178301</v>
+        <v>9.841420869914447</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>54.05592905210175</v>
+        <v>52.89953327236384</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>68.91510071846071</v>
+        <v>65.82926875615033</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>13.23522761222878</v>
+        <v>14.32703103626789</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>39.24541733081715</v>
+        <v>38.56598743388527</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>42.53473867286971</v>
+        <v>41.51912903104851</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>2.171627194482411</v>
+        <v>4.805532299844906</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>46.96723768795202</v>
+        <v>45.43156914735103</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>47.41016452486704</v>
+        <v>45.50261540076718</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>3.208320153327271</v>
+        <v>5.140212830782581</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>67.88141349167245</v>
+        <v>65.08636396558344</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>68.50265728541063</v>
+        <v>65.63674526736206</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>80.79721463933048</v>
+        <v>77.30708332084981</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>82.09128669425979</v>
+        <v>76.94150358866293</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>86.72043568175017</v>
+        <v>82.61101734303332</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>2.650614666934434</v>
+        <v>4.693167441511378</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>79.87532796938166</v>
+        <v>74.9251959345564</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>84.02003735183999</v>
+        <v>78.16352329043062</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>14.31302676705679</v>
+        <v>15.43366198080737</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>17.78006496707885</v>
+        <v>18.85054000105817</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>16.68961595403881</v>
+        <v>17.99559196312202</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>3.255657285500515</v>
+        <v>6.249091730085333</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>18.43580908723477</v>
+        <v>19.14164557981807</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>19.41967554995185</v>
+        <v>19.66295598062938</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>7.256126510509446</v>
+        <v>10.43290056045111</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.54097021174874</v>
+        <v>26.8309013574822</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.85288032725662</v>
+        <v>28.49089431014723</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.18859077632427</v>
+        <v>29.17364910906859</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>33.40065219380604</v>
+        <v>33.13053542534124</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>37.27356177141989</v>
+        <v>36.38342024626969</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>16.9018282283631</v>
+        <v>19.24335898308607</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>24.44373660502168</v>
+        <v>24.809285285089</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.83338176883735</v>
+        <v>25.76950175849399</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>10.23534438068098</v>
+        <v>11.61618038330162</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>31.90827317257101</v>
+        <v>31.97849824352919</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>36.70693910214288</v>
+        <v>35.12800447802629</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>3.343119235787224</v>
+        <v>4.884944505255387</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>34.1983348485446</v>
+        <v>33.65372695620928</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>41.28985550760927</v>
+        <v>38.21554368918596</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>4.205164223778688</v>
+        <v>5.740449972999073</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>53.45136403346111</v>
+        <v>51.69882094793225</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>63.46155274860828</v>
+        <v>60.4615533919882</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>52.75097978031397</v>
+        <v>51.28019800629713</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>58.43259387062945</v>
+        <v>56.89280890456557</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>61.14028127895997</v>
+        <v>57.17810886682145</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>9.919597880027585</v>
+        <v>11.09262872560032</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>56.20628634656617</v>
+        <v>52.89356348206903</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>64.58265877258727</v>
+        <v>61.59536485570666</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>18.50801146595396</v>
+        <v>19.31237428651671</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>40.68730400059111</v>
+        <v>38.28227992925621</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>47.20841198086348</v>
+        <v>45.80586290171368</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>5.784100738387924</v>
+        <v>7.204768301009679</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>45.533800169698</v>
+        <v>44.29042925134114</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>51.92052693104333</v>
+        <v>49.45096726446685</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>12.88369778120828</v>
+        <v>13.88503149622314</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>69.2947469976057</v>
+        <v>66.33644783568624</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>75.58544778338121</v>
+        <v>71.77141617967288</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>74.7013579510305</v>
+        <v>71.48382543151209</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>75.00317911041341</v>
+        <v>71.82518113012608</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>86.59231507280438</v>
+        <v>81.90074778722926</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>30.15259271150957</v>
+        <v>29.9218622226469</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>73.87769546904536</v>
+        <v>70.5731523708763</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>84.67577133742552</v>
+        <v>78.48909795638465</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>13.34475258027292</v>
+        <v>14.28136604708082</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>15.9844954725171</v>
+        <v>16.50385103469723</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>16.56368999486473</v>
+        <v>17.71355935465492</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>3.086580048138394</v>
+        <v>4.690491963853614</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>16.9077481209894</v>
+        <v>16.97010875170744</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>18.80605870529276</v>
+        <v>18.68787970348273</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>6.685113316601594</v>
+        <v>8.209530369679829</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>24.72163094814063</v>
+        <v>24.44824001162823</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.31875968275092</v>
+        <v>28.68666956821126</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>43.40658003462872</v>
+        <v>42.13972754850668</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>53.80363985639988</v>
+        <v>51.78869629618919</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>61.02745090299678</v>
+        <v>58.46915926810861</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>16.4949880276185</v>
+        <v>17.16735303277878</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.00488495361915</v>
+        <v>27.8090195177558</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>30.6435417231059</v>
+        <v>29.6713454616761</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>5.010759348449458</v>
+        <v>6.311547092720936</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>12.62667148483108</v>
+        <v>13.46732416417008</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>34.68739848882743</v>
+        <v>34.04971144474146</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>3.248409623863171</v>
+        <v>4.594543570966135</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>11.73266382281938</v>
+        <v>12.21864052432733</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>61.19198770718666</v>
+        <v>58.24961768286818</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>2.556190114364036</v>
+        <v>4.311220662618091</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.34481800442161</v>
+        <v>27.87048816522284</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>60.89553397356532</v>
+        <v>57.51700793542154</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>34.14262590261725</v>
+        <v>34.02010593233651</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>48.60159985959842</v>
+        <v>48.00904982855342</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>60.57430132912371</v>
+        <v>57.82855299958547</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>5.618956951970727</v>
+        <v>6.986522840684486</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>47.12878026803021</v>
+        <v>46.00524944002879</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>64.12859655017724</v>
+        <v>61.0153457969695</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>18.42503281872756</v>
+        <v>18.86957815092695</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.9703092973239</v>
+        <v>31.14224616789962</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>41.26246588342298</v>
+        <v>39.52992869133703</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>3.75428655258531</v>
+        <v>5.217394466509795</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>14.80296876560608</v>
+        <v>15.59773110703625</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>48.89303664601579</v>
+        <v>46.74567634924998</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>6.503252667028939</v>
+        <v>6.833428487627806</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>44.17423854005865</v>
+        <v>42.56137751840787</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>70.40036845645128</v>
+        <v>66.51090361012993</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>74.90554890938512</v>
+        <v>71.6833786739615</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>74.44243311839654</v>
+        <v>71.43875655236403</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>86.57310918641255</v>
+        <v>82.14912599356092</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>14.23768478757924</v>
+        <v>15.13374886129404</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>55.6641268533257</v>
+        <v>55.03235505179772</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>84.65301232210442</v>
+        <v>79.84682072627768</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>25.69742588860013</v>
+        <v>26.43910619577289</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>31.3010587803878</v>
+        <v>31.62873095336055</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>35.44514114415997</v>
+        <v>35.54404372277585</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>4.931872242311698</v>
+        <v>6.478252638207898</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>48.1243280784565</v>
+        <v>45.40569563594877</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>45.25840791265849</v>
+        <v>44.12695919358451</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>10.86355800609513</v>
+        <v>13.90359393051137</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>64.51968059902126</v>
+        <v>61.10824672876845</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>61.46645931770702</v>
+        <v>59.10165792375476</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>61.43924611936481</v>
+        <v>56.80654343370522</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>67.62451790556031</v>
+        <v>64.31041844673854</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>69.79650562657147</v>
+        <v>66.18521117120233</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>42.28627226963872</v>
+        <v>42.4200289534547</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>60.86325421564831</v>
+        <v>59.23087717631813</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>73.50359540548916</v>
+        <v>69.40798177656488</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>31.38900174257559</v>
+        <v>31.66768533484518</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>38.69665140739191</v>
+        <v>38.16105825317423</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>40.29803425017693</v>
+        <v>38.88232487146647</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>4.039669166576488</v>
+        <v>5.391464033515835</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>40.71537028889333</v>
+        <v>39.63139517535846</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>38.70752211420564</v>
+        <v>37.50440860977738</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>5.64222548049165</v>
+        <v>7.175062934268478</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>58.92563145398837</v>
+        <v>55.92778767597983</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>60.29949518550627</v>
+        <v>57.8324934144912</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>62.16233376946643</v>
+        <v>59.9677621355771</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>60.74594380065499</v>
+        <v>57.86368630666476</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>62.29770583395799</v>
+        <v>58.77793159201157</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>34.10061932587897</v>
+        <v>33.82402368225059</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>65.06634675485603</v>
+        <v>60.64793705138595</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>64.37691537185188</v>
+        <v>60.23593506614223</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>30.2939054863201</v>
+        <v>30.43859393749693</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>40.53470287599425</v>
+        <v>39.50670147666329</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>42.3509245251234</v>
+        <v>41.36604097681315</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>4.725062265822025</v>
+        <v>6.216405993414689</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>51.58965707844443</v>
+        <v>49.58606082442009</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>46.31115088077695</v>
+        <v>44.7524429842334</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>5.843598736521059</v>
+        <v>7.354819698495998</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>73.16871859327949</v>
+        <v>69.80759283860216</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>72.2292047861815</v>
+        <v>69.07069311674559</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>85.7255405006569</v>
+        <v>81.36744918936799</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>83.13701161939568</v>
+        <v>78.49621639980472</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>81.31327546000458</v>
+        <v>76.55516151966788</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>40.8060464903715</v>
+        <v>40.09959895206633</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>79.75498649900959</v>
+        <v>75.68935153389327</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>81.21497700025867</v>
+        <v>77.19288454884764</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>15.53747246975474</v>
+        <v>16.92842706608438</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>38.09333503766941</v>
+        <v>37.67035091323928</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>37.43801719983311</v>
+        <v>36.04294376060697</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>3.587894280219395</v>
+        <v>5.123601949607426</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>45.44387646558434</v>
+        <v>44.05329165063138</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>45.89563566182576</v>
+        <v>43.27159873403657</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>3.915548961284159</v>
+        <v>5.447114358741175</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>63.20132951612456</v>
+        <v>60.69717700442629</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>64.80698286178762</v>
+        <v>62.20508158081748</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>64.41051762501377</v>
+        <v>61.46847145132472</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>73.89202638380067</v>
+        <v>70.36064500877706</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>73.35644270805761</v>
+        <v>68.08780491442367</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>9.954165638663667</v>
+        <v>11.43651821981753</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>68.49781542137396</v>
+        <v>65.59943886565414</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>73.49311365206592</v>
+        <v>70.24831449451253</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>13.52652923339075</v>
+        <v>14.67494823128172</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>36.01114946088454</v>
+        <v>34.54033881866197</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>36.82665722780114</v>
+        <v>36.33804903348296</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>3.072399504103483</v>
+        <v>4.800720345430328</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>36.73331570893118</v>
+        <v>36.02197345521647</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>36.78281461067365</v>
+        <v>35.53478054338679</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>1.5362000556647</v>
+        <v>5.254588096466509</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>53.1289697711743</v>
+        <v>51.50578849640797</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>59.77980453973303</v>
+        <v>57.28893784064531</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>61.1745740843392</v>
+        <v>59.2236016550557</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>62.20284019809071</v>
+        <v>58.79525995245599</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>61.11939156574635</v>
+        <v>59.07124176291816</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>8.759068481569756</v>
+        <v>10.06350672421325</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>65.00269886295425</v>
+        <v>60.91409874601707</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>66.35090796029499</v>
+        <v>62.11622342914491</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>12.56312720766283</v>
+        <v>13.96724758265646</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>38.95420045971457</v>
+        <v>36.8792770526735</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>44.14857168970875</v>
+        <v>41.93122874375682</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>3.171924870481284</v>
+        <v>5.116108101907084</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>47.54772367122789</v>
+        <v>46.02251330879822</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>48.21654133890701</v>
+        <v>45.54216064812088</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>3.475666885565193</v>
+        <v>5.14165318619283</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>66.28175582879268</v>
+        <v>63.48999383610688</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>72.70383291363072</v>
+        <v>69.44516229784614</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>77.3834376971689</v>
+        <v>74.00140195000679</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>78.70061402141133</v>
+        <v>74.37157847883927</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>84.53789076509921</v>
+        <v>80.12020859768786</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>8.901348543426995</v>
+        <v>10.55149300812888</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>74.23978729511687</v>
+        <v>70.69087902370745</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>82.82490279474126</v>
+        <v>78.84318701865553</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.444</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.48</v>
+        <v>17.137</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.889</v>
+        <v>0.882</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.566000000000001</v>
+        <v>9.879</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.965</v>
+        <v>4.038</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>16.81711050548196</v>
+        <v>17.25234637903751</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20.20573622312739</v>
+        <v>22.38270766642136</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>18.07352462197196</v>
+        <v>21.0522570428747</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5.035370957531352</v>
+        <v>-1.412757687281093</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.12349076898638</v>
+        <v>22.28894028474473</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.17220375354254</v>
+        <v>22.06876861334268</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.853652756018658</v>
+        <v>2.837071020310233</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.18907094921173</v>
+        <v>29.50971411437087</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.01204908349642</v>
+        <v>29.1947435670256</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30.99043559820665</v>
+        <v>30.93630822892289</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36.30658435751533</v>
+        <v>37.4436937207598</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36.67644228130566</v>
+        <v>41.15465218609156</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.42645383330849</v>
+        <v>14.25475833892627</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.16933296776829</v>
+        <v>30.3219638097009</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.36530979171326</v>
+        <v>25.54865126674674</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.76430731557502</v>
+        <v>20.63559833664135</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>37.44565595605987</v>
+        <v>39.17960703258616</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>41.22736888360913</v>
+        <v>44.75499875951682</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.115165334424173</v>
+        <v>6.919398716374833</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>32.66028519184492</v>
+        <v>35.66565227767245</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>42.53617586842792</v>
+        <v>49.87276165603153</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6.484060371804713</v>
+        <v>8.342846623799232</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>59.88733489825599</v>
+        <v>60.73257100029271</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>71.53896575424739</v>
+        <v>74.02541340465153</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>60.98457134266435</v>
+        <v>61.07048584546116</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>71.70919391432479</v>
+        <v>73.35437659814093</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>74.02341622042789</v>
+        <v>82.06855508487129</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>17.14997408303734</v>
+        <v>21.09030401553867</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>78.35095006235896</v>
+        <v>81.16557398783245</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>82.56748783423069</v>
+        <v>84.19830060929274</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.36359502718741</v>
+        <v>31.17912797069275</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>48.26442088708238</v>
+        <v>51.34087067559543</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>50.07562062070217</v>
+        <v>53.28577294269315</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>7.314516458950116</v>
+        <v>10.46022300171449</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>38.69594646986362</v>
+        <v>44.57996213448183</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>52.70595319361576</v>
+        <v>52.83120052615457</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>16.06160772209427</v>
+        <v>17.06325365232711</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>77.86293613837208</v>
+        <v>79.89433382482524</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>77.2724628847979</v>
+        <v>80.00192701340457</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>82.47366206830395</v>
+        <v>89.77550897914979</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>88.63446900661856</v>
+        <v>99.11760085628435</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>92.99599292163418</v>
+        <v>102.1773138070584</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.53803741167008</v>
+        <v>40.25235879330231</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>96.31438568938117</v>
+        <v>100.2772871438684</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>96.58700695101696</v>
+        <v>100.6245215240298</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.09611077367278</v>
+        <v>9.417904645851134</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>45.60499059528854</v>
+        <v>43.25023920755719</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.60195073876593</v>
+        <v>42.10580937462504</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.659512538805096</v>
+        <v>2.392856430030275</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>43.10624202898801</v>
+        <v>47.05596285970083</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>47.86421079696477</v>
+        <v>47.82120426590616</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5.257623365038871</v>
+        <v>3.222935482785612</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>65.63511039798837</v>
+        <v>67.4996889122405</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>62.9984075658238</v>
+        <v>67.55409185944794</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>62.59755593942338</v>
+        <v>64.00009407799257</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>63.78635381189379</v>
+        <v>70.11683138102596</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>64.67107119756079</v>
+        <v>71.33240314553879</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>9.862800216430553</v>
+        <v>10.02854538191222</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>63.82562541351578</v>
+        <v>65.79003944167783</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>67.45568319323837</v>
+        <v>66.45278345153075</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10.83985714405534</v>
+        <v>13.15745636124984</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>42.97043628547266</v>
+        <v>42.95107238084501</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>43.76029769137435</v>
+        <v>47.65396527654859</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4.659729215433405</v>
+        <v>5.647985420475433</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>36.06478325583404</v>
+        <v>39.79378959550623</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>43.71559445977112</v>
+        <v>48.56339744906359</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5.216478746681968</v>
+        <v>7.7686740330311</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>63.96034162834712</v>
+        <v>65.0531356874494</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>78.61435157270765</v>
+        <v>79.70051458521132</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>62.8864822528239</v>
+        <v>63.4118327710855</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>73.70600114035742</v>
+        <v>75.54661316713897</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>77.8766999195787</v>
+        <v>78.67355776458585</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>7.418760095923176</v>
+        <v>9.828298119116582</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>74.67399919778926</v>
+        <v>75.16590912919712</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>79.20156313836702</v>
+        <v>80.1316363621478</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>10.85765258358925</v>
+        <v>12.62035995692364</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>49.38176349566449</v>
+        <v>48.16009959674565</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>49.07523160753618</v>
+        <v>49.9144769184383</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4.651823615099506</v>
+        <v>4.113017999278316</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>47.78345659432929</v>
+        <v>50.64617120442198</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>53.36142077976331</v>
+        <v>57.10045031791928</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5.157178831910663</v>
+        <v>6.366169380038567</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>79.61724436019452</v>
+        <v>81.73186156917784</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>79.40177557132537</v>
+        <v>89.35857012677889</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>85.40534627568459</v>
+        <v>88.24160083601042</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>91.75919498058033</v>
+        <v>99.49434868153213</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>93.45107442114534</v>
+        <v>98.61657875977673</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>8.333039206191447</v>
+        <v>10.12773192645833</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>89.47087403537112</v>
+        <v>91.92378438473335</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>91.04458673663748</v>
+        <v>93.36819344419376</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>38.87924557108046</v>
+        <v>36.06703907078992</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>42.84888172203485</v>
+        <v>47.07892771770145</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>42.31792406155455</v>
+        <v>47.80956164638262</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5.498548324700529</v>
+        <v>7.793824440457339</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.31141414696342</v>
+        <v>47.38145207328323</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>45.18007746374614</v>
+        <v>47.43205270158266</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>7.14349418264273</v>
+        <v>9.262899728164868</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>69.14494678420063</v>
+        <v>69.02087020257655</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>62.15737118435804</v>
+        <v>64.14830921552523</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>57.46462935789921</v>
+        <v>63.99320889733518</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>74.52159375938209</v>
+        <v>75.20170057328818</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>72.42611745823592</v>
+        <v>73.03274114280185</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>31.71526625340129</v>
+        <v>28.91769576440526</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>65.3183975565353</v>
+        <v>65.14764611414792</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>65.22364615753096</v>
+        <v>65.32815647418298</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.18085726316946</v>
+        <v>26.92647131931672</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>43.78983928772567</v>
+        <v>48.43722647940857</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>45.21067079177497</v>
+        <v>50.54474909660493</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>5.233583133890431</v>
+        <v>7.785455706543274</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.76345503747045</v>
+        <v>44.93985447410195</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>44.705520616358</v>
+        <v>49.99749773035685</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6.736177366140421</v>
+        <v>9.638451663488279</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>68.79408505713872</v>
+        <v>70.79100929066196</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>79.19619030844569</v>
+        <v>80.08456310152482</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>67.03043405087308</v>
+        <v>67.61251219381199</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>78.51959675978921</v>
+        <v>80.54274645606647</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>78.72707237772181</v>
+        <v>79.83266111643033</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>31.47930020889491</v>
+        <v>29.3148625898423</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>74.73954496472047</v>
+        <v>78.17353005839945</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>76.880891025211</v>
+        <v>78.40719917083352</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>38.10693315828357</v>
+        <v>35.44934191249853</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>50.09282563952742</v>
+        <v>54.81603305244899</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>48.9472968684675</v>
+        <v>54.53002530876715</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>5.646826047749119</v>
+        <v>8.349990396095887</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>51.74336705855947</v>
+        <v>56.09979961009081</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>51.6845128149252</v>
+        <v>58.36957048938359</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>8.111032975257498</v>
+        <v>10.53491513701689</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>76.78919382190216</v>
+        <v>83.68545932971323</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>75.51783920643697</v>
+        <v>85.9529753366931</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>84.07441537778783</v>
+        <v>92.84161602236205</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>87.49519096652321</v>
+        <v>98.31053289005285</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>88.58132428505183</v>
+        <v>100.0971218183911</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>39.91763458998854</v>
+        <v>37.99993000945736</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>87.71289814791135</v>
+        <v>95.3711020958503</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>88.08484959403336</v>
+        <v>93.74483966619135</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>16.48379158202535</v>
+        <v>17.70078603342401</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>20.92760422963989</v>
+        <v>23.81471590363248</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>20.62893167659293</v>
+        <v>24.06905121305695</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>5.944350337801747</v>
+        <v>0.1687003398779865</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>19.86018318533164</v>
+        <v>23.43543128278428</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>22.83492331319625</v>
+        <v>25.54723645363624</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>9.5364959009103</v>
+        <v>5.327711773219296</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.97642611239666</v>
+        <v>32.72604164733271</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.55314503529037</v>
+        <v>33.00465773106053</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>32.22944876072211</v>
+        <v>36.96712621546108</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>35.12982756264122</v>
+        <v>40.9398221051559</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>40.07145074048666</v>
+        <v>46.51207174807101</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>64.04227060659061</v>
+        <v>66.23585174080421</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>68.51865762610041</v>
+        <v>72.08743530089696</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>65.22599843544171</v>
+        <v>64.46280274822882</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>14.10560137892433</v>
+        <v>16.63905046029022</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>42.04487497382217</v>
+        <v>40.81499387650997</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>44.750252677578</v>
+        <v>46.80386540651777</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>5.237264916768495</v>
+        <v>6.925120741373199</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>43.94643626433199</v>
+        <v>42.64176788250566</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>55.41161795720658</v>
+        <v>55.05494813217764</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>18.65948542592756</v>
+        <v>16.21904667373619</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>66.44452020768466</v>
+        <v>67.47434798528269</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>76.31105605993957</v>
+        <v>77.74112418654668</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>60.70014266698468</v>
+        <v>61.05704983930225</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>71.15456936686974</v>
+        <v>72.38626962610483</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>76.18297658612371</v>
+        <v>77.3249982334675</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>15.47549924637432</v>
+        <v>18.7721940213738</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>73.09016095470636</v>
+        <v>74.75319067614326</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>79.35598351703143</v>
+        <v>81.27691260223298</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>26.94074085858241</v>
+        <v>29.90361283878928</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>50.2937496665101</v>
+        <v>49.08010855238939</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>50.69110604569298</v>
+        <v>50.98056850344772</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>8.001773337045783</v>
+        <v>10.27598809511067</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>47.66797279648725</v>
+        <v>47.18226358583205</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>55.95530460184671</v>
+        <v>55.45240482587401</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>18.64553606259425</v>
+        <v>19.45342059407715</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>74.86535534712223</v>
+        <v>76.70891582696103</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>78.92400752775634</v>
+        <v>82.78358944737552</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>80.97121892854705</v>
+        <v>84.15080960834057</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>86.05841822475298</v>
+        <v>87.24501509007412</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>94.37794009613894</v>
+        <v>97.59295408449101</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>38.23659739346973</v>
+        <v>42.52370940912781</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>89.13024161253364</v>
+        <v>92.39697347605136</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>90.08410014834764</v>
+        <v>97.12533763183801</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>31.49905846841787</v>
+        <v>28.99763491724189</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>51.07860731337308</v>
+        <v>49.50809268761418</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>44.49344202139002</v>
+        <v>45.09175456757811</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>5.709729608276469</v>
+        <v>8.627144393369107</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>51.99623409222479</v>
+        <v>50.50803518922785</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>54.61756117047858</v>
+        <v>53.28866126170468</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>8.398412096035845</v>
+        <v>11.35635925805504</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>79.11365575354178</v>
+        <v>80.28091240848593</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>67.75023980641217</v>
+        <v>68.07327199015955</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>57.2890385025493</v>
+        <v>61.42333554361785</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>74.3388862331587</v>
+        <v>76.08724621868856</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>76.45144890389496</v>
+        <v>78.66780095241913</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>19.20707971461528</v>
+        <v>22.16482593608068</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>4.691898407294111</v>
+        <v>6.861024767167581</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>4.734043451275433</v>
+        <v>6.788739245262406</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>37.22120580550229</v>
+        <v>33.83140978759072</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>51.35194443208951</v>
+        <v>52.46829087247513</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>47.99681356514525</v>
+        <v>51.01575097388174</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>5.502650889474278</v>
+        <v>7.830021081067013</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>45.67075381535579</v>
+        <v>48.22131842484546</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>50.63191571616274</v>
+        <v>56.03468422294962</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>16.76984135559953</v>
+        <v>13.37381539092351</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>74.6838449993743</v>
+        <v>79.0672836961909</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>77.50349827227492</v>
+        <v>79.42969324037558</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>75.38152896838969</v>
+        <v>75.50539559213684</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>78.22091808484669</v>
+        <v>85.13877853803193</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>83.37813472832642</v>
+        <v>87.11663397203952</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>46.97411852381698</v>
+        <v>44.49353138577429</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>82.82108949475476</v>
+        <v>84.50209239163749</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>41.47170652282905</v>
+        <v>38.88771256189001</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>51.81129150320398</v>
+        <v>58.10983090154438</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>50.20575517440742</v>
+        <v>56.36665557128323</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>5.956724096563633</v>
+        <v>8.628079723600901</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>51.96464284068171</v>
+        <v>50.53463232999713</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>51.20500268366384</v>
+        <v>56.73994551812021</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>10.00891991926167</v>
+        <v>12.4413675059771</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>80.48838727730771</v>
+        <v>83.24719962812345</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>77.26676308215153</v>
+        <v>87.49014036466551</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>84.77136834958992</v>
+        <v>95.58479380792431</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>88.47647151704115</v>
+        <v>98.10938619044049</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>90.24763613140342</v>
+        <v>101.9795113352858</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>59.67198647639894</v>
+        <v>58.35688187148462</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>92.78171361078904</v>
+        <v>98.60567439192361</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>89.11752974168178</v>
+        <v>100.8407426297659</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>28.44137185459816</v>
+        <v>24.74134721454687</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>43.2081707235696</v>
+        <v>41.35817907033624</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>41.92473007874874</v>
+        <v>43.06908101953481</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>4.870311916286688</v>
+        <v>5.842188055648045</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>45.65137634434774</v>
+        <v>46.10113033718739</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>48.83364219931168</v>
+        <v>47.53166739802383</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>7.311905628171676</v>
+        <v>8.312520115610301</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>71.60453715702064</v>
+        <v>72.30355426335433</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>64.78438461148707</v>
+        <v>67.38210377374965</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>59.36759436494355</v>
+        <v>59.86126687350576</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>67.54679526889643</v>
+        <v>68.59133421705488</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>69.1153358874223</v>
+        <v>70.58564725403252</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>18.81658295008772</v>
+        <v>14.59522897089758</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>3.619590902770071</v>
+        <v>5.771831747168751</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>3.158423675832658</v>
+        <v>5.101814954046361</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>30.48333731414363</v>
+        <v>28.0811858419014</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>48.878920145618</v>
+        <v>53.677078659814</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>49.87802198326789</v>
+        <v>53.25390143839276</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>5.172871922769758</v>
+        <v>7.387391674937611</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>43.61765641848181</v>
+        <v>49.30640199760096</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>50.95016694660474</v>
+        <v>51.51613366770128</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>6.982066194065709</v>
+        <v>9.515097740509106</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>75.28771934997422</v>
+        <v>76.01382437892943</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>77.62741074136613</v>
+        <v>78.97325056212944</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>67.96290019187148</v>
+        <v>69.32744305352939</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>79.17318582006072</v>
+        <v>81.60064476164396</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>82.92953443055947</v>
+        <v>84.31624044474249</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.1379212422007</v>
+        <v>30.11977266455548</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>82.25220120928697</v>
+        <v>83.36933251603834</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>83.5670073999854</v>
+        <v>84.65142959636432</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>31.44900351075385</v>
+        <v>28.99960085932002</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>48.42571875208669</v>
+        <v>55.15407462964595</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>50.23484646976518</v>
+        <v>56.02558890194469</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>5.409485722669338</v>
+        <v>8.102356959822622</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>46.23274463346763</v>
+        <v>51.8841985619821</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>48.70719688084475</v>
+        <v>56.96832598362727</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>7.73050418399637</v>
+        <v>10.12847672863802</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>76.33732141334259</v>
+        <v>80.8852701638173</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>74.90574766088662</v>
+        <v>84.72845574570206</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>82.5453819095609</v>
+        <v>84.11553501498688</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>86.28911864046067</v>
+        <v>93.74276546793047</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>86.40090173428177</v>
+        <v>96.64875090888798</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.19674931579982</v>
+        <v>32.42891895968978</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>89.08247550629787</v>
+        <v>91.59942787347131</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>88.74315133569164</v>
+        <v>90.57806006633476</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>11.57916143538501</v>
+        <v>12.26058086871454</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>15.00816090266186</v>
+        <v>15.00619931314854</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>13.35212438160376</v>
+        <v>15.90825712758331</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>6.514710411970299</v>
+        <v>-0.9214216847041286</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>17.49857600875128</v>
+        <v>18.92440759825112</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.35907247726229</v>
+        <v>19.28638045295273</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>6.402076412193647</v>
+        <v>1.467600306645473</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>20.90962574848389</v>
+        <v>24.29898266018048</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>21.61259602601735</v>
+        <v>25.13227152320902</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.25617215112367</v>
+        <v>31.09244943761567</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>36.45840700337724</v>
+        <v>39.36221540448764</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>38.34671398033959</v>
+        <v>39.10903381094052</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>13.67612847854538</v>
+        <v>12.3208377718</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>22.21563276600256</v>
+        <v>25.81622976783397</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>22.77338113243951</v>
+        <v>22.23320204551813</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>12.1948895482454</v>
+        <v>15.06795493234615</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>30.49323942679889</v>
+        <v>32.13988791552354</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>35.22499623543591</v>
+        <v>37.2580403792715</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>4.816832102202543</v>
+        <v>5.379868939690795</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>32.86824977198161</v>
+        <v>30.43048848045139</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>41.76064366064844</v>
+        <v>40.40437293202076</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>5.29883164713581</v>
+        <v>7.440444413372852</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>48.87978462335604</v>
+        <v>48.71541576552224</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>54.67653603075144</v>
+        <v>58.74308753448623</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>49.63298571519739</v>
+        <v>47.91037704607678</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>57.19365868062376</v>
+        <v>57.3678215549471</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>57.82764995776752</v>
+        <v>61.4512419215454</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>14.09803726178025</v>
+        <v>17.30679033332613</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>54.30410501311844</v>
+        <v>58.5165897844652</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>53.67385931292326</v>
+        <v>61.63025925827182</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>22.34296997053779</v>
+        <v>22.22249492663133</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>36.4580727266422</v>
+        <v>39.96958095693211</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>44.93642536737201</v>
+        <v>46.1042569595469</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>5.540312081094694</v>
+        <v>8.493961162804951</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>45.68459584505807</v>
+        <v>43.95029143632774</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>53.59019658765816</v>
+        <v>53.12652134057269</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>9.253728854839675</v>
+        <v>12.50669746266394</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>67.81679937879812</v>
+        <v>68.57707825330714</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>67.14972973819144</v>
+        <v>72.56516357440496</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>71.33932445577238</v>
+        <v>79.15955626230118</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>77.76261811637245</v>
+        <v>87.79381790406309</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>77.26000641266313</v>
+        <v>88.95822232131586</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>36.45369739556241</v>
+        <v>34.7668789112773</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>81.13876759778336</v>
+        <v>84.1515499734717</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>85.88961200306218</v>
+        <v>89.68585891247704</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>12.49692443680363</v>
+        <v>10.34927751234004</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>14.87481312897458</v>
+        <v>16.48717251741338</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>12.74389187120897</v>
+        <v>14.76601008375921</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>3.402651869465856</v>
+        <v>-2.645142799302459</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>15.79913467460276</v>
+        <v>17.17428658838099</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>19.69448322818258</v>
+        <v>18.56744763132355</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>6.379440117814092</v>
+        <v>-0.8358125548326498</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>16.81543384018191</v>
+        <v>19.33029304936886</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.68385988505262</v>
+        <v>18.32606728278307</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>20.76317195151647</v>
+        <v>17.47617470184938</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>22.12908970829031</v>
+        <v>26.38633241123309</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>19.97711367987631</v>
+        <v>23.97645807330577</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>13.94255101164562</v>
+        <v>9.932505518790165</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>16.25159646295285</v>
+        <v>16.88494409083068</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>14.19236904292298</v>
+        <v>9.654774210436802</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>4.523246362794907</v>
+        <v>2.211982783187405</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>9.508056601444398</v>
+        <v>9.311546332637</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>11.44674223930881</v>
+        <v>14.15166275783473</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>2.624052306642966</v>
+        <v>-4.628793510372137</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>10.67051584297642</v>
+        <v>10.34462731793674</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>17.73327618003393</v>
+        <v>17.74196183501449</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>2.624073901939436</v>
+        <v>-4.596294528837529</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>15.82482693245004</v>
+        <v>18.13785863924375</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>30.0127418190197</v>
+        <v>29.23927649407457</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>11.44481740280283</v>
+        <v>11.84036781218023</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>32.37408243245414</v>
+        <v>35.11880553988316</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>45.54397682459267</v>
+        <v>43.85239996902122</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>4.254506015118931</v>
+        <v>-0.2306707573143285</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>20.84359883300143</v>
+        <v>25.26646797819244</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>16.19934876668041</v>
+        <v>20.02893367858688</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>5.149147907189676</v>
+        <v>5.822169032789844</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>15.11987528968645</v>
+        <v>17.96060279121921</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>35.43081155232458</v>
+        <v>33.11844171559835</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>2.826611454920876</v>
+        <v>-3.324938008774613</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>16.95942714670551</v>
+        <v>18.87458667005366</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>37.58415349829718</v>
+        <v>37.69438994400156</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>3.854120044707344</v>
+        <v>-0.8393386983858022</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>26.54890662167765</v>
+        <v>31.93178250433992</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>68.78288398428769</v>
+        <v>69.96022983945966</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>17.86188905366206</v>
+        <v>22.21254417935003</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>55.69714008448149</v>
+        <v>59.77303172361042</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>76.86538956709862</v>
+        <v>77.37596680230661</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>4.780432388585144</v>
+        <v>5.46441541126055</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>43.40265562381566</v>
+        <v>43.32989246893801</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>49.2270811913456</v>
+        <v>55.24301866059103</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>20.44001853700198</v>
+        <v>19.61503855480242</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>23.46374686818866</v>
+        <v>26.88518392745308</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>36.55735792202111</v>
+        <v>37.92965792356819</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>6.137444300247733</v>
+        <v>7.358279236544579</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>44.73170982672207</v>
+        <v>50.26489455041862</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>45.50259267336429</v>
+        <v>51.1195860767977</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>14.90377575921648</v>
+        <v>11.12219482959271</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>66.10369796936692</v>
+        <v>69.45587660312017</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>64.39874359203728</v>
+        <v>70.06580743247433</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>63.40799066135911</v>
+        <v>67.35340296163724</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>75.48289067738368</v>
+        <v>76.61055910445295</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>71.23813365694269</v>
+        <v>73.08613648335891</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>47.3240791813016</v>
+        <v>45.07778867914361</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>66.90819563895806</v>
+        <v>67.24397362334537</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>71.06594757440965</v>
+        <v>78.81175438921659</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>25.81454105831438</v>
+        <v>20.93401971485034</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>35.28111978964296</v>
+        <v>39.46169772108905</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>37.84375421109836</v>
+        <v>41.62783839027151</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>5.432095098549404</v>
+        <v>5.898187354671478</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>38.53916269714669</v>
+        <v>38.52439760013856</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>39.78451456597476</v>
+        <v>41.70314685050631</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>8.271393147608475</v>
+        <v>8.776566244618124</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>57.44305070907717</v>
+        <v>61.33589770549523</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>57.65339958597556</v>
+        <v>67.47420264293451</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>53.0975054137735</v>
+        <v>57.86765661318873</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>59.29923389467122</v>
+        <v>66.07282231376441</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>57.97486751606617</v>
+        <v>66.8890523712259</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>34.73491198138185</v>
+        <v>31.10240775081142</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>62.73757312742069</v>
+        <v>70.74198988145514</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>59.50251355646531</v>
+        <v>69.25887363231618</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>26.83717439406578</v>
+        <v>23.16830131840886</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.19552728424655</v>
+        <v>40.92432416313532</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>44.30282750585443</v>
+        <v>45.34785274461619</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>5.88817927733195</v>
+        <v>8.278874152116952</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>50.61269854615177</v>
+        <v>48.73391299910882</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>50.96243958033661</v>
+        <v>52.65434739619774</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>9.138859984141956</v>
+        <v>11.19769699160993</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>70.98655844410187</v>
+        <v>75.89017322028118</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>70.80030410138869</v>
+        <v>80.22974338674061</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>74.28995267992312</v>
+        <v>80.49529233542941</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>77.28316482674629</v>
+        <v>87.07001785967746</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>79.4268350526487</v>
+        <v>88.55321212293805</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>40.34028953560732</v>
+        <v>37.98328890139673</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>77.74527427468533</v>
+        <v>87.94585331388937</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>82.08156773062501</v>
+        <v>88.39757104844328</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>11.53218713777871</v>
+        <v>7.150880396158311</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>13.07003044430754</v>
+        <v>14.74270978015432</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>14.23210958111829</v>
+        <v>15.58365984244645</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>5.947473966674536</v>
+        <v>-1.245254376342288</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>12.52044292042969</v>
+        <v>13.76260253895843</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>16.77790290315219</v>
+        <v>16.65004205806339</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>7.491872691761468</v>
+        <v>-0.04501623489757733</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>18.77828577665511</v>
+        <v>21.25400132666694</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>20.20050062319591</v>
+        <v>22.61487604015644</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>20.14943450527108</v>
+        <v>24.46264348067991</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>24.72265024992817</v>
+        <v>29.21210009049378</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>27.33685041327134</v>
+        <v>32.52521849074947</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>10.13622162722523</v>
+        <v>3.228508969770839</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>17.70045300755305</v>
+        <v>20.94980649919763</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>19.135650326186</v>
+        <v>23.46942804884493</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>7.460505908937041</v>
+        <v>8.677939291809878</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>24.12971653128465</v>
+        <v>25.07006995167734</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.93226240574689</v>
+        <v>30.71468459236227</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>4.681417836945869</v>
+        <v>4.083418250573999</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>24.55554996222997</v>
+        <v>24.43551087649903</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>35.10049861187699</v>
+        <v>32.80840114019603</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>4.874748508991107</v>
+        <v>5.628335857869754</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>42.46467758646564</v>
+        <v>40.54361819876439</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>49.70942895488825</v>
+        <v>49.37044937452012</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>33.45974386903288</v>
+        <v>37.99986493599356</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>45.94809965109546</v>
+        <v>44.8215013127875</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>50.28176746272159</v>
+        <v>49.7605269870371</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>7.350464736166089</v>
+        <v>8.281093279873669</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>42.73852746848239</v>
+        <v>45.25815680958296</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>47.83260870923712</v>
+        <v>50.33860900097059</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>16.37251032058789</v>
+        <v>19.11067269100926</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>31.88852987061282</v>
+        <v>36.44491691522322</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>44.00773057350195</v>
+        <v>42.67047330756093</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>8.631297779442729</v>
+        <v>11.20131121129699</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>32.73198642538458</v>
+        <v>38.41054899415278</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>43.53838021654295</v>
+        <v>47.03451112103554</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>17.99019573533442</v>
+        <v>18.93832942410539</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>54.67366259656485</v>
+        <v>59.04112746848255</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>63.33024189282345</v>
+        <v>68.53141428039584</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>58.10014249299867</v>
+        <v>66.49575521828301</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>73.6678155338092</v>
+        <v>75.34417981881035</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>83.62910104792223</v>
+        <v>85.57408896281235</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>27.00615485144239</v>
+        <v>25.91258926265768</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>68.14982251800785</v>
+        <v>70.59455788148749</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>75.64972632838459</v>
+        <v>77.4346380812966</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>4.33689872869898</v>
+        <v>4.294181049901535</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>4.774183771664674</v>
+        <v>5.421607280141636</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>6.322971987601999</v>
+        <v>6.579003964944491</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>2.623762498943822</v>
+        <v>-3.659637046866781</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>5.45831612395633</v>
+        <v>7.945680822391996</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>8.564629515199961</v>
+        <v>11.68894030807701</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>2.751715879419056</v>
+        <v>-4.016800075226374</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>6.07267074652237</v>
+        <v>8.319508344802347</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>9.128496279412701</v>
+        <v>10.8042122136492</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>7.666302840371007</v>
+        <v>10.83268950598131</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>11.33248063699882</v>
+        <v>14.2346694574817</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>15.04984881884675</v>
+        <v>19.43113691640995</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>4.254110845861096</v>
+        <v>-0.7929788339720574</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>4.805246177714594</v>
+        <v>6.368338051875948</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>8.063927338903802</v>
+        <v>8.971224644423756</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>23.01622605939274</v>
+        <v>19.58100786173955</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>35.62104409056058</v>
+        <v>36.89324265881943</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.81867813818561</v>
+        <v>40.00974352812803</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>5.070193464258107</v>
+        <v>6.883741813125098</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>37.00739975708817</v>
+        <v>35.35874085133715</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>39.93607451653969</v>
+        <v>41.10108692937823</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>6.453461086415594</v>
+        <v>8.700477872296123</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>54.01120999189803</v>
+        <v>54.73881383272943</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>58.31805850423217</v>
+        <v>64.77451554084254</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>56.46736028402677</v>
+        <v>54.52412196029588</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>56.30290906974611</v>
+        <v>62.81079695157375</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>58.7331117942057</v>
+        <v>63.51356241669588</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>25.2030333397787</v>
+        <v>21.51061354786847</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>58.42507874825086</v>
+        <v>62.50586556432837</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>59.10182330263054</v>
+        <v>63.48818972290033</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>27.48250510587234</v>
+        <v>26.70970650055329</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>40.73263494739516</v>
+        <v>46.7743948078467</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>47.54365088978406</v>
+        <v>50.25380403653111</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>5.492572106981665</v>
+        <v>8.453004486336045</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>51.93943926066565</v>
+        <v>51.3033064400007</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>55.79691160755231</v>
+        <v>55.87306768206319</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>7.057249414846154</v>
+        <v>10.07868936073598</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>72.76317634297519</v>
+        <v>73.55541166565101</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>71.6018060510706</v>
+        <v>77.19801319934867</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>80.17428146138252</v>
+        <v>83.02619334419316</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>82.73319303534691</v>
+        <v>92.45477639329653</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>85.12286004070023</v>
+        <v>90.97465493696711</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>30.19125766215619</v>
+        <v>29.06285837138505</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>85.55788080703473</v>
+        <v>88.19394551663274</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>81.64489628626919</v>
+        <v>83.71228035680669</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>14.7139185577193</v>
+        <v>13.70655586792258</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>17.97357253181841</v>
+        <v>18.77267165835037</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>17.88713984552366</v>
+        <v>18.80522018125141</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>5.844734012089365</v>
+        <v>-0.7477057768366393</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>17.66081837742963</v>
+        <v>17.72729405221779</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>20.46619298308574</v>
+        <v>18.81980840351763</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>7.241257605372706</v>
+        <v>3.452440013934556</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>23.07237500944624</v>
+        <v>24.90936544886256</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.61102779337898</v>
+        <v>24.1143105387898</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>23.8311399539964</v>
+        <v>27.92368741400813</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.59128340489305</v>
+        <v>33.54118202539939</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.93498693706131</v>
+        <v>36.37052951972266</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>12.79692927724774</v>
+        <v>13.01553428067436</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>23.26898173807385</v>
+        <v>26.89878535087484</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.11348211051924</v>
+        <v>28.66185338352198</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>4.594471419914488</v>
+        <v>5.731427604600398</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>12.20077220338362</v>
+        <v>14.77831075371348</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>23.0351116082443</v>
+        <v>22.98213332837048</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>4.389728513027336</v>
+        <v>-2.757815022647648</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>10.4480501649631</v>
+        <v>11.83916265041098</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>26.17167898228579</v>
+        <v>23.02874374229553</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>4.046810459676657</v>
+        <v>-2.018879652678027</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>16.85138165020701</v>
+        <v>20.39744620118049</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>41.33198099730402</v>
+        <v>39.82874809623723</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>14.50421930696817</v>
+        <v>16.71556842508076</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>31.03951053913318</v>
+        <v>32.0411326494249</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>39.51372101314178</v>
+        <v>37.77264578130645</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>4.312309188657686</v>
+        <v>4.972502913386272</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.94732242101791</v>
+        <v>28.04933969863535</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>37.4083585948115</v>
+        <v>35.81433611394989</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>21.49156256034895</v>
+        <v>20.19413835259081</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.64822658213691</v>
+        <v>32.45961975835254</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>40.02636365970013</v>
+        <v>37.34336914600182</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>6.928589458242811</v>
+        <v>3.465382151833669</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>25.60523275113594</v>
+        <v>29.58356153288976</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>34.74747894065457</v>
+        <v>37.03407496710004</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>14.02565409437052</v>
+        <v>9.221723985629701</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>45.67886931605512</v>
+        <v>50.93154321190229</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>58.47876561972694</v>
+        <v>59.06890086053185</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>50.09256374446799</v>
+        <v>56.14234885306789</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>58.12163742287906</v>
+        <v>66.25450936583175</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>68.21863985018624</v>
+        <v>68.79729769561435</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>35.2170376236971</v>
+        <v>32.49383929743511</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>54.2806052024382</v>
+        <v>60.86449829773002</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>57.37392401687072</v>
+        <v>63.34560786145431</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>5.457257130222882</v>
+        <v>5.119854717994365</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>9.205088681933809</v>
+        <v>8.376087579268464</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>9.008421776830055</v>
+        <v>6.472613799523568</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>4.544465186281084</v>
+        <v>-3.664548436044623</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>8.444642682233557</v>
+        <v>6.946632613173378</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>8.585903284461299</v>
+        <v>8.498212458325572</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>3.2123918848785</v>
+        <v>-3.780368509243505</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>9.238788237450482</v>
+        <v>8.297989782925768</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>11.74917408889524</v>
+        <v>7.749494088073853</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>7.534287216254885</v>
+        <v>10.54156234147882</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>8.539955952529088</v>
+        <v>11.39439198621346</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>13.82154175829547</v>
+        <v>15.83998488585624</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>5.66219558799795</v>
+        <v>3.6870538226969</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.200120857898906</v>
+        <v>9.607171114648207</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>9.40634605016287</v>
+        <v>11.43585043869819</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>4.426888573501166</v>
+        <v>1.035104003542628</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>6.182973965178299</v>
+        <v>6.647611641003518</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>7.403497985184504</v>
+        <v>7.473923266710468</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>2.752187621432004</v>
+        <v>-3.985710455213773</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>5.409443237629084</v>
+        <v>4.43114688875843</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>6.995125591889764</v>
+        <v>9.802471735924541</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>3.046284680859554</v>
+        <v>-3.616000879798033</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>6.698494833969871</v>
+        <v>8.061628332356644</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>10.37148816774671</v>
+        <v>13.87130690846457</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>6.213511580407978</v>
+        <v>6.662959359005416</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>9.591054901392919</v>
+        <v>9.93094503330833</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>11.06858343683232</v>
+        <v>12.67260729171502</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.547084204576581</v>
+        <v>-3.667072932436678</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>6.760108198961053</v>
+        <v>9.743613593125922</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>8.280960554816186</v>
+        <v>11.55740509232425</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>21.90845959005748</v>
+        <v>19.13361167420275</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>24.08975245168915</v>
+        <v>25.57250999577832</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.54176741463391</v>
+        <v>27.38382460369421</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>7.054380957958799</v>
+        <v>2.843360791237526</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>19.87261288838754</v>
+        <v>22.07908149855525</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>22.8477204722742</v>
+        <v>27.37840328521839</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>15.290192506905</v>
+        <v>9.650707821650492</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>31.02515596830166</v>
+        <v>35.42043530182528</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>33.26499761314054</v>
+        <v>38.90401041213657</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>41.54050193258038</v>
+        <v>44.50454099143386</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>45.27490339155389</v>
+        <v>45.11946607036233</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>49.30975428437085</v>
+        <v>48.6766950717086</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.79488860289198</v>
+        <v>25.19170694249173</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>32.77092079658443</v>
+        <v>38.82798874940995</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.72522759131324</v>
+        <v>42.83811665105112</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>20.37713926691016</v>
+        <v>22.06005710291374</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>30.62373370434491</v>
+        <v>35.3422342780112</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>36.80744881057867</v>
+        <v>35.8322467788827</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>5.372695161615383</v>
+        <v>4.869663187593652</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>27.41026147983409</v>
+        <v>32.23323811386361</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.7990561759928</v>
+        <v>34.34784690727702</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>8.721408300885791</v>
+        <v>9.442433169223818</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>47.12793874741368</v>
+        <v>45.52592962805564</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>48.09225668956535</v>
+        <v>47.89144508679345</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>48.73622624676416</v>
+        <v>48.72356870419044</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>58.44368448426242</v>
+        <v>59.28774727874593</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>61.32414698731739</v>
+        <v>63.07832420178018</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>34.70165352706801</v>
+        <v>36.99817176087024</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>59.77257917924513</v>
+        <v>58.18323003292814</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>65.80067777825548</v>
+        <v>65.59667515930542</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>17.8858691408441</v>
+        <v>13.22634534222184</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.23850640755164</v>
+        <v>26.260360731437</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>31.45459045765274</v>
+        <v>29.40263366633156</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>3.580254120992961</v>
+        <v>-1.546358956324926</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>17.43601409370338</v>
+        <v>19.94046395119404</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>21.53855519010951</v>
+        <v>26.15610442274742</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>6.177404075858597</v>
+        <v>0.7169735390848651</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.82323079668185</v>
+        <v>39.2579368524285</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>36.52956407991522</v>
+        <v>43.34545002637092</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>37.22716819485957</v>
+        <v>41.72825521488411</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>46.07229836620853</v>
+        <v>48.50100686914818</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>44.22063858787196</v>
+        <v>49.54715993675232</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.2974311616676</v>
+        <v>22.41701987595955</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>48.81772823135289</v>
+        <v>55.00311007446628</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>50.9106904061683</v>
+        <v>57.65103061389965</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.34678271417773</v>
+        <v>27.53951722813135</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>37.19077088464174</v>
+        <v>42.48629390659231</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>47.22527415896953</v>
+        <v>48.64454931237936</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>6.440088859891272</v>
+        <v>8.813924765336843</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>35.11103587190442</v>
+        <v>37.59351796962994</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>38.87382543823145</v>
+        <v>44.53351201106683</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>13.57837859312031</v>
+        <v>13.65583987562951</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>61.72144545912203</v>
+        <v>65.98641534692918</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>62.16434728671742</v>
+        <v>71.26724430750447</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>74.26583743453472</v>
+        <v>82.31725575635404</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>79.52586606598332</v>
+        <v>84.68912213412887</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>82.4081991031812</v>
+        <v>86.00434720135095</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>43.59974502738179</v>
+        <v>42.57779398688881</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>72.31918162322785</v>
+        <v>78.74290971159355</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>75.37724089610541</v>
+        <v>87.05673059529907</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>21.5098668574479</v>
+        <v>18.87764797759906</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>34.78177154883281</v>
+        <v>39.30688919543552</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>37.72833799515633</v>
+        <v>40.94994618306957</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>7.130416295943782</v>
+        <v>8.809426872028872</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>41.69018795041741</v>
+        <v>45.94775691065948</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>42.07568066114192</v>
+        <v>46.88895773689639</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>13.06383941148681</v>
+        <v>11.42649489747773</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>58.5554853046403</v>
+        <v>63.1618726438942</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>60.47598951559026</v>
+        <v>63.90890599427453</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>68.55616658677256</v>
+        <v>71.47209993761831</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>68.17229291599332</v>
+        <v>76.56656930179102</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>71.63163172872925</v>
+        <v>77.07576940107165</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>24.60274802676622</v>
+        <v>21.56630482805879</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>67.49080801194245</v>
+        <v>68.49712130071657</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>68.54739639834699</v>
+        <v>70.05485464136179</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>19.93237812704678</v>
+        <v>16.37341078485085</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>34.40086884892811</v>
+        <v>36.6238283775044</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>39.69026277153056</v>
+        <v>40.79483359171568</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>4.871619452909282</v>
+        <v>6.681073181744818</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>35.90845381142441</v>
+        <v>34.84720967246712</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>37.20263444278396</v>
+        <v>41.44248794828577</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>5.695358910078276</v>
+        <v>7.593945196954511</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>52.79658108815831</v>
+        <v>53.82479388074329</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>62.78587158832636</v>
+        <v>64.11578664972789</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>54.88112883370996</v>
+        <v>54.40331539302096</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>62.21923333135526</v>
+        <v>62.79334778123372</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>55.64821973754862</v>
+        <v>62.178436139822</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>19.9619340059433</v>
+        <v>16.82241603337719</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>59.51793617433907</v>
+        <v>64.00049501543347</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>66.77307477780249</v>
+        <v>67.72985229053853</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>22.62172289950935</v>
+        <v>18.77539685263544</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>38.51689648844997</v>
+        <v>42.26313306986538</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>43.07857750778152</v>
+        <v>46.68747501712745</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>5.069170745430966</v>
+        <v>6.878816356253541</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>46.06962236558315</v>
+        <v>44.56174118548044</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>45.26060314819872</v>
+        <v>50.58580908737679</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>5.94140395476407</v>
+        <v>7.273318626723245</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>64.28960531157574</v>
+        <v>65.0868998484053</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>66.74098993029</v>
+        <v>75.1542316192472</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>77.19286460602314</v>
+        <v>79.44763969377166</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>76.59879585120609</v>
+        <v>86.33757477336243</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>82.5828352357905</v>
+        <v>91.65237772870796</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>22.24206664446498</v>
+        <v>21.06136568588767</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>76.12516353157517</v>
+        <v>79.88227533368705</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>77.62194482876924</v>
+        <v>86.26651439232074</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>27.1956757191069</v>
+        <v>23.82258518629603</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>31.5336798249952</v>
+        <v>36.40549624354518</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>36.15116432782162</v>
+        <v>39.53892209230425</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>5.635761439765083</v>
+        <v>7.198936894801573</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>43.44756742243594</v>
+        <v>48.95119180680571</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>43.3197229810046</v>
+        <v>49.85538987342518</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>10.61401457381499</v>
+        <v>9.495637538667815</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>59.8724062632724</v>
+        <v>67.52639662581156</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>59.65234816782315</v>
+        <v>65.4508953824693</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>59.12984884958282</v>
+        <v>65.79639459133492</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>59.99322555602045</v>
+        <v>66.67093878754609</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>63.1567623492306</v>
+        <v>70.48666787575709</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>43.4097772692382</v>
+        <v>40.72636253360723</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>62.46626390861577</v>
+        <v>62.21762454451385</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>69.01831166415336</v>
+        <v>74.07595946079579</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.28249696221674</v>
+        <v>24.89117557827159</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>38.41539167221462</v>
+        <v>39.83051339577099</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.99659083293066</v>
+        <v>41.7612943047737</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>5.083170896061105</v>
+        <v>4.47251770585903</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>36.33194275563123</v>
+        <v>36.01295538774041</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>37.24530722947144</v>
+        <v>43.18167581088859</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>7.320754467910842</v>
+        <v>4.88384436992661</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>54.73429485606964</v>
+        <v>60.45940872125367</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>62.81700257496482</v>
+        <v>68.91870995389816</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>59.913447200927</v>
+        <v>59.67865717292106</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>61.4881836518837</v>
+        <v>67.98287472018897</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>61.63910152662164</v>
+        <v>69.10523641057064</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>30.02512218248475</v>
+        <v>27.54378031482431</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>65.92219064796063</v>
+        <v>73.62233870494121</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>67.55021807391184</v>
+        <v>75.50478086340213</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>30.84716884411644</v>
+        <v>27.46857129092325</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>41.47496772180194</v>
+        <v>46.09414609961097</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>42.84882302798057</v>
+        <v>47.86178092258881</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>5.533903356497813</v>
+        <v>5.63625694064562</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>46.31191602734621</v>
+        <v>44.70314942886597</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>47.190728245236</v>
+        <v>49.32853810736816</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>7.30467716042487</v>
+        <v>6.053591765940233</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>68.85194487614942</v>
+        <v>72.9143487171943</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>67.58459283045417</v>
+        <v>76.74801884055044</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>79.62733510847571</v>
+        <v>84.59475920358771</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>81.98329825380765</v>
+        <v>90.70775007008102</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>81.95595866839128</v>
+        <v>92.75157795505579</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>30.67878778035091</v>
+        <v>30.46313391083695</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>77.29082241881133</v>
+        <v>87.06669756402296</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>78.04403262410831</v>
+        <v>88.60246269858537</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.43468258483098</v>
+        <v>25.41470127990202</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>33.86723462238925</v>
+        <v>34.11053700533798</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>36.39072622649844</v>
+        <v>39.51609283753108</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>11.61281372720699</v>
+        <v>13.92346270247882</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>63.02730138572417</v>
+        <v>62.50346187571296</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>60.50499313611045</v>
+        <v>60.22565214604978</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>11.56259371914887</v>
+        <v>13.32642049256363</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>60.75438301307756</v>
+        <v>68.08491013122679</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>59.23984914167709</v>
+        <v>68.24061780449617</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>64.79254745919224</v>
+        <v>72.9418625912614</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>67.75542624735073</v>
+        <v>75.41079827871113</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>67.78919000885222</v>
+        <v>75.6932541270714</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>53.37620412908059</v>
+        <v>52.36587624924289</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>65.55756685495459</v>
+        <v>66.37058196541376</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>71.80616361726493</v>
+        <v>73.04246057469992</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>31.1188510397963</v>
+        <v>26.77503027131838</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>38.12147088206171</v>
+        <v>35.14962010089852</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>38.54255132125659</v>
+        <v>41.17775639515659</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>39.17694334851244</v>
+        <v>35.58036037418659</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>55.16333117675739</v>
+        <v>53.89156070346094</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>52.24357595423464</v>
+        <v>59.55831421702035</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>8.669437646022569</v>
+        <v>10.10891517841229</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>56.59531605120511</v>
+        <v>56.85177802062866</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>60.92511832805137</v>
+        <v>63.9167518478706</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>56.87479656347734</v>
+        <v>56.83965283962819</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>59.63648788219794</v>
+        <v>64.83348696787976</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>58.74661584450926</v>
+        <v>65.11601431399569</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>35.52506829872775</v>
+        <v>31.73328828073011</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>61.23718870599353</v>
+        <v>68.85548074810737</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>66.17376503637017</v>
+        <v>73.6938662017552</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>35.18315595241329</v>
+        <v>31.25158440332902</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>41.36225819406387</v>
+        <v>46.56774690126146</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.1807523988926</v>
+        <v>47.52773398089555</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>40.52264994537612</v>
+        <v>37.65113053070606</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>63.39284489907283</v>
+        <v>64.13961137414944</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>57.33241316018989</v>
+        <v>64.86711244593015</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>8.856346599515838</v>
+        <v>10.54898419520667</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>68.50607682543912</v>
+        <v>72.20802060325785</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>66.36708914497552</v>
+        <v>75.30913055386573</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>85.68290869945855</v>
+        <v>95.23072869262114</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>81.53465436190157</v>
+        <v>90.34344784641628</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>84.09099342763858</v>
+        <v>95.11877439050421</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>42.90236026936645</v>
+        <v>40.24824466135704</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>79.35063909624211</v>
+        <v>88.05815943856587</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>81.32895895744655</v>
+        <v>92.20440995491326</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>18.34710854517603</v>
+        <v>20.29187820284025</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>35.44627839401308</v>
+        <v>38.96152969439429</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>38.29333509616985</v>
+        <v>44.12826118454644</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>4.49011972157199</v>
+        <v>5.464124021092712</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>37.15859037679084</v>
+        <v>35.7191906896384</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>45.5666138026199</v>
+        <v>45.62223473624179</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>5.17572284869776</v>
+        <v>6.206723150640077</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>60.65914394082981</v>
+        <v>59.54760228268555</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>63.12945753176275</v>
+        <v>62.81667402317058</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>67.15755908157087</v>
+        <v>67.49382626375389</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>67.39055614237324</v>
+        <v>72.91732493145415</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>73.51829209026428</v>
+        <v>74.88279453429439</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>11.59357080129015</v>
+        <v>12.91044802351986</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>68.24980617003607</v>
+        <v>67.66627271638049</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>69.56345619889575</v>
+        <v>70.97161909938029</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>14.17419453742443</v>
+        <v>16.24650070017051</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>35.40110546526406</v>
+        <v>37.76111811469514</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>36.10094913057168</v>
+        <v>38.98816421222394</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>4.742735227160612</v>
+        <v>4.477642458272708</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>37.19004103182733</v>
+        <v>36.11123400900178</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>35.242028059913</v>
+        <v>39.30402906690058</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>5.332114056370479</v>
+        <v>4.967256814333364</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>53.98837979866462</v>
+        <v>57.27009567591682</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>58.92500804076577</v>
+        <v>62.40725794509243</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>55.59246436336936</v>
+        <v>55.22313796884373</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>63.52787412386561</v>
+        <v>62.45333378703448</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>56.92604593848053</v>
+        <v>62.33480076544637</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>9.841420869914447</v>
+        <v>10.87409890624055</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>52.89953327236384</v>
+        <v>52.66191862306154</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>65.82926875615033</v>
+        <v>66.85828025449614</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>14.32703103626789</v>
+        <v>16.45415106392819</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>38.56598743388527</v>
+        <v>41.27942344132899</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>41.51912903104851</v>
+        <v>44.70011084250521</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>4.805532299844906</v>
+        <v>2.730907048161225</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>45.43156914735103</v>
+        <v>44.4031699993484</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>45.50261540076718</v>
+        <v>48.5714369896038</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>5.140212830782581</v>
+        <v>3.426312072574831</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>65.08636396558344</v>
+        <v>66.03603157946598</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>65.63674526736206</v>
+        <v>73.61549178795909</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>77.30708332084981</v>
+        <v>79.63838658242717</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>76.94150358866293</v>
+        <v>84.32019153162224</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>82.61101734303332</v>
+        <v>89.67757398765492</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>4.693167441511378</v>
+        <v>5.224451528778328</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>74.9251959345564</v>
+        <v>79.43568177882588</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>78.16352329043062</v>
+        <v>85.10462419473704</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>15.43366198080737</v>
+        <v>15.68333280048189</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>18.85054000105817</v>
+        <v>21.26588885056163</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>17.99559196312202</v>
+        <v>20.99312478034702</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>6.249091730085333</v>
+        <v>1.796376680329583</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>19.14164557981807</v>
+        <v>21.9417730089387</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>19.66295598062938</v>
+        <v>23.19629787561757</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>10.43290056045111</v>
+        <v>4.876836342356974</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.8309013574822</v>
+        <v>30.12402508195894</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.49089431014723</v>
+        <v>31.39700004235844</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.17364910906859</v>
+        <v>33.77393652469195</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>33.13053542534124</v>
+        <v>38.26262971760003</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>36.38342024626969</v>
+        <v>41.79885828270854</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>19.24335898308607</v>
+        <v>18.30894552410093</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>24.809285285089</v>
+        <v>27.48653491890332</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.76950175849399</v>
+        <v>29.82482290250362</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>11.61618038330162</v>
+        <v>14.35423657593321</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>31.97849824352919</v>
+        <v>30.77492809215396</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>35.12800447802629</v>
+        <v>35.79720688983157</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>4.884944505255387</v>
+        <v>6.762606234601801</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>33.65372695620928</v>
+        <v>31.55829205346386</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>38.21554368918596</v>
+        <v>41.50875621013622</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>5.740449972999073</v>
+        <v>7.987929126731117</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>51.69882094793225</v>
+        <v>51.10030637172782</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>60.4615533919882</v>
+        <v>59.99853953747282</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>51.28019800629713</v>
+        <v>50.18217181739201</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>56.89280890456557</v>
+        <v>55.26939100460929</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>57.17810886682145</v>
+        <v>63.31066968576449</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>11.09262872560032</v>
+        <v>14.00175421093674</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>52.89356348206903</v>
+        <v>56.42404544163206</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>61.59536485570666</v>
+        <v>61.61199196498785</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>19.31237428651671</v>
+        <v>22.3485999237212</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>38.28227992925621</v>
+        <v>40.90639285270422</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>45.80586290171368</v>
+        <v>46.65792444390213</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>7.204768301009679</v>
+        <v>9.511387470695343</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>44.29042925134114</v>
+        <v>42.55299178648205</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>49.45096726446685</v>
+        <v>52.02126094034504</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>13.88503149622314</v>
+        <v>16.97347263268408</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>66.33644783568624</v>
+        <v>67.61072471636868</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>71.77141617967288</v>
+        <v>76.51415948492864</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>71.48382543151209</v>
+        <v>74.09572320067704</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>71.82518113012608</v>
+        <v>75.06453301219534</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>81.90074778722926</v>
+        <v>88.65771306948947</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.9218622226469</v>
+        <v>31.85295660784166</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>70.5731523708763</v>
+        <v>73.52508531986564</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>78.48909795638465</v>
+        <v>87.64929786518228</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>14.28136604708082</v>
+        <v>15.11220755336721</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>16.50385103469723</v>
+        <v>17.52927006256613</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>17.71355935465492</v>
+        <v>19.44714967019478</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>4.690491963853614</v>
+        <v>-0.4189888339774015</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>16.97010875170744</v>
+        <v>20.58235514701864</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>18.68787970348273</v>
+        <v>21.90405082071178</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>8.209530369679829</v>
+        <v>2.93855760345259</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>24.44824001162823</v>
+        <v>27.01283920140202</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.68666956821126</v>
+        <v>31.79892553622467</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>42.13972754850668</v>
+        <v>42.11697836380329</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>51.78869629618919</v>
+        <v>52.90244525589627</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>58.46915926810861</v>
+        <v>60.34879620514072</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>17.16735303277878</v>
+        <v>18.29039799230482</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>27.8090195177558</v>
+        <v>31.94270723890163</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.6713454616761</v>
+        <v>33.31912369056982</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>6.311547092720936</v>
+        <v>7.539151434594391</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>13.46732416417008</v>
+        <v>15.49848768118978</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>34.04971144474146</v>
+        <v>34.17550658863201</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>4.594543570966135</v>
+        <v>7.124664296785525</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>12.21864052432733</v>
+        <v>15.39417813739131</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>58.24961768286818</v>
+        <v>57.91086320032612</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>4.311220662618091</v>
+        <v>0.2460437661629129</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>27.87048816522284</v>
+        <v>32.84606899464424</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>57.51700793542154</v>
+        <v>59.27749623343682</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>34.02010593233651</v>
+        <v>37.92755217202826</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>48.00904982855342</v>
+        <v>53.08037746857137</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>57.82855299958547</v>
+        <v>65.09454641267139</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>6.986522840684486</v>
+        <v>9.195603934201621</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>46.00524944002879</v>
+        <v>49.10403800669786</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>61.0153457969695</v>
+        <v>64.74672701727566</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>18.86957815092695</v>
+        <v>21.08505182950485</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>31.14224616789962</v>
+        <v>30.75817444496699</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.52992869133703</v>
+        <v>41.0210893290111</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>5.217394466509795</v>
+        <v>7.832917406427146</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>15.59773110703625</v>
+        <v>19.3368523649641</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>46.74567634924998</v>
+        <v>46.19488143482045</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>6.833428487627806</v>
+        <v>5.670659338385015</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>42.56137751840787</v>
+        <v>48.65103524129285</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>66.51090361012993</v>
+        <v>67.43383441368987</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>71.6833786739615</v>
+        <v>74.62142238307229</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>71.43875655236403</v>
+        <v>73.28145318845513</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>82.14912599356092</v>
+        <v>87.39150394428971</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>15.13374886129404</v>
+        <v>17.80642130251373</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>55.03235505179772</v>
+        <v>54.92070101875702</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>79.84682072627768</v>
+        <v>82.42052567935409</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>26.43910619577289</v>
+        <v>24.38552782725719</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>31.62873095336055</v>
+        <v>37.25054070109412</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>35.54404372277585</v>
+        <v>39.67865212341525</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>6.478252638207898</v>
+        <v>8.058165311999687</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>45.40569563594877</v>
+        <v>50.91417839057937</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>44.12695919358451</v>
+        <v>50.6264235289854</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>13.90359393051137</v>
+        <v>14.07292053578959</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>61.10824672876845</v>
+        <v>68.79058353181053</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>59.10165792375476</v>
+        <v>66.25479895724425</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>56.80654343370522</v>
+        <v>65.14643834540422</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>64.31041844673854</v>
+        <v>72.06535609372946</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>66.18521117120233</v>
+        <v>73.8733328619206</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>42.4200289534547</v>
+        <v>40.15780724348684</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>59.23087717631813</v>
+        <v>59.22280975633177</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>69.40798177656488</v>
+        <v>79.65634438729028</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>31.66768533484518</v>
+        <v>28.02094196682852</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>38.16105825317423</v>
+        <v>42.65141594447297</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>38.88232487146647</v>
+        <v>44.04314919068957</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>5.391464033515835</v>
+        <v>7.540289161647113</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>39.63139517535846</v>
+        <v>39.31753759177263</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.50440860977738</v>
+        <v>43.25382782289105</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>7.175062934268478</v>
+        <v>9.458835270858753</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>55.92778767597983</v>
+        <v>60.56630426449804</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>57.8324934144912</v>
+        <v>63.69757428938615</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>59.9677621355771</v>
+        <v>59.47025390081468</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>57.86368630666476</v>
+        <v>64.81490200597601</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>58.77793159201157</v>
+        <v>66.30819805781621</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>33.82402368225059</v>
+        <v>30.34927507491098</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>60.64793705138595</v>
+        <v>69.38057186582887</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>60.23593506614223</v>
+        <v>69.77039549235418</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>30.43859393749693</v>
+        <v>27.45116688645682</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>39.50670147666329</v>
+        <v>45.14129348536164</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>41.36604097681315</v>
+        <v>47.26525608600025</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>6.216405993414689</v>
+        <v>8.849201109949043</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>49.58606082442009</v>
+        <v>48.1019745776565</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>44.7524429842334</v>
+        <v>50.66471609222863</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>7.354819698495998</v>
+        <v>9.890375522304527</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>69.80759283860216</v>
+        <v>71.80332218994293</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>69.07069311674559</v>
+        <v>76.5127053363591</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>81.36744918936799</v>
+        <v>83.25658755926074</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>78.49621639980472</v>
+        <v>85.16842509465938</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>76.55516151966788</v>
+        <v>88.15661431648309</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>40.09959895206633</v>
+        <v>37.90693415054734</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>75.68935153389327</v>
+        <v>81.12230841969333</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>77.19288454884764</v>
+        <v>85.87969048078904</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>16.92842706608438</v>
+        <v>19.30792345456808</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>37.67035091323928</v>
+        <v>37.61915305180923</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>36.04294376060697</v>
+        <v>40.97859633485596</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>5.123601949607426</v>
+        <v>7.112305365527241</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>44.05329165063138</v>
+        <v>41.9131436849423</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>43.27159873403657</v>
+        <v>45.32140368351137</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>5.447114358741175</v>
+        <v>7.312367006296078</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>60.69717700442629</v>
+        <v>59.44157553265974</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>62.20508158081748</v>
+        <v>61.15859484888877</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>61.46847145132472</v>
+        <v>62.774817021334</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>70.36064500877706</v>
+        <v>73.58509687826511</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>68.08780491442367</v>
+        <v>74.09246037945614</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>11.43651821981753</v>
+        <v>13.02781589677639</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>65.59943886565414</v>
+        <v>65.08944523953424</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>70.24831449451253</v>
+        <v>71.82874263431022</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>14.67494823128172</v>
+        <v>15.43990580455575</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>34.54033881866197</v>
+        <v>36.13424399818238</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>36.33804903348296</v>
+        <v>37.60852375995208</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>4.800720345430328</v>
+        <v>5.868399662672566</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>36.02197345521647</v>
+        <v>36.4851464510016</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>35.53478054338679</v>
+        <v>41.47381799162533</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>5.254588096466509</v>
+        <v>7.243392890230595</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>51.50578849640797</v>
+        <v>57.53722422487664</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>57.28893784064531</v>
+        <v>65.85595639883381</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>59.2236016550557</v>
+        <v>58.88498066325248</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>58.79525995245599</v>
+        <v>65.98000820564005</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>59.07124176291816</v>
+        <v>64.82874928110112</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>10.06350672421325</v>
+        <v>12.63777764151957</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>60.91409874601707</v>
+        <v>68.50080398872883</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>62.11622342914491</v>
+        <v>69.14392602007057</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>13.96724758265646</v>
+        <v>16.03734673484597</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>36.8792770526735</v>
+        <v>39.92533910871749</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>41.93122874375682</v>
+        <v>43.70973649742272</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>5.116108101907084</v>
+        <v>5.56818972468216</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>46.02251330879822</v>
+        <v>45.4154061986479</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>45.54216064812088</v>
+        <v>49.62557444523766</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>5.14165318619283</v>
+        <v>6.023538601917526</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>63.48999383610688</v>
+        <v>64.72257938006277</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>69.44516229784614</v>
+        <v>74.23627390283062</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>74.00140195000679</v>
+        <v>76.58150947073423</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>74.37157847883927</v>
+        <v>82.7958193059885</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>80.12020859768786</v>
+        <v>89.66418844462541</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>10.55149300812888</v>
+        <v>11.67631986196584</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>70.69087902370745</v>
+        <v>74.16095678198117</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>78.84318701865553</v>
+        <v>82.99036652015349</v>
       </c>
     </row>
   </sheetData>
